--- a/main/factions.xlsx
+++ b/main/factions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gry\Medieval II Total War\mods\MTW2_Tools\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D78E09E-2997-46CA-A2D1-E3BF0813ADE8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B9540B-481D-493D-B433-27A84F1BB033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="factions" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="260">
   <si>
     <t>faction</t>
   </si>
@@ -804,13 +804,19 @@
   </si>
   <si>
     <t>Swedish_Rebels</t>
+  </si>
+  <si>
+    <t>factions 1 start</t>
+  </si>
+  <si>
+    <t>factions 1 end</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -891,8 +897,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -938,6 +951,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1071,7 +1090,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1114,15 +1133,6 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1159,40 +1169,16 @@
     <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1202,22 +1188,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1227,9 +1201,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1250,6 +1221,55 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1533,14 +1553,15 @@
   <sheetPr>
     <tabColor rgb="FF92D050"/>
   </sheetPr>
-  <dimension ref="A1:AJ73"/>
+  <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.140625" bestFit="1" customWidth="1"/>
@@ -1575,7 +1596,7 @@
     <col min="34" max="34" width="22.7109375" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="26.5703125" bestFit="1" customWidth="1"/>
     <col min="36" max="36" width="10.85546875" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="8.140625" customWidth="1"/>
     <col min="38" max="38" width="8" bestFit="1" customWidth="1"/>
     <col min="39" max="39" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="40" max="40" width="17.85546875" bestFit="1" customWidth="1"/>
@@ -1583,17 +1604,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="58" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
       <c r="Q1" s="12" t="s">
         <v>61</v>
       </c>
@@ -1605,167 +1626,170 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="59" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="20"/>
-      <c r="D2" s="20"/>
-      <c r="E2" s="20"/>
-      <c r="F2" s="20"/>
-      <c r="G2" s="20"/>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20"/>
-      <c r="J2" s="20"/>
-      <c r="K2" s="20"/>
-      <c r="L2" s="20"/>
-      <c r="M2" s="20"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
+      <c r="C2" s="59"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="59"/>
+      <c r="M2" s="59"/>
+      <c r="N2" s="59"/>
+      <c r="O2" s="59"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="E3" s="21" t="s">
+      <c r="A3" s="71" t="s">
+        <v>258</v>
+      </c>
+      <c r="E3" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="21"/>
-      <c r="G3" s="21"/>
-      <c r="H3" s="21" t="s">
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="21"/>
-      <c r="J3" s="21"/>
-      <c r="P3" s="38" t="s">
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="P3" s="68" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="37" t="s">
+      <c r="Q3" s="68"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="67" t="s">
         <v>78</v>
       </c>
-      <c r="AE3" s="37"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
-      <c r="AI3" s="37"/>
-      <c r="AJ3" s="37"/>
+      <c r="AE3" s="67"/>
+      <c r="AF3" s="67"/>
+      <c r="AG3" s="67"/>
+      <c r="AH3" s="67"/>
+      <c r="AI3" s="67"/>
+      <c r="AJ3" s="67"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="32" t="s">
+      <c r="E4" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="F4" s="32" t="s">
+      <c r="F4" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="I4" s="32" t="s">
+      <c r="I4" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="J4" s="32" t="s">
+      <c r="J4" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="K4" s="31" t="s">
+      <c r="K4" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="L4" s="31" t="s">
+      <c r="L4" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="M4" s="31" t="s">
+      <c r="M4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="N4" s="31" t="s">
+      <c r="N4" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="O4" s="31" t="s">
+      <c r="O4" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="P4" s="33" t="s">
+      <c r="P4" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="Q4" s="31" t="s">
+      <c r="Q4" s="28" t="s">
         <v>72</v>
       </c>
-      <c r="R4" s="31" t="s">
+      <c r="R4" s="28" t="s">
         <v>73</v>
       </c>
-      <c r="S4" s="31" t="s">
+      <c r="S4" s="28" t="s">
         <v>74</v>
       </c>
-      <c r="T4" s="31" t="s">
+      <c r="T4" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="U4" s="31" t="s">
+      <c r="U4" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="V4" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="W4" s="31" t="s">
+      <c r="W4" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="X4" s="31" t="s">
+      <c r="X4" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="Y4" s="31" t="s">
+      <c r="Y4" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="AA4" s="31" t="s">
+      <c r="AA4" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="AB4" s="31" t="s">
+      <c r="AB4" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="AC4" s="31" t="s">
+      <c r="AC4" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="AD4" s="34" t="s">
+      <c r="AD4" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="AE4" s="34" t="s">
+      <c r="AE4" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="AF4" s="34" t="s">
+      <c r="AF4" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="AG4" s="35" t="s">
+      <c r="AG4" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="AH4" s="34" t="s">
+      <c r="AH4" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AI4" s="34" t="s">
+      <c r="AI4" s="31" t="s">
         <v>10</v>
       </c>
-      <c r="AJ4" s="36" t="s">
+      <c r="AJ4" s="33" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1773,62 +1797,62 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="25" t="s">
+      <c r="D5" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="26">
+      <c r="E5" s="23">
         <v>121</v>
       </c>
-      <c r="F5" s="26">
+      <c r="F5" s="23">
         <v>18</v>
       </c>
-      <c r="G5" s="27">
+      <c r="G5" s="24">
         <v>18</v>
       </c>
-      <c r="H5" s="28">
+      <c r="H5" s="25">
         <v>65</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="23">
         <v>0</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="23">
         <v>0</v>
       </c>
-      <c r="K5" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="L5" s="26" t="s">
+      <c r="K5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="M5" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="O5" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="29"/>
-      <c r="R5" s="29"/>
-      <c r="S5" s="29"/>
-      <c r="T5" s="29"/>
-      <c r="U5" s="29"/>
-      <c r="V5" s="29"/>
-      <c r="W5" s="29"/>
-      <c r="X5" s="29"/>
-      <c r="Y5" s="29"/>
-      <c r="Z5" s="29"/>
-      <c r="AA5" s="29"/>
-      <c r="AB5" s="29"/>
-      <c r="AC5" s="29"/>
+      <c r="M5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="O5" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="26"/>
+      <c r="R5" s="26"/>
+      <c r="S5" s="26"/>
+      <c r="T5" s="26"/>
+      <c r="U5" s="26"/>
+      <c r="V5" s="26"/>
+      <c r="W5" s="26"/>
+      <c r="X5" s="26"/>
+      <c r="Y5" s="26"/>
+      <c r="Z5" s="26"/>
+      <c r="AA5" s="26"/>
+      <c r="AB5" s="26"/>
+      <c r="AC5" s="26"/>
       <c r="AD5" s="3" t="str">
         <f t="shared" ref="AD5:AD34" si="0">CONCATENATE("models_strat/symbol_",B5,".CAS")</f>
         <v>models_strat/symbol_venice.CAS</v>
@@ -1860,13 +1884,13 @@
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="62" t="s">
+      <c r="C6" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D6" s="62" t="s">
+      <c r="D6" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E6" s="18">
@@ -1875,10 +1899,10 @@
       <c r="F6" s="18">
         <v>70</v>
       </c>
-      <c r="G6" s="63">
-        <v>70</v>
-      </c>
-      <c r="H6" s="64">
+      <c r="G6" s="48">
+        <v>70</v>
+      </c>
+      <c r="H6" s="49">
         <v>27</v>
       </c>
       <c r="I6" s="18">
@@ -2034,13 +2058,13 @@
       <c r="A8">
         <v>4</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="C8" s="62" t="s">
+      <c r="C8" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="62" t="s">
+      <c r="D8" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E8" s="18">
@@ -2049,10 +2073,10 @@
       <c r="F8" s="18">
         <v>133</v>
       </c>
-      <c r="G8" s="63">
+      <c r="G8" s="48">
         <v>25</v>
       </c>
-      <c r="H8" s="64">
+      <c r="H8" s="49">
         <v>95</v>
       </c>
       <c r="I8" s="18">
@@ -2208,13 +2232,13 @@
       <c r="A10">
         <v>6</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="62" t="s">
+      <c r="C10" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E10" s="18">
@@ -2223,10 +2247,10 @@
       <c r="F10" s="18">
         <v>57</v>
       </c>
-      <c r="G10" s="63">
+      <c r="G10" s="48">
         <v>144</v>
       </c>
-      <c r="H10" s="64">
+      <c r="H10" s="49">
         <v>0</v>
       </c>
       <c r="I10" s="18">
@@ -2382,13 +2406,13 @@
       <c r="A12">
         <v>8</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="62" t="s">
+      <c r="C12" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="62" t="s">
+      <c r="D12" s="47" t="s">
         <v>21</v>
       </c>
       <c r="E12" s="18">
@@ -2397,10 +2421,10 @@
       <c r="F12" s="18">
         <v>158</v>
       </c>
-      <c r="G12" s="63">
+      <c r="G12" s="48">
         <v>179</v>
       </c>
-      <c r="H12" s="64">
+      <c r="H12" s="49">
         <v>6</v>
       </c>
       <c r="I12" s="18">
@@ -2556,13 +2580,13 @@
       <c r="A14">
         <v>10</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="46" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="62" t="s">
+      <c r="C14" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="62" t="s">
+      <c r="D14" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E14" s="18">
@@ -2571,10 +2595,10 @@
       <c r="F14" s="18">
         <v>191</v>
       </c>
-      <c r="G14" s="63">
+      <c r="G14" s="48">
         <v>57</v>
       </c>
-      <c r="H14" s="64">
+      <c r="H14" s="49">
         <v>173</v>
       </c>
       <c r="I14" s="18">
@@ -2730,13 +2754,13 @@
       <c r="A16">
         <v>12</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="46" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="62" t="s">
+      <c r="C16" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="62" t="s">
+      <c r="D16" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E16" s="18">
@@ -2745,10 +2769,10 @@
       <c r="F16" s="18">
         <v>195</v>
       </c>
-      <c r="G16" s="63">
+      <c r="G16" s="48">
         <v>222</v>
       </c>
-      <c r="H16" s="64">
+      <c r="H16" s="49">
         <v>122</v>
       </c>
       <c r="I16" s="18">
@@ -2904,13 +2928,13 @@
       <c r="A18">
         <v>14</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="62" t="s">
+      <c r="C18" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D18" s="62" t="s">
+      <c r="D18" s="47" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="18">
@@ -2919,10 +2943,10 @@
       <c r="F18" s="18">
         <v>52</v>
       </c>
-      <c r="G18" s="63">
+      <c r="G18" s="48">
         <v>115</v>
       </c>
-      <c r="H18" s="64">
+      <c r="H18" s="49">
         <v>76</v>
       </c>
       <c r="I18" s="18">
@@ -3078,13 +3102,13 @@
       <c r="A20">
         <v>16</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="46" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="62" t="s">
+      <c r="C20" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D20" s="62" t="s">
+      <c r="D20" s="47" t="s">
         <v>40</v>
       </c>
       <c r="E20" s="18">
@@ -3093,10 +3117,10 @@
       <c r="F20" s="18">
         <v>45</v>
       </c>
-      <c r="G20" s="63">
+      <c r="G20" s="48">
         <v>131</v>
       </c>
-      <c r="H20" s="64">
+      <c r="H20" s="49">
         <v>0</v>
       </c>
       <c r="I20" s="18">
@@ -3252,13 +3276,13 @@
       <c r="A22">
         <v>18</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="46" t="s">
         <v>44</v>
       </c>
-      <c r="C22" s="62" t="s">
+      <c r="C22" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D22" s="62" t="s">
+      <c r="D22" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E22" s="18">
@@ -3267,10 +3291,10 @@
       <c r="F22" s="18">
         <v>83</v>
       </c>
-      <c r="G22" s="63">
+      <c r="G22" s="48">
         <v>65</v>
       </c>
-      <c r="H22" s="64">
+      <c r="H22" s="49">
         <v>166</v>
       </c>
       <c r="I22" s="18">
@@ -3426,13 +3450,13 @@
       <c r="A24">
         <v>20</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="62" t="s">
+      <c r="C24" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="D24" s="62" t="s">
+      <c r="D24" s="47" t="s">
         <v>31</v>
       </c>
       <c r="E24" s="18">
@@ -3441,10 +3465,10 @@
       <c r="F24" s="18">
         <v>104</v>
       </c>
-      <c r="G24" s="63">
+      <c r="G24" s="48">
         <v>78</v>
       </c>
-      <c r="H24" s="64">
+      <c r="H24" s="49">
         <v>128</v>
       </c>
       <c r="I24" s="18">
@@ -3600,13 +3624,13 @@
       <c r="A26">
         <v>22</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C26" s="62" t="s">
+      <c r="C26" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D26" s="62" t="s">
+      <c r="D26" s="47" t="s">
         <v>40</v>
       </c>
       <c r="E26" s="18">
@@ -3615,10 +3639,10 @@
       <c r="F26" s="18">
         <v>146</v>
       </c>
-      <c r="G26" s="63">
-        <v>70</v>
-      </c>
-      <c r="H26" s="64">
+      <c r="G26" s="48">
+        <v>70</v>
+      </c>
+      <c r="H26" s="49">
         <v>236</v>
       </c>
       <c r="I26" s="18">
@@ -3774,13 +3798,13 @@
       <c r="A28">
         <v>24</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="C28" s="62" t="s">
+      <c r="C28" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="D28" s="62" t="s">
+      <c r="D28" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E28" s="18">
@@ -3789,10 +3813,10 @@
       <c r="F28" s="18">
         <v>39</v>
       </c>
-      <c r="G28" s="63">
+      <c r="G28" s="48">
         <v>29</v>
       </c>
-      <c r="H28" s="64">
+      <c r="H28" s="49">
         <v>73</v>
       </c>
       <c r="I28" s="18">
@@ -3948,13 +3972,13 @@
       <c r="A30">
         <v>26</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="C30" s="62" t="s">
+      <c r="C30" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D30" s="62" t="s">
+      <c r="D30" s="47" t="s">
         <v>21</v>
       </c>
       <c r="E30" s="18">
@@ -3963,10 +3987,10 @@
       <c r="F30" s="18">
         <v>231</v>
       </c>
-      <c r="G30" s="63">
+      <c r="G30" s="48">
         <v>170</v>
       </c>
-      <c r="H30" s="64">
+      <c r="H30" s="49">
         <v>166</v>
       </c>
       <c r="I30" s="18">
@@ -4122,13 +4146,13 @@
       <c r="A32">
         <v>28</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="62" t="s">
+      <c r="C32" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D32" s="62" t="s">
+      <c r="D32" s="47" t="s">
         <v>19</v>
       </c>
       <c r="E32" s="18">
@@ -4137,10 +4161,10 @@
       <c r="F32" s="18">
         <v>48</v>
       </c>
-      <c r="G32" s="63">
+      <c r="G32" s="48">
         <v>120</v>
       </c>
-      <c r="H32" s="64">
+      <c r="H32" s="49">
         <v>140</v>
       </c>
       <c r="I32" s="18">
@@ -4205,7 +4229,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>29</v>
       </c>
@@ -4292,17 +4316,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="34" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>30</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="46" t="s">
         <v>56</v>
       </c>
-      <c r="C34" s="62" t="s">
+      <c r="C34" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="D34" s="62" t="s">
+      <c r="D34" s="47" t="s">
         <v>31</v>
       </c>
       <c r="E34" s="18">
@@ -4311,10 +4335,10 @@
       <c r="F34" s="18">
         <v>176</v>
       </c>
-      <c r="G34" s="63">
+      <c r="G34" s="48">
         <v>69</v>
       </c>
-      <c r="H34" s="64">
+      <c r="H34" s="49">
         <v>164</v>
       </c>
       <c r="I34" s="18">
@@ -4407,7 +4431,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="35" spans="1:36" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:37" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>31</v>
       </c>
@@ -4494,1203 +4518,1207 @@
         <v>5</v>
       </c>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B37" s="20" t="s">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="AK36" s="72" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B37" s="59" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="20"/>
-      <c r="O37" s="20"/>
-    </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B38" s="39"/>
-      <c r="C38" s="54" t="s">
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="M37" s="59"/>
+      <c r="N37" s="59"/>
+      <c r="O37" s="59"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B38" s="34"/>
+      <c r="C38" s="56" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="54"/>
-      <c r="E38" s="54"/>
-      <c r="F38" s="54"/>
-      <c r="G38" s="54"/>
-      <c r="H38" s="55" t="s">
+      <c r="D38" s="56"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="56"/>
+      <c r="H38" s="63" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="56"/>
-      <c r="J38" s="57" t="s">
+      <c r="I38" s="64"/>
+      <c r="J38" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="K38" s="57" t="s">
+      <c r="K38" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="L38" s="57" t="s">
+      <c r="L38" s="27" t="s">
         <v>102</v>
       </c>
-      <c r="M38" s="57" t="s">
+      <c r="M38" s="27" t="s">
         <v>103</v>
       </c>
-      <c r="N38" s="57" t="s">
+      <c r="N38" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="O38" s="58" t="s">
+      <c r="O38" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="P38" s="54" t="s">
+      <c r="P38" s="56" t="s">
         <v>106</v>
       </c>
-      <c r="Q38" s="54"/>
-      <c r="R38" s="54"/>
-      <c r="S38" s="54"/>
-      <c r="T38" s="54"/>
-      <c r="U38" s="54"/>
-      <c r="V38" s="58" t="s">
+      <c r="Q38" s="56"/>
+      <c r="R38" s="56"/>
+      <c r="S38" s="56"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="W38" s="58" t="s">
+      <c r="W38" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="X38" s="57" t="s">
+      <c r="X38" s="27" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="39" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B39" s="41" t="s">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B39" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="50"/>
-      <c r="D39" s="50"/>
-      <c r="E39" s="50"/>
-      <c r="F39" s="50"/>
-      <c r="G39" s="50"/>
-      <c r="H39" s="50"/>
-      <c r="I39" s="50"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="52"/>
-      <c r="P39" s="50"/>
-      <c r="Q39" s="50"/>
-      <c r="R39" s="50"/>
-      <c r="S39" s="50"/>
-      <c r="T39" s="50"/>
-      <c r="U39" s="50"/>
-      <c r="V39" s="52"/>
-      <c r="W39" s="52"/>
-      <c r="X39" s="51"/>
-    </row>
-    <row r="40" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B40" s="41" t="s">
+      <c r="C39" s="57"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="57"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="40"/>
+      <c r="M39" s="40"/>
+      <c r="N39" s="40"/>
+      <c r="O39" s="41"/>
+      <c r="P39" s="57"/>
+      <c r="Q39" s="57"/>
+      <c r="R39" s="57"/>
+      <c r="S39" s="57"/>
+      <c r="T39" s="57"/>
+      <c r="U39" s="57"/>
+      <c r="V39" s="41"/>
+      <c r="W39" s="41"/>
+      <c r="X39" s="40"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B40" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="50"/>
-      <c r="D40" s="50"/>
-      <c r="E40" s="50"/>
-      <c r="F40" s="50"/>
-      <c r="G40" s="50"/>
-      <c r="H40" s="50"/>
-      <c r="I40" s="50"/>
-      <c r="J40" s="51"/>
-      <c r="K40" s="51"/>
-      <c r="L40" s="51"/>
-      <c r="M40" s="51"/>
-      <c r="N40" s="51"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="50"/>
-      <c r="Q40" s="50"/>
-      <c r="R40" s="50"/>
-      <c r="S40" s="50"/>
-      <c r="T40" s="50"/>
-      <c r="U40" s="50"/>
-      <c r="V40" s="52"/>
-      <c r="W40" s="52"/>
-      <c r="X40" s="51"/>
-    </row>
-    <row r="41" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B41" s="39"/>
-      <c r="C41" s="42" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="40"/>
+      <c r="K40" s="40"/>
+      <c r="L40" s="40"/>
+      <c r="M40" s="40"/>
+      <c r="N40" s="40"/>
+      <c r="O40" s="41"/>
+      <c r="P40" s="57"/>
+      <c r="Q40" s="57"/>
+      <c r="R40" s="57"/>
+      <c r="S40" s="57"/>
+      <c r="T40" s="57"/>
+      <c r="U40" s="57"/>
+      <c r="V40" s="41"/>
+      <c r="W40" s="41"/>
+      <c r="X40" s="40"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.25">
+      <c r="B41" s="34"/>
+      <c r="C41" s="60" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="43"/>
-      <c r="E41" s="44"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="44"/>
-      <c r="H41" s="47"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="39"/>
-      <c r="K41" s="39"/>
-      <c r="L41" s="39"/>
-      <c r="M41" s="39"/>
-      <c r="N41" s="39"/>
-      <c r="O41" s="39"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="59"/>
-      <c r="R41" s="59"/>
-      <c r="S41" s="30" t="s">
+      <c r="D41" s="61"/>
+      <c r="E41" s="62"/>
+      <c r="F41" s="60"/>
+      <c r="G41" s="62"/>
+      <c r="H41" s="65"/>
+      <c r="I41" s="66"/>
+      <c r="J41" s="34"/>
+      <c r="K41" s="34"/>
+      <c r="L41" s="34"/>
+      <c r="M41" s="34"/>
+      <c r="N41" s="34"/>
+      <c r="O41" s="34"/>
+      <c r="P41" s="44"/>
+      <c r="Q41" s="44"/>
+      <c r="R41" s="44"/>
+      <c r="S41" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="T41" s="30" t="s">
+      <c r="T41" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="U41" s="30" t="s">
+      <c r="U41" s="27" t="s">
         <v>109</v>
       </c>
-      <c r="V41" s="39"/>
-      <c r="W41" s="39"/>
+      <c r="V41" s="34"/>
+      <c r="W41" s="34"/>
       <c r="X41" s="17"/>
     </row>
-    <row r="42" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B42" s="30" t="s">
+      <c r="B42" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="45" t="s">
+      <c r="C42" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="D42" s="45" t="s">
+      <c r="D42" s="37" t="s">
         <v>92</v>
       </c>
-      <c r="E42" s="45" t="s">
+      <c r="E42" s="37" t="s">
         <v>93</v>
       </c>
-      <c r="F42" s="46" t="s">
+      <c r="F42" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="G42" s="46" t="s">
+      <c r="G42" s="38" t="s">
         <v>94</v>
       </c>
-      <c r="H42" s="45" t="s">
+      <c r="H42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="I42" s="46" t="s">
+      <c r="I42" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="J42" s="45" t="s">
+      <c r="J42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="K42" s="45" t="s">
+      <c r="K42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="L42" s="45" t="s">
+      <c r="L42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="M42" s="45" t="s">
+      <c r="M42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="N42" s="45" t="s">
+      <c r="N42" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="O42" s="49" t="s">
+      <c r="O42" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="P42" s="31" t="s">
+      <c r="P42" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="Q42" s="31" t="s">
+      <c r="Q42" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="R42" s="31" t="s">
+      <c r="R42" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="S42" s="31" t="s">
+      <c r="S42" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="T42" s="31" t="s">
+      <c r="T42" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="U42" s="31" t="s">
+      <c r="U42" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="V42" s="49" t="s">
+      <c r="V42" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="W42" s="49" t="s">
+      <c r="W42" s="39" t="s">
         <v>99</v>
       </c>
-      <c r="X42" s="45" t="s">
+      <c r="X42" s="37" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="43" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
-      <c r="B43" s="40" t="str">
+      <c r="B43" s="35" t="str">
         <f>B5</f>
         <v>venice</v>
       </c>
-      <c r="C43" s="53"/>
-      <c r="D43" s="53"/>
-      <c r="E43" s="53"/>
-      <c r="F43" s="53"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="53"/>
-      <c r="I43" s="53"/>
-      <c r="J43" s="53"/>
-      <c r="K43" s="53"/>
-      <c r="L43" s="53"/>
-      <c r="M43" s="53"/>
-      <c r="N43" s="53"/>
-      <c r="O43" s="53"/>
-      <c r="P43" s="53"/>
-      <c r="Q43" s="53"/>
-      <c r="R43" s="53"/>
-      <c r="S43" s="53"/>
-      <c r="T43" s="53"/>
-      <c r="U43" s="53"/>
-      <c r="V43" s="53"/>
-      <c r="W43" s="53"/>
-      <c r="X43" s="53"/>
-    </row>
-    <row r="44" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="42"/>
+      <c r="I43" s="42"/>
+      <c r="J43" s="42"/>
+      <c r="K43" s="42"/>
+      <c r="L43" s="42"/>
+      <c r="M43" s="42"/>
+      <c r="N43" s="42"/>
+      <c r="O43" s="42"/>
+      <c r="P43" s="42"/>
+      <c r="Q43" s="42"/>
+      <c r="R43" s="42"/>
+      <c r="S43" s="42"/>
+      <c r="T43" s="42"/>
+      <c r="U43" s="42"/>
+      <c r="V43" s="42"/>
+      <c r="W43" s="42"/>
+      <c r="X43" s="42"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2</v>
       </c>
-      <c r="B44" s="23" t="str">
+      <c r="B44" s="20" t="str">
         <f t="shared" ref="B44:B73" si="5">B6</f>
         <v>sicily</v>
       </c>
-      <c r="C44" s="53"/>
-      <c r="D44" s="53"/>
-      <c r="E44" s="53"/>
-      <c r="F44" s="53"/>
-      <c r="G44" s="53"/>
-      <c r="H44" s="53"/>
-      <c r="I44" s="53"/>
-      <c r="J44" s="53"/>
-      <c r="K44" s="53"/>
-      <c r="L44" s="53"/>
-      <c r="M44" s="53"/>
-      <c r="N44" s="53"/>
-      <c r="O44" s="53"/>
-      <c r="P44" s="53"/>
-      <c r="Q44" s="53"/>
-      <c r="R44" s="53"/>
-      <c r="S44" s="53"/>
-      <c r="T44" s="53"/>
-      <c r="U44" s="53"/>
-      <c r="V44" s="53"/>
-      <c r="W44" s="53"/>
-      <c r="X44" s="53"/>
-    </row>
-    <row r="45" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="42"/>
+      <c r="F44" s="42"/>
+      <c r="G44" s="42"/>
+      <c r="H44" s="42"/>
+      <c r="I44" s="42"/>
+      <c r="J44" s="42"/>
+      <c r="K44" s="42"/>
+      <c r="L44" s="42"/>
+      <c r="M44" s="42"/>
+      <c r="N44" s="42"/>
+      <c r="O44" s="42"/>
+      <c r="P44" s="42"/>
+      <c r="Q44" s="42"/>
+      <c r="R44" s="42"/>
+      <c r="S44" s="42"/>
+      <c r="T44" s="42"/>
+      <c r="U44" s="42"/>
+      <c r="V44" s="42"/>
+      <c r="W44" s="42"/>
+      <c r="X44" s="42"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>3</v>
       </c>
-      <c r="B45" s="23" t="str">
+      <c r="B45" s="20" t="str">
         <f t="shared" si="5"/>
         <v>abbasid</v>
       </c>
-      <c r="C45" s="53"/>
-      <c r="D45" s="53"/>
-      <c r="E45" s="53"/>
-      <c r="F45" s="53"/>
-      <c r="G45" s="53"/>
-      <c r="H45" s="53"/>
-      <c r="I45" s="53"/>
-      <c r="J45" s="53"/>
-      <c r="K45" s="53"/>
-      <c r="L45" s="53"/>
-      <c r="M45" s="53"/>
-      <c r="N45" s="53"/>
-      <c r="O45" s="53"/>
-      <c r="P45" s="53"/>
-      <c r="Q45" s="53"/>
-      <c r="R45" s="53"/>
-      <c r="S45" s="53"/>
-      <c r="T45" s="53"/>
-      <c r="U45" s="53"/>
-      <c r="V45" s="53"/>
-      <c r="W45" s="53"/>
-      <c r="X45" s="53"/>
-    </row>
-    <row r="46" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C45" s="42"/>
+      <c r="D45" s="42"/>
+      <c r="E45" s="42"/>
+      <c r="F45" s="42"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42"/>
+      <c r="I45" s="42"/>
+      <c r="J45" s="42"/>
+      <c r="K45" s="42"/>
+      <c r="L45" s="42"/>
+      <c r="M45" s="42"/>
+      <c r="N45" s="42"/>
+      <c r="O45" s="42"/>
+      <c r="P45" s="42"/>
+      <c r="Q45" s="42"/>
+      <c r="R45" s="42"/>
+      <c r="S45" s="42"/>
+      <c r="T45" s="42"/>
+      <c r="U45" s="42"/>
+      <c r="V45" s="42"/>
+      <c r="W45" s="42"/>
+      <c r="X45" s="42"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
-      <c r="B46" s="23" t="str">
+      <c r="B46" s="20" t="str">
         <f t="shared" si="5"/>
         <v>denmark</v>
       </c>
-      <c r="C46" s="53"/>
-      <c r="D46" s="53"/>
-      <c r="E46" s="53"/>
-      <c r="F46" s="53"/>
-      <c r="G46" s="53"/>
-      <c r="H46" s="53"/>
-      <c r="I46" s="53"/>
-      <c r="J46" s="53"/>
-      <c r="K46" s="53"/>
-      <c r="L46" s="53"/>
-      <c r="M46" s="53"/>
-      <c r="N46" s="53"/>
-      <c r="O46" s="53"/>
-      <c r="P46" s="53"/>
-      <c r="Q46" s="53"/>
-      <c r="R46" s="53"/>
-      <c r="S46" s="53"/>
-      <c r="T46" s="53"/>
-      <c r="U46" s="53"/>
-      <c r="V46" s="53"/>
-      <c r="W46" s="53"/>
-      <c r="X46" s="53"/>
-    </row>
-    <row r="47" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C46" s="42"/>
+      <c r="D46" s="42"/>
+      <c r="E46" s="42"/>
+      <c r="F46" s="42"/>
+      <c r="G46" s="42"/>
+      <c r="H46" s="42"/>
+      <c r="I46" s="42"/>
+      <c r="J46" s="42"/>
+      <c r="K46" s="42"/>
+      <c r="L46" s="42"/>
+      <c r="M46" s="42"/>
+      <c r="N46" s="42"/>
+      <c r="O46" s="42"/>
+      <c r="P46" s="42"/>
+      <c r="Q46" s="42"/>
+      <c r="R46" s="42"/>
+      <c r="S46" s="42"/>
+      <c r="T46" s="42"/>
+      <c r="U46" s="42"/>
+      <c r="V46" s="42"/>
+      <c r="W46" s="42"/>
+      <c r="X46" s="42"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>5</v>
       </c>
-      <c r="B47" s="23" t="str">
+      <c r="B47" s="20" t="str">
         <f t="shared" si="5"/>
         <v>egypt</v>
       </c>
-      <c r="C47" s="53"/>
-      <c r="D47" s="53"/>
-      <c r="E47" s="53"/>
-      <c r="F47" s="53"/>
-      <c r="G47" s="53"/>
-      <c r="H47" s="53"/>
-      <c r="I47" s="53"/>
-      <c r="J47" s="53"/>
-      <c r="K47" s="53"/>
-      <c r="L47" s="53"/>
-      <c r="M47" s="53"/>
-      <c r="N47" s="53"/>
-      <c r="O47" s="53"/>
-      <c r="P47" s="53"/>
-      <c r="Q47" s="53"/>
-      <c r="R47" s="53"/>
-      <c r="S47" s="53"/>
-      <c r="T47" s="53"/>
-      <c r="U47" s="53"/>
-      <c r="V47" s="53"/>
-      <c r="W47" s="53"/>
-      <c r="X47" s="53"/>
-    </row>
-    <row r="48" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="C47" s="42"/>
+      <c r="D47" s="42"/>
+      <c r="E47" s="42"/>
+      <c r="F47" s="42"/>
+      <c r="G47" s="42"/>
+      <c r="H47" s="42"/>
+      <c r="I47" s="42"/>
+      <c r="J47" s="42"/>
+      <c r="K47" s="42"/>
+      <c r="L47" s="42"/>
+      <c r="M47" s="42"/>
+      <c r="N47" s="42"/>
+      <c r="O47" s="42"/>
+      <c r="P47" s="42"/>
+      <c r="Q47" s="42"/>
+      <c r="R47" s="42"/>
+      <c r="S47" s="42"/>
+      <c r="T47" s="42"/>
+      <c r="U47" s="42"/>
+      <c r="V47" s="42"/>
+      <c r="W47" s="42"/>
+      <c r="X47" s="42"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>6</v>
       </c>
-      <c r="B48" s="23" t="str">
+      <c r="B48" s="20" t="str">
         <f t="shared" si="5"/>
         <v>scotland</v>
       </c>
-      <c r="C48" s="53"/>
-      <c r="D48" s="53"/>
-      <c r="E48" s="53"/>
-      <c r="F48" s="53"/>
-      <c r="G48" s="53"/>
-      <c r="H48" s="53"/>
-      <c r="I48" s="53"/>
-      <c r="J48" s="53"/>
-      <c r="K48" s="53"/>
-      <c r="L48" s="53"/>
-      <c r="M48" s="53"/>
-      <c r="N48" s="53"/>
-      <c r="O48" s="53"/>
-      <c r="P48" s="53"/>
-      <c r="Q48" s="53"/>
-      <c r="R48" s="53"/>
-      <c r="S48" s="53"/>
-      <c r="T48" s="53"/>
-      <c r="U48" s="53"/>
-      <c r="V48" s="53"/>
-      <c r="W48" s="53"/>
-      <c r="X48" s="53"/>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+      <c r="G48" s="42"/>
+      <c r="H48" s="42"/>
+      <c r="I48" s="42"/>
+      <c r="J48" s="42"/>
+      <c r="K48" s="42"/>
+      <c r="L48" s="42"/>
+      <c r="M48" s="42"/>
+      <c r="N48" s="42"/>
+      <c r="O48" s="42"/>
+      <c r="P48" s="42"/>
+      <c r="Q48" s="42"/>
+      <c r="R48" s="42"/>
+      <c r="S48" s="42"/>
+      <c r="T48" s="42"/>
+      <c r="U48" s="42"/>
+      <c r="V48" s="42"/>
+      <c r="W48" s="42"/>
+      <c r="X48" s="42"/>
     </row>
     <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>7</v>
       </c>
-      <c r="B49" s="23" t="str">
+      <c r="B49" s="20" t="str">
         <f t="shared" si="5"/>
         <v>cumans</v>
       </c>
-      <c r="C49" s="53"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
-      <c r="F49" s="53"/>
-      <c r="G49" s="53"/>
-      <c r="H49" s="53"/>
-      <c r="I49" s="53"/>
-      <c r="J49" s="53"/>
-      <c r="K49" s="53"/>
-      <c r="L49" s="53"/>
-      <c r="M49" s="53"/>
-      <c r="N49" s="53"/>
-      <c r="O49" s="53"/>
-      <c r="P49" s="53"/>
-      <c r="Q49" s="53"/>
-      <c r="R49" s="53"/>
-      <c r="S49" s="53"/>
-      <c r="T49" s="53"/>
-      <c r="U49" s="53"/>
-      <c r="V49" s="53"/>
-      <c r="W49" s="53"/>
-      <c r="X49" s="53"/>
+      <c r="C49" s="42"/>
+      <c r="D49" s="42"/>
+      <c r="E49" s="42"/>
+      <c r="F49" s="42"/>
+      <c r="G49" s="42"/>
+      <c r="H49" s="42"/>
+      <c r="I49" s="42"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
+      <c r="L49" s="42"/>
+      <c r="M49" s="42"/>
+      <c r="N49" s="42"/>
+      <c r="O49" s="42"/>
+      <c r="P49" s="42"/>
+      <c r="Q49" s="42"/>
+      <c r="R49" s="42"/>
+      <c r="S49" s="42"/>
+      <c r="T49" s="42"/>
+      <c r="U49" s="42"/>
+      <c r="V49" s="42"/>
+      <c r="W49" s="42"/>
+      <c r="X49" s="42"/>
     </row>
     <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>8</v>
       </c>
-      <c r="B50" s="23" t="str">
+      <c r="B50" s="20" t="str">
         <f t="shared" si="5"/>
         <v>turks</v>
       </c>
-      <c r="C50" s="53"/>
-      <c r="D50" s="53"/>
-      <c r="E50" s="53"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
-      <c r="I50" s="53"/>
-      <c r="J50" s="53"/>
-      <c r="K50" s="53"/>
-      <c r="L50" s="53"/>
-      <c r="M50" s="53"/>
-      <c r="N50" s="53"/>
-      <c r="O50" s="53"/>
-      <c r="P50" s="53"/>
-      <c r="Q50" s="53"/>
-      <c r="R50" s="53"/>
-      <c r="S50" s="53"/>
-      <c r="T50" s="53"/>
-      <c r="U50" s="53"/>
-      <c r="V50" s="53"/>
-      <c r="W50" s="53"/>
-      <c r="X50" s="53"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="42"/>
+      <c r="F50" s="42"/>
+      <c r="G50" s="42"/>
+      <c r="H50" s="42"/>
+      <c r="I50" s="42"/>
+      <c r="J50" s="42"/>
+      <c r="K50" s="42"/>
+      <c r="L50" s="42"/>
+      <c r="M50" s="42"/>
+      <c r="N50" s="42"/>
+      <c r="O50" s="42"/>
+      <c r="P50" s="42"/>
+      <c r="Q50" s="42"/>
+      <c r="R50" s="42"/>
+      <c r="S50" s="42"/>
+      <c r="T50" s="42"/>
+      <c r="U50" s="42"/>
+      <c r="V50" s="42"/>
+      <c r="W50" s="42"/>
+      <c r="X50" s="42"/>
     </row>
     <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>9</v>
       </c>
-      <c r="B51" s="23" t="str">
+      <c r="B51" s="20" t="str">
         <f t="shared" si="5"/>
         <v>france</v>
       </c>
-      <c r="C51" s="53"/>
-      <c r="D51" s="53"/>
-      <c r="E51" s="53"/>
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
-      <c r="I51" s="53"/>
-      <c r="J51" s="53"/>
-      <c r="K51" s="53"/>
-      <c r="L51" s="53"/>
-      <c r="M51" s="53"/>
-      <c r="N51" s="53"/>
-      <c r="O51" s="53"/>
-      <c r="P51" s="53"/>
-      <c r="Q51" s="53"/>
-      <c r="R51" s="53"/>
-      <c r="S51" s="53"/>
-      <c r="T51" s="53"/>
-      <c r="U51" s="53"/>
-      <c r="V51" s="53"/>
-      <c r="W51" s="53"/>
-      <c r="X51" s="53"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="42"/>
+      <c r="F51" s="42"/>
+      <c r="G51" s="42"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42"/>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42"/>
+      <c r="M51" s="42"/>
+      <c r="N51" s="42"/>
+      <c r="O51" s="42"/>
+      <c r="P51" s="42"/>
+      <c r="Q51" s="42"/>
+      <c r="R51" s="42"/>
+      <c r="S51" s="42"/>
+      <c r="T51" s="42"/>
+      <c r="U51" s="42"/>
+      <c r="V51" s="42"/>
+      <c r="W51" s="42"/>
+      <c r="X51" s="42"/>
     </row>
     <row r="52" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>10</v>
       </c>
-      <c r="B52" s="23" t="str">
+      <c r="B52" s="20" t="str">
         <f t="shared" si="5"/>
         <v>hre</v>
       </c>
-      <c r="C52" s="53"/>
-      <c r="D52" s="53"/>
-      <c r="E52" s="53"/>
-      <c r="F52" s="53"/>
-      <c r="G52" s="53"/>
-      <c r="H52" s="53"/>
-      <c r="I52" s="53"/>
-      <c r="J52" s="53"/>
-      <c r="K52" s="53"/>
-      <c r="L52" s="53"/>
-      <c r="M52" s="53"/>
-      <c r="N52" s="53"/>
-      <c r="O52" s="53"/>
-      <c r="P52" s="53"/>
-      <c r="Q52" s="53"/>
-      <c r="R52" s="53"/>
-      <c r="S52" s="53"/>
-      <c r="T52" s="53"/>
-      <c r="U52" s="53"/>
-      <c r="V52" s="53"/>
-      <c r="W52" s="53"/>
-      <c r="X52" s="53"/>
+      <c r="C52" s="42"/>
+      <c r="D52" s="42"/>
+      <c r="E52" s="42"/>
+      <c r="F52" s="42"/>
+      <c r="G52" s="42"/>
+      <c r="H52" s="42"/>
+      <c r="I52" s="42"/>
+      <c r="J52" s="42"/>
+      <c r="K52" s="42"/>
+      <c r="L52" s="42"/>
+      <c r="M52" s="42"/>
+      <c r="N52" s="42"/>
+      <c r="O52" s="42"/>
+      <c r="P52" s="42"/>
+      <c r="Q52" s="42"/>
+      <c r="R52" s="42"/>
+      <c r="S52" s="42"/>
+      <c r="T52" s="42"/>
+      <c r="U52" s="42"/>
+      <c r="V52" s="42"/>
+      <c r="W52" s="42"/>
+      <c r="X52" s="42"/>
     </row>
     <row r="53" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>11</v>
       </c>
-      <c r="B53" s="23" t="str">
+      <c r="B53" s="20" t="str">
         <f t="shared" si="5"/>
         <v>england</v>
       </c>
-      <c r="C53" s="53"/>
-      <c r="D53" s="53"/>
-      <c r="E53" s="53"/>
-      <c r="F53" s="53"/>
-      <c r="G53" s="53"/>
-      <c r="H53" s="53"/>
-      <c r="I53" s="53"/>
-      <c r="J53" s="53"/>
-      <c r="K53" s="53"/>
-      <c r="L53" s="53"/>
-      <c r="M53" s="53"/>
-      <c r="N53" s="53"/>
-      <c r="O53" s="53"/>
-      <c r="P53" s="53"/>
-      <c r="Q53" s="53"/>
-      <c r="R53" s="53"/>
-      <c r="S53" s="53"/>
-      <c r="T53" s="53"/>
-      <c r="U53" s="53"/>
-      <c r="V53" s="53"/>
-      <c r="W53" s="53"/>
-      <c r="X53" s="53"/>
+      <c r="C53" s="42"/>
+      <c r="D53" s="42"/>
+      <c r="E53" s="42"/>
+      <c r="F53" s="42"/>
+      <c r="G53" s="42"/>
+      <c r="H53" s="42"/>
+      <c r="I53" s="42"/>
+      <c r="J53" s="42"/>
+      <c r="K53" s="42"/>
+      <c r="L53" s="42"/>
+      <c r="M53" s="42"/>
+      <c r="N53" s="42"/>
+      <c r="O53" s="42"/>
+      <c r="P53" s="42"/>
+      <c r="Q53" s="42"/>
+      <c r="R53" s="42"/>
+      <c r="S53" s="42"/>
+      <c r="T53" s="42"/>
+      <c r="U53" s="42"/>
+      <c r="V53" s="42"/>
+      <c r="W53" s="42"/>
+      <c r="X53" s="42"/>
     </row>
     <row r="54" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>12</v>
       </c>
-      <c r="B54" s="23" t="str">
+      <c r="B54" s="20" t="str">
         <f t="shared" si="5"/>
         <v>portugal</v>
       </c>
-      <c r="C54" s="53"/>
-      <c r="D54" s="53"/>
-      <c r="E54" s="53"/>
-      <c r="F54" s="53"/>
-      <c r="G54" s="53"/>
-      <c r="H54" s="53"/>
-      <c r="I54" s="53"/>
-      <c r="J54" s="53"/>
-      <c r="K54" s="53"/>
-      <c r="L54" s="53"/>
-      <c r="M54" s="53"/>
-      <c r="N54" s="53"/>
-      <c r="O54" s="53"/>
-      <c r="P54" s="53"/>
-      <c r="Q54" s="53"/>
-      <c r="R54" s="53"/>
-      <c r="S54" s="53"/>
-      <c r="T54" s="53"/>
-      <c r="U54" s="53"/>
-      <c r="V54" s="53"/>
-      <c r="W54" s="53"/>
-      <c r="X54" s="53"/>
+      <c r="C54" s="42"/>
+      <c r="D54" s="42"/>
+      <c r="E54" s="42"/>
+      <c r="F54" s="42"/>
+      <c r="G54" s="42"/>
+      <c r="H54" s="42"/>
+      <c r="I54" s="42"/>
+      <c r="J54" s="42"/>
+      <c r="K54" s="42"/>
+      <c r="L54" s="42"/>
+      <c r="M54" s="42"/>
+      <c r="N54" s="42"/>
+      <c r="O54" s="42"/>
+      <c r="P54" s="42"/>
+      <c r="Q54" s="42"/>
+      <c r="R54" s="42"/>
+      <c r="S54" s="42"/>
+      <c r="T54" s="42"/>
+      <c r="U54" s="42"/>
+      <c r="V54" s="42"/>
+      <c r="W54" s="42"/>
+      <c r="X54" s="42"/>
     </row>
     <row r="55" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>13</v>
       </c>
-      <c r="B55" s="23" t="str">
+      <c r="B55" s="20" t="str">
         <f t="shared" si="5"/>
         <v>poland</v>
       </c>
-      <c r="C55" s="53"/>
-      <c r="D55" s="53"/>
-      <c r="E55" s="53"/>
-      <c r="F55" s="53"/>
-      <c r="G55" s="53"/>
-      <c r="H55" s="53"/>
-      <c r="I55" s="53"/>
-      <c r="J55" s="53"/>
-      <c r="K55" s="53"/>
-      <c r="L55" s="53"/>
-      <c r="M55" s="53"/>
-      <c r="N55" s="53"/>
-      <c r="O55" s="53"/>
-      <c r="P55" s="53"/>
-      <c r="Q55" s="53"/>
-      <c r="R55" s="53"/>
-      <c r="S55" s="53"/>
-      <c r="T55" s="53"/>
-      <c r="U55" s="53"/>
-      <c r="V55" s="53"/>
-      <c r="W55" s="53"/>
-      <c r="X55" s="53"/>
+      <c r="C55" s="42"/>
+      <c r="D55" s="42"/>
+      <c r="E55" s="42"/>
+      <c r="F55" s="42"/>
+      <c r="G55" s="42"/>
+      <c r="H55" s="42"/>
+      <c r="I55" s="42"/>
+      <c r="J55" s="42"/>
+      <c r="K55" s="42"/>
+      <c r="L55" s="42"/>
+      <c r="M55" s="42"/>
+      <c r="N55" s="42"/>
+      <c r="O55" s="42"/>
+      <c r="P55" s="42"/>
+      <c r="Q55" s="42"/>
+      <c r="R55" s="42"/>
+      <c r="S55" s="42"/>
+      <c r="T55" s="42"/>
+      <c r="U55" s="42"/>
+      <c r="V55" s="42"/>
+      <c r="W55" s="42"/>
+      <c r="X55" s="42"/>
     </row>
     <row r="56" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>14</v>
       </c>
-      <c r="B56" s="23" t="str">
+      <c r="B56" s="20" t="str">
         <f t="shared" si="5"/>
         <v>byzantium</v>
       </c>
-      <c r="C56" s="53"/>
-      <c r="D56" s="53"/>
-      <c r="E56" s="53"/>
-      <c r="F56" s="53"/>
-      <c r="G56" s="53"/>
-      <c r="H56" s="53"/>
-      <c r="I56" s="53"/>
-      <c r="J56" s="53"/>
-      <c r="K56" s="53"/>
-      <c r="L56" s="53"/>
-      <c r="M56" s="53"/>
-      <c r="N56" s="53"/>
-      <c r="O56" s="53"/>
-      <c r="P56" s="53"/>
-      <c r="Q56" s="53"/>
-      <c r="R56" s="53"/>
-      <c r="S56" s="53"/>
-      <c r="T56" s="53"/>
-      <c r="U56" s="53"/>
-      <c r="V56" s="53"/>
-      <c r="W56" s="53"/>
-      <c r="X56" s="53"/>
+      <c r="C56" s="42"/>
+      <c r="D56" s="42"/>
+      <c r="E56" s="42"/>
+      <c r="F56" s="42"/>
+      <c r="G56" s="42"/>
+      <c r="H56" s="42"/>
+      <c r="I56" s="42"/>
+      <c r="J56" s="42"/>
+      <c r="K56" s="42"/>
+      <c r="L56" s="42"/>
+      <c r="M56" s="42"/>
+      <c r="N56" s="42"/>
+      <c r="O56" s="42"/>
+      <c r="P56" s="42"/>
+      <c r="Q56" s="42"/>
+      <c r="R56" s="42"/>
+      <c r="S56" s="42"/>
+      <c r="T56" s="42"/>
+      <c r="U56" s="42"/>
+      <c r="V56" s="42"/>
+      <c r="W56" s="42"/>
+      <c r="X56" s="42"/>
     </row>
     <row r="57" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>15</v>
       </c>
-      <c r="B57" s="23" t="str">
+      <c r="B57" s="20" t="str">
         <f t="shared" si="5"/>
         <v>moors</v>
       </c>
-      <c r="C57" s="53"/>
-      <c r="D57" s="53"/>
-      <c r="E57" s="53"/>
-      <c r="F57" s="53"/>
-      <c r="G57" s="53"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="53"/>
-      <c r="J57" s="53"/>
-      <c r="K57" s="53"/>
-      <c r="L57" s="53"/>
-      <c r="M57" s="53"/>
-      <c r="N57" s="53"/>
-      <c r="O57" s="53"/>
-      <c r="P57" s="53"/>
-      <c r="Q57" s="53"/>
-      <c r="R57" s="53"/>
-      <c r="S57" s="53"/>
-      <c r="T57" s="53"/>
-      <c r="U57" s="53"/>
-      <c r="V57" s="53"/>
-      <c r="W57" s="53"/>
-      <c r="X57" s="53"/>
+      <c r="C57" s="42"/>
+      <c r="D57" s="42"/>
+      <c r="E57" s="42"/>
+      <c r="F57" s="42"/>
+      <c r="G57" s="42"/>
+      <c r="H57" s="42"/>
+      <c r="I57" s="42"/>
+      <c r="J57" s="42"/>
+      <c r="K57" s="42"/>
+      <c r="L57" s="42"/>
+      <c r="M57" s="42"/>
+      <c r="N57" s="42"/>
+      <c r="O57" s="42"/>
+      <c r="P57" s="42"/>
+      <c r="Q57" s="42"/>
+      <c r="R57" s="42"/>
+      <c r="S57" s="42"/>
+      <c r="T57" s="42"/>
+      <c r="U57" s="42"/>
+      <c r="V57" s="42"/>
+      <c r="W57" s="42"/>
+      <c r="X57" s="42"/>
     </row>
     <row r="58" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>16</v>
       </c>
-      <c r="B58" s="23" t="str">
+      <c r="B58" s="20" t="str">
         <f t="shared" si="5"/>
         <v>russia</v>
       </c>
-      <c r="C58" s="53"/>
-      <c r="D58" s="53"/>
-      <c r="E58" s="53"/>
-      <c r="F58" s="53"/>
-      <c r="G58" s="53"/>
-      <c r="H58" s="53"/>
-      <c r="I58" s="53"/>
-      <c r="J58" s="53"/>
-      <c r="K58" s="53"/>
-      <c r="L58" s="53"/>
-      <c r="M58" s="53"/>
-      <c r="N58" s="53"/>
-      <c r="O58" s="53"/>
-      <c r="P58" s="53"/>
-      <c r="Q58" s="53"/>
-      <c r="R58" s="53"/>
-      <c r="S58" s="53"/>
-      <c r="T58" s="53"/>
-      <c r="U58" s="53"/>
-      <c r="V58" s="53"/>
-      <c r="W58" s="53"/>
-      <c r="X58" s="53"/>
+      <c r="C58" s="42"/>
+      <c r="D58" s="42"/>
+      <c r="E58" s="42"/>
+      <c r="F58" s="42"/>
+      <c r="G58" s="42"/>
+      <c r="H58" s="42"/>
+      <c r="I58" s="42"/>
+      <c r="J58" s="42"/>
+      <c r="K58" s="42"/>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+      <c r="O58" s="42"/>
+      <c r="P58" s="42"/>
+      <c r="Q58" s="42"/>
+      <c r="R58" s="42"/>
+      <c r="S58" s="42"/>
+      <c r="T58" s="42"/>
+      <c r="U58" s="42"/>
+      <c r="V58" s="42"/>
+      <c r="W58" s="42"/>
+      <c r="X58" s="42"/>
     </row>
     <row r="59" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>17</v>
       </c>
-      <c r="B59" s="23" t="str">
+      <c r="B59" s="20" t="str">
         <f t="shared" si="5"/>
         <v>spain</v>
       </c>
-      <c r="C59" s="53"/>
-      <c r="D59" s="53"/>
-      <c r="E59" s="53"/>
-      <c r="F59" s="53"/>
-      <c r="G59" s="53"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="53"/>
-      <c r="J59" s="53"/>
-      <c r="K59" s="53"/>
-      <c r="L59" s="53"/>
-      <c r="M59" s="53"/>
-      <c r="N59" s="53"/>
-      <c r="O59" s="53"/>
-      <c r="P59" s="53"/>
-      <c r="Q59" s="53"/>
-      <c r="R59" s="53"/>
-      <c r="S59" s="53"/>
-      <c r="T59" s="53"/>
-      <c r="U59" s="53"/>
-      <c r="V59" s="53"/>
-      <c r="W59" s="53"/>
-      <c r="X59" s="53"/>
+      <c r="C59" s="42"/>
+      <c r="D59" s="42"/>
+      <c r="E59" s="42"/>
+      <c r="F59" s="42"/>
+      <c r="G59" s="42"/>
+      <c r="H59" s="42"/>
+      <c r="I59" s="42"/>
+      <c r="J59" s="42"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+      <c r="O59" s="42"/>
+      <c r="P59" s="42"/>
+      <c r="Q59" s="42"/>
+      <c r="R59" s="42"/>
+      <c r="S59" s="42"/>
+      <c r="T59" s="42"/>
+      <c r="U59" s="42"/>
+      <c r="V59" s="42"/>
+      <c r="W59" s="42"/>
+      <c r="X59" s="42"/>
     </row>
     <row r="60" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>18</v>
       </c>
-      <c r="B60" s="23" t="str">
+      <c r="B60" s="20" t="str">
         <f t="shared" si="5"/>
         <v>hungary</v>
       </c>
-      <c r="C60" s="53"/>
-      <c r="D60" s="53"/>
-      <c r="E60" s="53"/>
-      <c r="F60" s="53"/>
-      <c r="G60" s="53"/>
-      <c r="H60" s="53"/>
-      <c r="I60" s="53"/>
-      <c r="J60" s="53"/>
-      <c r="K60" s="53"/>
-      <c r="L60" s="53"/>
-      <c r="M60" s="53"/>
-      <c r="N60" s="53"/>
-      <c r="O60" s="53"/>
-      <c r="P60" s="53"/>
-      <c r="Q60" s="53"/>
-      <c r="R60" s="53"/>
-      <c r="S60" s="53"/>
-      <c r="T60" s="53"/>
-      <c r="U60" s="53"/>
-      <c r="V60" s="53"/>
-      <c r="W60" s="53"/>
-      <c r="X60" s="53"/>
+      <c r="C60" s="42"/>
+      <c r="D60" s="42"/>
+      <c r="E60" s="42"/>
+      <c r="F60" s="42"/>
+      <c r="G60" s="42"/>
+      <c r="H60" s="42"/>
+      <c r="I60" s="42"/>
+      <c r="J60" s="42"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+      <c r="O60" s="42"/>
+      <c r="P60" s="42"/>
+      <c r="Q60" s="42"/>
+      <c r="R60" s="42"/>
+      <c r="S60" s="42"/>
+      <c r="T60" s="42"/>
+      <c r="U60" s="42"/>
+      <c r="V60" s="42"/>
+      <c r="W60" s="42"/>
+      <c r="X60" s="42"/>
     </row>
     <row r="61" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>19</v>
       </c>
-      <c r="B61" s="23" t="str">
+      <c r="B61" s="20" t="str">
         <f t="shared" si="5"/>
         <v>aragon</v>
       </c>
-      <c r="C61" s="53"/>
-      <c r="D61" s="53"/>
-      <c r="E61" s="53"/>
-      <c r="F61" s="53"/>
-      <c r="G61" s="53"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="53"/>
-      <c r="J61" s="53"/>
-      <c r="K61" s="53"/>
-      <c r="L61" s="53"/>
-      <c r="M61" s="53"/>
-      <c r="N61" s="53"/>
-      <c r="O61" s="53"/>
-      <c r="P61" s="53"/>
-      <c r="Q61" s="53"/>
-      <c r="R61" s="53"/>
-      <c r="S61" s="53"/>
-      <c r="T61" s="53"/>
-      <c r="U61" s="53"/>
-      <c r="V61" s="53"/>
-      <c r="W61" s="53"/>
-      <c r="X61" s="53"/>
+      <c r="C61" s="42"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="42"/>
+      <c r="F61" s="42"/>
+      <c r="G61" s="42"/>
+      <c r="H61" s="42"/>
+      <c r="I61" s="42"/>
+      <c r="J61" s="42"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+      <c r="O61" s="42"/>
+      <c r="P61" s="42"/>
+      <c r="Q61" s="42"/>
+      <c r="R61" s="42"/>
+      <c r="S61" s="42"/>
+      <c r="T61" s="42"/>
+      <c r="U61" s="42"/>
+      <c r="V61" s="42"/>
+      <c r="W61" s="42"/>
+      <c r="X61" s="42"/>
     </row>
     <row r="62" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>20</v>
       </c>
-      <c r="B62" s="23" t="str">
+      <c r="B62" s="20" t="str">
         <f t="shared" si="5"/>
         <v>lithuania</v>
       </c>
-      <c r="C62" s="53"/>
-      <c r="D62" s="53"/>
-      <c r="E62" s="53"/>
-      <c r="F62" s="53"/>
-      <c r="G62" s="53"/>
-      <c r="H62" s="53"/>
-      <c r="I62" s="53"/>
-      <c r="J62" s="53"/>
-      <c r="K62" s="53"/>
-      <c r="L62" s="53"/>
-      <c r="M62" s="53"/>
-      <c r="N62" s="53"/>
-      <c r="O62" s="53"/>
-      <c r="P62" s="53"/>
-      <c r="Q62" s="53"/>
-      <c r="R62" s="53"/>
-      <c r="S62" s="53"/>
-      <c r="T62" s="53"/>
-      <c r="U62" s="53"/>
-      <c r="V62" s="53"/>
-      <c r="W62" s="53"/>
-      <c r="X62" s="53"/>
+      <c r="C62" s="42"/>
+      <c r="D62" s="42"/>
+      <c r="E62" s="42"/>
+      <c r="F62" s="42"/>
+      <c r="G62" s="42"/>
+      <c r="H62" s="42"/>
+      <c r="I62" s="42"/>
+      <c r="J62" s="42"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+      <c r="O62" s="42"/>
+      <c r="P62" s="42"/>
+      <c r="Q62" s="42"/>
+      <c r="R62" s="42"/>
+      <c r="S62" s="42"/>
+      <c r="T62" s="42"/>
+      <c r="U62" s="42"/>
+      <c r="V62" s="42"/>
+      <c r="W62" s="42"/>
+      <c r="X62" s="42"/>
     </row>
     <row r="63" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>21</v>
       </c>
-      <c r="B63" s="23" t="str">
+      <c r="B63" s="20" t="str">
         <f t="shared" si="5"/>
         <v>kievan_rus</v>
       </c>
-      <c r="C63" s="53"/>
-      <c r="D63" s="53"/>
-      <c r="E63" s="53"/>
-      <c r="F63" s="53"/>
-      <c r="G63" s="53"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="53"/>
-      <c r="J63" s="53"/>
-      <c r="K63" s="53"/>
-      <c r="L63" s="53"/>
-      <c r="M63" s="53"/>
-      <c r="N63" s="53"/>
-      <c r="O63" s="53"/>
-      <c r="P63" s="53"/>
-      <c r="Q63" s="53"/>
-      <c r="R63" s="53"/>
-      <c r="S63" s="53"/>
-      <c r="T63" s="53"/>
-      <c r="U63" s="53"/>
-      <c r="V63" s="53"/>
-      <c r="W63" s="53"/>
-      <c r="X63" s="53"/>
+      <c r="C63" s="42"/>
+      <c r="D63" s="42"/>
+      <c r="E63" s="42"/>
+      <c r="F63" s="42"/>
+      <c r="G63" s="42"/>
+      <c r="H63" s="42"/>
+      <c r="I63" s="42"/>
+      <c r="J63" s="42"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+      <c r="O63" s="42"/>
+      <c r="P63" s="42"/>
+      <c r="Q63" s="42"/>
+      <c r="R63" s="42"/>
+      <c r="S63" s="42"/>
+      <c r="T63" s="42"/>
+      <c r="U63" s="42"/>
+      <c r="V63" s="42"/>
+      <c r="W63" s="42"/>
+      <c r="X63" s="42"/>
     </row>
     <row r="64" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>22</v>
       </c>
-      <c r="B64" s="23" t="str">
+      <c r="B64" s="20" t="str">
         <f t="shared" si="5"/>
         <v>serbia</v>
       </c>
-      <c r="C64" s="53"/>
-      <c r="D64" s="53"/>
-      <c r="E64" s="53"/>
-      <c r="F64" s="53"/>
-      <c r="G64" s="53"/>
-      <c r="H64" s="53"/>
-      <c r="I64" s="53"/>
-      <c r="J64" s="53"/>
-      <c r="K64" s="53"/>
-      <c r="L64" s="53"/>
-      <c r="M64" s="53"/>
-      <c r="N64" s="53"/>
-      <c r="O64" s="53"/>
-      <c r="P64" s="53"/>
-      <c r="Q64" s="53"/>
-      <c r="R64" s="53"/>
-      <c r="S64" s="53"/>
-      <c r="T64" s="53"/>
-      <c r="U64" s="53"/>
-      <c r="V64" s="53"/>
-      <c r="W64" s="53"/>
-      <c r="X64" s="53"/>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+      <c r="G64" s="42"/>
+      <c r="H64" s="42"/>
+      <c r="I64" s="42"/>
+      <c r="J64" s="42"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+      <c r="O64" s="42"/>
+      <c r="P64" s="42"/>
+      <c r="Q64" s="42"/>
+      <c r="R64" s="42"/>
+      <c r="S64" s="42"/>
+      <c r="T64" s="42"/>
+      <c r="U64" s="42"/>
+      <c r="V64" s="42"/>
+      <c r="W64" s="42"/>
+      <c r="X64" s="42"/>
     </row>
     <row r="65" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>23</v>
       </c>
-      <c r="B65" s="23" t="str">
+      <c r="B65" s="20" t="str">
         <f t="shared" si="5"/>
         <v>georgia</v>
       </c>
-      <c r="C65" s="53"/>
-      <c r="D65" s="53"/>
-      <c r="E65" s="53"/>
-      <c r="F65" s="53"/>
-      <c r="G65" s="53"/>
-      <c r="H65" s="53"/>
-      <c r="I65" s="53"/>
-      <c r="J65" s="53"/>
-      <c r="K65" s="53"/>
-      <c r="L65" s="53"/>
-      <c r="M65" s="53"/>
-      <c r="N65" s="53"/>
-      <c r="O65" s="53"/>
-      <c r="P65" s="53"/>
-      <c r="Q65" s="53"/>
-      <c r="R65" s="53"/>
-      <c r="S65" s="53"/>
-      <c r="T65" s="53"/>
-      <c r="U65" s="53"/>
-      <c r="V65" s="53"/>
-      <c r="W65" s="53"/>
-      <c r="X65" s="53"/>
+      <c r="C65" s="42"/>
+      <c r="D65" s="42"/>
+      <c r="E65" s="42"/>
+      <c r="F65" s="42"/>
+      <c r="G65" s="42"/>
+      <c r="H65" s="42"/>
+      <c r="I65" s="42"/>
+      <c r="J65" s="42"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+      <c r="O65" s="42"/>
+      <c r="P65" s="42"/>
+      <c r="Q65" s="42"/>
+      <c r="R65" s="42"/>
+      <c r="S65" s="42"/>
+      <c r="T65" s="42"/>
+      <c r="U65" s="42"/>
+      <c r="V65" s="42"/>
+      <c r="W65" s="42"/>
+      <c r="X65" s="42"/>
     </row>
     <row r="66" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>24</v>
       </c>
-      <c r="B66" s="23" t="str">
+      <c r="B66" s="20" t="str">
         <f t="shared" si="5"/>
         <v>norway</v>
       </c>
-      <c r="C66" s="53"/>
-      <c r="D66" s="53"/>
-      <c r="E66" s="53"/>
-      <c r="F66" s="53"/>
-      <c r="G66" s="53"/>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
-      <c r="J66" s="53"/>
-      <c r="K66" s="53"/>
-      <c r="L66" s="53"/>
-      <c r="M66" s="53"/>
-      <c r="N66" s="53"/>
-      <c r="O66" s="53"/>
-      <c r="P66" s="53"/>
-      <c r="Q66" s="53"/>
-      <c r="R66" s="53"/>
-      <c r="S66" s="53"/>
-      <c r="T66" s="53"/>
-      <c r="U66" s="53"/>
-      <c r="V66" s="53"/>
-      <c r="W66" s="53"/>
-      <c r="X66" s="53"/>
+      <c r="C66" s="42"/>
+      <c r="D66" s="42"/>
+      <c r="E66" s="42"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="42"/>
+      <c r="H66" s="42"/>
+      <c r="I66" s="42"/>
+      <c r="J66" s="42"/>
+      <c r="K66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42"/>
+      <c r="V66" s="42"/>
+      <c r="W66" s="42"/>
+      <c r="X66" s="42"/>
     </row>
     <row r="67" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>25</v>
       </c>
-      <c r="B67" s="23" t="str">
+      <c r="B67" s="20" t="str">
         <f t="shared" si="5"/>
         <v>jerusalem</v>
       </c>
-      <c r="C67" s="53"/>
-      <c r="D67" s="53"/>
-      <c r="E67" s="53"/>
-      <c r="F67" s="53"/>
-      <c r="G67" s="53"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="53"/>
-      <c r="J67" s="53"/>
-      <c r="K67" s="53"/>
-      <c r="L67" s="53"/>
-      <c r="M67" s="53"/>
-      <c r="N67" s="53"/>
-      <c r="O67" s="53"/>
-      <c r="P67" s="53"/>
-      <c r="Q67" s="53"/>
-      <c r="R67" s="53"/>
-      <c r="S67" s="53"/>
-      <c r="T67" s="53"/>
-      <c r="U67" s="53"/>
-      <c r="V67" s="53"/>
-      <c r="W67" s="53"/>
-      <c r="X67" s="53"/>
+      <c r="C67" s="42"/>
+      <c r="D67" s="42"/>
+      <c r="E67" s="42"/>
+      <c r="F67" s="42"/>
+      <c r="G67" s="42"/>
+      <c r="H67" s="42"/>
+      <c r="I67" s="42"/>
+      <c r="J67" s="42"/>
+      <c r="K67" s="42"/>
+      <c r="L67" s="42"/>
+      <c r="M67" s="42"/>
+      <c r="N67" s="42"/>
+      <c r="O67" s="42"/>
+      <c r="P67" s="42"/>
+      <c r="Q67" s="42"/>
+      <c r="R67" s="42"/>
+      <c r="S67" s="42"/>
+      <c r="T67" s="42"/>
+      <c r="U67" s="42"/>
+      <c r="V67" s="42"/>
+      <c r="W67" s="42"/>
+      <c r="X67" s="42"/>
     </row>
     <row r="68" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>26</v>
       </c>
-      <c r="B68" s="23" t="str">
+      <c r="B68" s="20" t="str">
         <f t="shared" si="5"/>
         <v>zengid</v>
       </c>
-      <c r="C68" s="53"/>
-      <c r="D68" s="53"/>
-      <c r="E68" s="53"/>
-      <c r="F68" s="53"/>
-      <c r="G68" s="53"/>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
-      <c r="J68" s="53"/>
-      <c r="K68" s="53"/>
-      <c r="L68" s="53"/>
-      <c r="M68" s="53"/>
-      <c r="N68" s="53"/>
-      <c r="O68" s="53"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="53"/>
-      <c r="R68" s="53"/>
-      <c r="S68" s="53"/>
-      <c r="T68" s="53"/>
-      <c r="U68" s="53"/>
-      <c r="V68" s="53"/>
-      <c r="W68" s="53"/>
-      <c r="X68" s="53"/>
+      <c r="C68" s="42"/>
+      <c r="D68" s="42"/>
+      <c r="E68" s="42"/>
+      <c r="F68" s="42"/>
+      <c r="G68" s="42"/>
+      <c r="H68" s="42"/>
+      <c r="I68" s="42"/>
+      <c r="J68" s="42"/>
+      <c r="K68" s="42"/>
+      <c r="L68" s="42"/>
+      <c r="M68" s="42"/>
+      <c r="N68" s="42"/>
+      <c r="O68" s="42"/>
+      <c r="P68" s="42"/>
+      <c r="Q68" s="42"/>
+      <c r="R68" s="42"/>
+      <c r="S68" s="42"/>
+      <c r="T68" s="42"/>
+      <c r="U68" s="42"/>
+      <c r="V68" s="42"/>
+      <c r="W68" s="42"/>
+      <c r="X68" s="42"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>27</v>
       </c>
-      <c r="B69" s="23" t="str">
+      <c r="B69" s="20" t="str">
         <f t="shared" si="5"/>
         <v>rum</v>
       </c>
-      <c r="C69" s="53"/>
-      <c r="D69" s="53"/>
-      <c r="E69" s="53"/>
-      <c r="F69" s="53"/>
-      <c r="G69" s="53"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="53"/>
-      <c r="J69" s="53"/>
-      <c r="K69" s="53"/>
-      <c r="L69" s="53"/>
-      <c r="M69" s="53"/>
-      <c r="N69" s="53"/>
-      <c r="O69" s="53"/>
-      <c r="P69" s="53"/>
-      <c r="Q69" s="53"/>
-      <c r="R69" s="53"/>
-      <c r="S69" s="53"/>
-      <c r="T69" s="53"/>
-      <c r="U69" s="53"/>
-      <c r="V69" s="53"/>
-      <c r="W69" s="53"/>
-      <c r="X69" s="53"/>
+      <c r="C69" s="42"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="42"/>
+      <c r="F69" s="42"/>
+      <c r="G69" s="42"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42"/>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42"/>
+      <c r="M69" s="42"/>
+      <c r="N69" s="42"/>
+      <c r="O69" s="42"/>
+      <c r="P69" s="42"/>
+      <c r="Q69" s="42"/>
+      <c r="R69" s="42"/>
+      <c r="S69" s="42"/>
+      <c r="T69" s="42"/>
+      <c r="U69" s="42"/>
+      <c r="V69" s="42"/>
+      <c r="W69" s="42"/>
+      <c r="X69" s="42"/>
     </row>
     <row r="70" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>28</v>
       </c>
-      <c r="B70" s="23" t="str">
+      <c r="B70" s="20" t="str">
         <f t="shared" si="5"/>
         <v>pisa</v>
       </c>
-      <c r="C70" s="53"/>
-      <c r="D70" s="53"/>
-      <c r="E70" s="53"/>
-      <c r="F70" s="53"/>
-      <c r="G70" s="53"/>
-      <c r="H70" s="53"/>
-      <c r="I70" s="53"/>
-      <c r="J70" s="53"/>
-      <c r="K70" s="53"/>
-      <c r="L70" s="53"/>
-      <c r="M70" s="53"/>
-      <c r="N70" s="53"/>
-      <c r="O70" s="53"/>
-      <c r="P70" s="53"/>
-      <c r="Q70" s="53"/>
-      <c r="R70" s="53"/>
-      <c r="S70" s="53"/>
-      <c r="T70" s="53"/>
-      <c r="U70" s="53"/>
-      <c r="V70" s="53"/>
-      <c r="W70" s="53"/>
-      <c r="X70" s="53"/>
+      <c r="C70" s="42"/>
+      <c r="D70" s="42"/>
+      <c r="E70" s="42"/>
+      <c r="F70" s="42"/>
+      <c r="G70" s="42"/>
+      <c r="H70" s="42"/>
+      <c r="I70" s="42"/>
+      <c r="J70" s="42"/>
+      <c r="K70" s="42"/>
+      <c r="L70" s="42"/>
+      <c r="M70" s="42"/>
+      <c r="N70" s="42"/>
+      <c r="O70" s="42"/>
+      <c r="P70" s="42"/>
+      <c r="Q70" s="42"/>
+      <c r="R70" s="42"/>
+      <c r="S70" s="42"/>
+      <c r="T70" s="42"/>
+      <c r="U70" s="42"/>
+      <c r="V70" s="42"/>
+      <c r="W70" s="42"/>
+      <c r="X70" s="42"/>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>29</v>
       </c>
-      <c r="B71" s="23" t="str">
+      <c r="B71" s="20" t="str">
         <f t="shared" si="5"/>
         <v>papal_states</v>
       </c>
-      <c r="C71" s="53"/>
-      <c r="D71" s="53"/>
-      <c r="E71" s="53"/>
-      <c r="F71" s="53"/>
-      <c r="G71" s="53"/>
-      <c r="H71" s="53"/>
-      <c r="I71" s="53"/>
-      <c r="J71" s="53"/>
-      <c r="K71" s="53"/>
-      <c r="L71" s="53"/>
-      <c r="M71" s="53"/>
-      <c r="N71" s="53"/>
-      <c r="O71" s="53"/>
-      <c r="P71" s="53"/>
-      <c r="Q71" s="53"/>
-      <c r="R71" s="53"/>
-      <c r="S71" s="53"/>
-      <c r="T71" s="53"/>
-      <c r="U71" s="53"/>
-      <c r="V71" s="53"/>
-      <c r="W71" s="53"/>
-      <c r="X71" s="53"/>
+      <c r="C71" s="42"/>
+      <c r="D71" s="42"/>
+      <c r="E71" s="42"/>
+      <c r="F71" s="42"/>
+      <c r="G71" s="42"/>
+      <c r="H71" s="42"/>
+      <c r="I71" s="42"/>
+      <c r="J71" s="42"/>
+      <c r="K71" s="42"/>
+      <c r="L71" s="42"/>
+      <c r="M71" s="42"/>
+      <c r="N71" s="42"/>
+      <c r="O71" s="42"/>
+      <c r="P71" s="42"/>
+      <c r="Q71" s="42"/>
+      <c r="R71" s="42"/>
+      <c r="S71" s="42"/>
+      <c r="T71" s="42"/>
+      <c r="U71" s="42"/>
+      <c r="V71" s="42"/>
+      <c r="W71" s="42"/>
+      <c r="X71" s="42"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>30</v>
       </c>
-      <c r="B72" s="23" t="str">
+      <c r="B72" s="20" t="str">
         <f t="shared" si="5"/>
         <v>mongols</v>
       </c>
-      <c r="C72" s="53"/>
-      <c r="D72" s="53"/>
-      <c r="E72" s="53"/>
-      <c r="F72" s="53"/>
-      <c r="G72" s="53"/>
-      <c r="H72" s="53"/>
-      <c r="I72" s="53"/>
-      <c r="J72" s="53"/>
-      <c r="K72" s="53"/>
-      <c r="L72" s="53"/>
-      <c r="M72" s="53"/>
-      <c r="N72" s="53"/>
-      <c r="O72" s="53"/>
-      <c r="P72" s="53"/>
-      <c r="Q72" s="53"/>
-      <c r="R72" s="53"/>
-      <c r="S72" s="53"/>
-      <c r="T72" s="53"/>
-      <c r="U72" s="53"/>
-      <c r="V72" s="53"/>
-      <c r="W72" s="53"/>
-      <c r="X72" s="53"/>
+      <c r="C72" s="42"/>
+      <c r="D72" s="42"/>
+      <c r="E72" s="42"/>
+      <c r="F72" s="42"/>
+      <c r="G72" s="42"/>
+      <c r="H72" s="42"/>
+      <c r="I72" s="42"/>
+      <c r="J72" s="42"/>
+      <c r="K72" s="42"/>
+      <c r="L72" s="42"/>
+      <c r="M72" s="42"/>
+      <c r="N72" s="42"/>
+      <c r="O72" s="42"/>
+      <c r="P72" s="42"/>
+      <c r="Q72" s="42"/>
+      <c r="R72" s="42"/>
+      <c r="S72" s="42"/>
+      <c r="T72" s="42"/>
+      <c r="U72" s="42"/>
+      <c r="V72" s="42"/>
+      <c r="W72" s="42"/>
+      <c r="X72" s="42"/>
     </row>
     <row r="73" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>31</v>
       </c>
-      <c r="B73" s="23" t="str">
+      <c r="B73" s="20" t="str">
         <f t="shared" si="5"/>
         <v>slave</v>
       </c>
-      <c r="C73" s="53"/>
-      <c r="D73" s="53"/>
-      <c r="E73" s="53"/>
-      <c r="F73" s="53"/>
-      <c r="G73" s="53"/>
-      <c r="H73" s="53"/>
-      <c r="I73" s="53"/>
-      <c r="J73" s="53"/>
-      <c r="K73" s="53"/>
-      <c r="L73" s="53"/>
-      <c r="M73" s="53"/>
-      <c r="N73" s="53"/>
-      <c r="O73" s="53"/>
-      <c r="P73" s="53"/>
-      <c r="Q73" s="53"/>
-      <c r="R73" s="53"/>
-      <c r="S73" s="53"/>
-      <c r="T73" s="53"/>
-      <c r="U73" s="53"/>
-      <c r="V73" s="53"/>
-      <c r="W73" s="53"/>
-      <c r="X73" s="53"/>
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="42"/>
+      <c r="F73" s="42"/>
+      <c r="G73" s="42"/>
+      <c r="H73" s="42"/>
+      <c r="I73" s="42"/>
+      <c r="J73" s="42"/>
+      <c r="K73" s="42"/>
+      <c r="L73" s="42"/>
+      <c r="M73" s="42"/>
+      <c r="N73" s="42"/>
+      <c r="O73" s="42"/>
+      <c r="P73" s="42"/>
+      <c r="Q73" s="42"/>
+      <c r="R73" s="42"/>
+      <c r="S73" s="42"/>
+      <c r="T73" s="42"/>
+      <c r="U73" s="42"/>
+      <c r="V73" s="42"/>
+      <c r="W73" s="42"/>
+      <c r="X73" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="P38:U38"/>
-    <mergeCell ref="P39:U39"/>
-    <mergeCell ref="P40:U40"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B37:O37"/>
-    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="P3:AC3"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="F41:G41"/>
@@ -5699,11 +5727,12 @@
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="P3:AC3"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="P38:U38"/>
+    <mergeCell ref="P39:U39"/>
+    <mergeCell ref="P40:U40"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B37:O37"/>
+    <mergeCell ref="C38:G38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5735,8 +5764,8 @@
   </sheetPr>
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:Q132"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5755,65 +5784,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="70" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="28" t="s">
         <v>110</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="28" t="s">
         <v>112</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="28" t="s">
         <v>114</v>
       </c>
     </row>
@@ -5821,3068 +5850,3068 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="69" t="s">
+      <c r="B4" s="53" t="s">
         <v>115</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="D4" s="66">
+      <c r="D4" s="50">
         <v>100</v>
       </c>
-      <c r="E4" s="66" t="s">
+      <c r="E4" s="50" t="s">
         <v>115</v>
       </c>
-      <c r="F4" s="66" t="s">
+      <c r="F4" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="G4" s="66"/>
-      <c r="H4" s="66"/>
-      <c r="I4" s="66"/>
-      <c r="J4" s="66"/>
-      <c r="K4" s="66"/>
-      <c r="L4" s="66"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="66"/>
-      <c r="O4" s="66"/>
-      <c r="P4" s="66"/>
-      <c r="Q4" s="66"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="70" t="s">
+      <c r="B5" s="54" t="s">
         <v>118</v>
       </c>
-      <c r="C5" s="67" t="s">
+      <c r="C5" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="D5" s="67">
+      <c r="D5" s="51">
         <v>60</v>
       </c>
-      <c r="E5" s="67" t="s">
+      <c r="E5" s="51" t="s">
         <v>118</v>
       </c>
-      <c r="F5" s="67" t="s">
+      <c r="F5" s="51" t="s">
         <v>119</v>
       </c>
-      <c r="G5" s="67" t="s">
+      <c r="G5" s="51" t="s">
         <v>120</v>
       </c>
-      <c r="H5" s="67" t="s">
+      <c r="H5" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="I5" s="67"/>
-      <c r="J5" s="67"/>
-      <c r="K5" s="67"/>
-      <c r="L5" s="67"/>
-      <c r="M5" s="67"/>
-      <c r="N5" s="67"/>
-      <c r="O5" s="67"/>
-      <c r="P5" s="67"/>
-      <c r="Q5" s="67"/>
+      <c r="I5" s="51"/>
+      <c r="J5" s="51"/>
+      <c r="K5" s="51"/>
+      <c r="L5" s="51"/>
+      <c r="M5" s="51"/>
+      <c r="N5" s="51"/>
+      <c r="O5" s="51"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
-      <c r="B6" s="71" t="s">
+      <c r="B6" s="55" t="s">
         <v>122</v>
       </c>
-      <c r="C6" s="68" t="s">
+      <c r="C6" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="D6" s="68">
+      <c r="D6" s="52">
         <v>7</v>
       </c>
-      <c r="E6" s="68" t="s">
+      <c r="E6" s="52" t="s">
         <v>122</v>
       </c>
-      <c r="F6" s="68" t="s">
+      <c r="F6" s="52" t="s">
         <v>123</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="68"/>
-      <c r="I6" s="68"/>
-      <c r="J6" s="68"/>
-      <c r="K6" s="68"/>
-      <c r="L6" s="68"/>
-      <c r="M6" s="68"/>
-      <c r="N6" s="68"/>
-      <c r="O6" s="68"/>
-      <c r="P6" s="68"/>
-      <c r="Q6" s="68"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="52"/>
+      <c r="N6" s="52"/>
+      <c r="O6" s="52"/>
+      <c r="P6" s="52"/>
+      <c r="Q6" s="52"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>4</v>
       </c>
-      <c r="B7" s="70" t="s">
+      <c r="B7" s="54" t="s">
         <v>124</v>
       </c>
-      <c r="C7" s="67" t="s">
+      <c r="C7" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="D7" s="67">
+      <c r="D7" s="51">
         <v>6</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="E7" s="51" t="s">
         <v>124</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G7" s="67" t="s">
+      <c r="G7" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="H7" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="I7" s="67" t="s">
+      <c r="I7" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="J7" s="67" t="s">
+      <c r="J7" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="67"/>
-      <c r="L7" s="67"/>
-      <c r="M7" s="67"/>
-      <c r="N7" s="67"/>
-      <c r="O7" s="67"/>
-      <c r="P7" s="67"/>
-      <c r="Q7" s="67"/>
+      <c r="K7" s="51"/>
+      <c r="L7" s="51"/>
+      <c r="M7" s="51"/>
+      <c r="N7" s="51"/>
+      <c r="O7" s="51"/>
+      <c r="P7" s="51"/>
+      <c r="Q7" s="51"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
-      <c r="B8" s="71" t="s">
+      <c r="B8" s="55" t="s">
         <v>131</v>
       </c>
-      <c r="C8" s="68" t="s">
+      <c r="C8" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="D8" s="68">
+      <c r="D8" s="52">
         <v>6</v>
       </c>
-      <c r="E8" s="68" t="s">
+      <c r="E8" s="52" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="68" t="s">
+      <c r="F8" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="H8" s="68" t="s">
+      <c r="H8" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="I8" s="68" t="s">
+      <c r="I8" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="K8" s="68"/>
-      <c r="L8" s="68"/>
-      <c r="M8" s="68"/>
-      <c r="N8" s="68"/>
-      <c r="O8" s="68"/>
-      <c r="P8" s="68"/>
-      <c r="Q8" s="68"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="52"/>
+      <c r="N8" s="52"/>
+      <c r="O8" s="52"/>
+      <c r="P8" s="52"/>
+      <c r="Q8" s="52"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>6</v>
       </c>
-      <c r="B9" s="70" t="s">
+      <c r="B9" s="54" t="s">
         <v>132</v>
       </c>
-      <c r="C9" s="67" t="s">
+      <c r="C9" s="51" t="s">
         <v>125</v>
       </c>
-      <c r="D9" s="67">
+      <c r="D9" s="51">
         <v>8</v>
       </c>
-      <c r="E9" s="67" t="s">
+      <c r="E9" s="51" t="s">
         <v>133</v>
       </c>
-      <c r="F9" s="67" t="s">
+      <c r="F9" s="51" t="s">
         <v>126</v>
       </c>
-      <c r="G9" s="67" t="s">
+      <c r="G9" s="51" t="s">
         <v>127</v>
       </c>
-      <c r="H9" s="67" t="s">
+      <c r="H9" s="51" t="s">
         <v>128</v>
       </c>
-      <c r="I9" s="67" t="s">
+      <c r="I9" s="51" t="s">
         <v>129</v>
       </c>
-      <c r="J9" s="67" t="s">
+      <c r="J9" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="K9" s="67" t="s">
+      <c r="K9" s="51" t="s">
         <v>134</v>
       </c>
-      <c r="L9" s="67" t="s">
+      <c r="L9" s="51" t="s">
         <v>135</v>
       </c>
-      <c r="M9" s="67"/>
-      <c r="N9" s="67"/>
-      <c r="O9" s="67"/>
-      <c r="P9" s="67"/>
-      <c r="Q9" s="67"/>
+      <c r="M9" s="51"/>
+      <c r="N9" s="51"/>
+      <c r="O9" s="51"/>
+      <c r="P9" s="51"/>
+      <c r="Q9" s="51"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>7</v>
       </c>
-      <c r="B10" s="71" t="s">
+      <c r="B10" s="55" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="68" t="s">
+      <c r="C10" s="52" t="s">
         <v>125</v>
       </c>
-      <c r="D10" s="68">
+      <c r="D10" s="52">
         <v>6</v>
       </c>
-      <c r="E10" s="68" t="s">
+      <c r="E10" s="52" t="s">
         <v>133</v>
       </c>
-      <c r="F10" s="68" t="s">
+      <c r="F10" s="52" t="s">
         <v>126</v>
       </c>
-      <c r="G10" s="68" t="s">
+      <c r="G10" s="52" t="s">
         <v>127</v>
       </c>
-      <c r="H10" s="68" t="s">
+      <c r="H10" s="52" t="s">
         <v>128</v>
       </c>
-      <c r="I10" s="68" t="s">
+      <c r="I10" s="52" t="s">
         <v>129</v>
       </c>
-      <c r="J10" s="68" t="s">
+      <c r="J10" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="K10" s="68" t="s">
+      <c r="K10" s="52" t="s">
         <v>134</v>
       </c>
-      <c r="L10" s="68" t="s">
+      <c r="L10" s="52" t="s">
         <v>135</v>
       </c>
-      <c r="M10" s="68"/>
-      <c r="N10" s="68"/>
-      <c r="O10" s="68"/>
-      <c r="P10" s="68"/>
-      <c r="Q10" s="68"/>
+      <c r="M10" s="52"/>
+      <c r="N10" s="52"/>
+      <c r="O10" s="52"/>
+      <c r="P10" s="52"/>
+      <c r="Q10" s="52"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="70" t="s">
+      <c r="B11" s="54" t="s">
         <v>133</v>
       </c>
-      <c r="C11" s="67"/>
-      <c r="D11" s="67"/>
-      <c r="E11" s="67"/>
-      <c r="F11" s="67"/>
-      <c r="G11" s="67"/>
-      <c r="H11" s="67"/>
-      <c r="I11" s="67"/>
-      <c r="J11" s="67"/>
-      <c r="K11" s="67"/>
-      <c r="L11" s="67"/>
-      <c r="M11" s="67"/>
-      <c r="N11" s="67"/>
-      <c r="O11" s="67"/>
-      <c r="P11" s="67"/>
-      <c r="Q11" s="67"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="51"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="51"/>
+      <c r="L11" s="51"/>
+      <c r="M11" s="51"/>
+      <c r="N11" s="51"/>
+      <c r="O11" s="51"/>
+      <c r="P11" s="51"/>
+      <c r="Q11" s="51"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="71" t="s">
+      <c r="B12" s="55" t="s">
         <v>137</v>
       </c>
-      <c r="C12" s="68"/>
-      <c r="D12" s="68"/>
-      <c r="E12" s="68"/>
-      <c r="F12" s="68"/>
-      <c r="G12" s="68"/>
-      <c r="H12" s="68"/>
-      <c r="I12" s="68"/>
-      <c r="J12" s="68"/>
-      <c r="K12" s="68"/>
-      <c r="L12" s="68"/>
-      <c r="M12" s="68"/>
-      <c r="N12" s="68"/>
-      <c r="O12" s="68"/>
-      <c r="P12" s="68"/>
-      <c r="Q12" s="68"/>
+      <c r="C12" s="52"/>
+      <c r="D12" s="52"/>
+      <c r="E12" s="52"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="52"/>
+      <c r="N12" s="52"/>
+      <c r="O12" s="52"/>
+      <c r="P12" s="52"/>
+      <c r="Q12" s="52"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="70" t="s">
+      <c r="B13" s="54" t="s">
         <v>138</v>
       </c>
-      <c r="C13" s="67"/>
-      <c r="D13" s="67"/>
-      <c r="E13" s="67"/>
-      <c r="F13" s="67"/>
-      <c r="G13" s="67"/>
-      <c r="H13" s="67"/>
-      <c r="I13" s="67"/>
-      <c r="J13" s="67"/>
-      <c r="K13" s="67"/>
-      <c r="L13" s="67"/>
-      <c r="M13" s="67"/>
-      <c r="N13" s="67"/>
-      <c r="O13" s="67"/>
-      <c r="P13" s="67"/>
-      <c r="Q13" s="67"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="51"/>
+      <c r="J13" s="51"/>
+      <c r="K13" s="51"/>
+      <c r="L13" s="51"/>
+      <c r="M13" s="51"/>
+      <c r="N13" s="51"/>
+      <c r="O13" s="51"/>
+      <c r="P13" s="51"/>
+      <c r="Q13" s="51"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="55" t="s">
         <v>139</v>
       </c>
-      <c r="C14" s="68"/>
-      <c r="D14" s="68"/>
-      <c r="E14" s="68"/>
-      <c r="F14" s="68"/>
-      <c r="G14" s="68"/>
-      <c r="H14" s="68"/>
-      <c r="I14" s="68"/>
-      <c r="J14" s="68"/>
-      <c r="K14" s="68"/>
-      <c r="L14" s="68"/>
-      <c r="M14" s="68"/>
-      <c r="N14" s="68"/>
-      <c r="O14" s="68"/>
-      <c r="P14" s="68"/>
-      <c r="Q14" s="68"/>
+      <c r="C14" s="52"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="52"/>
+      <c r="F14" s="52"/>
+      <c r="G14" s="52"/>
+      <c r="H14" s="52"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="52"/>
+      <c r="N14" s="52"/>
+      <c r="O14" s="52"/>
+      <c r="P14" s="52"/>
+      <c r="Q14" s="52"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="70" t="s">
+      <c r="B15" s="54" t="s">
         <v>140</v>
       </c>
-      <c r="C15" s="67"/>
-      <c r="D15" s="67"/>
-      <c r="E15" s="67"/>
-      <c r="F15" s="67"/>
-      <c r="G15" s="67"/>
-      <c r="H15" s="67"/>
-      <c r="I15" s="67"/>
-      <c r="J15" s="67"/>
-      <c r="K15" s="67"/>
-      <c r="L15" s="67"/>
-      <c r="M15" s="67"/>
-      <c r="N15" s="67"/>
-      <c r="O15" s="67"/>
-      <c r="P15" s="67"/>
-      <c r="Q15" s="67"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
+      <c r="K15" s="51"/>
+      <c r="L15" s="51"/>
+      <c r="M15" s="51"/>
+      <c r="N15" s="51"/>
+      <c r="O15" s="51"/>
+      <c r="P15" s="51"/>
+      <c r="Q15" s="51"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="71" t="s">
+      <c r="B16" s="55" t="s">
         <v>141</v>
       </c>
-      <c r="C16" s="68"/>
-      <c r="D16" s="68"/>
-      <c r="E16" s="68"/>
-      <c r="F16" s="68"/>
-      <c r="G16" s="68"/>
-      <c r="H16" s="68"/>
-      <c r="I16" s="68"/>
-      <c r="J16" s="68"/>
-      <c r="K16" s="68"/>
-      <c r="L16" s="68"/>
-      <c r="M16" s="68"/>
-      <c r="N16" s="68"/>
-      <c r="O16" s="68"/>
-      <c r="P16" s="68"/>
-      <c r="Q16" s="68"/>
+      <c r="C16" s="52"/>
+      <c r="D16" s="52"/>
+      <c r="E16" s="52"/>
+      <c r="F16" s="52"/>
+      <c r="G16" s="52"/>
+      <c r="H16" s="52"/>
+      <c r="I16" s="52"/>
+      <c r="J16" s="52"/>
+      <c r="K16" s="52"/>
+      <c r="L16" s="52"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="52"/>
+      <c r="O16" s="52"/>
+      <c r="P16" s="52"/>
+      <c r="Q16" s="52"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="70" t="s">
+      <c r="B17" s="54" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="67"/>
-      <c r="D17" s="67"/>
-      <c r="E17" s="67"/>
-      <c r="F17" s="67"/>
-      <c r="G17" s="67"/>
-      <c r="H17" s="67"/>
-      <c r="I17" s="67"/>
-      <c r="J17" s="67"/>
-      <c r="K17" s="67"/>
-      <c r="L17" s="67"/>
-      <c r="M17" s="67"/>
-      <c r="N17" s="67"/>
-      <c r="O17" s="67"/>
-      <c r="P17" s="67"/>
-      <c r="Q17" s="67"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51"/>
+      <c r="L17" s="51"/>
+      <c r="M17" s="51"/>
+      <c r="N17" s="51"/>
+      <c r="O17" s="51"/>
+      <c r="P17" s="51"/>
+      <c r="Q17" s="51"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="71" t="s">
+      <c r="B18" s="55" t="s">
         <v>143</v>
       </c>
-      <c r="C18" s="68"/>
-      <c r="D18" s="68"/>
-      <c r="E18" s="68"/>
-      <c r="F18" s="68"/>
-      <c r="G18" s="68"/>
-      <c r="H18" s="68"/>
-      <c r="I18" s="68"/>
-      <c r="J18" s="68"/>
-      <c r="K18" s="68"/>
-      <c r="L18" s="68"/>
-      <c r="M18" s="68"/>
-      <c r="N18" s="68"/>
-      <c r="O18" s="68"/>
-      <c r="P18" s="68"/>
-      <c r="Q18" s="68"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
+      <c r="F18" s="52"/>
+      <c r="G18" s="52"/>
+      <c r="H18" s="52"/>
+      <c r="I18" s="52"/>
+      <c r="J18" s="52"/>
+      <c r="K18" s="52"/>
+      <c r="L18" s="52"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="52"/>
+      <c r="O18" s="52"/>
+      <c r="P18" s="52"/>
+      <c r="Q18" s="52"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="70" t="s">
+      <c r="B19" s="54" t="s">
         <v>144</v>
       </c>
-      <c r="C19" s="67"/>
-      <c r="D19" s="67"/>
-      <c r="E19" s="67"/>
-      <c r="F19" s="67"/>
-      <c r="G19" s="67"/>
-      <c r="H19" s="67"/>
-      <c r="I19" s="67"/>
-      <c r="J19" s="67"/>
-      <c r="K19" s="67"/>
-      <c r="L19" s="67"/>
-      <c r="M19" s="67"/>
-      <c r="N19" s="67"/>
-      <c r="O19" s="67"/>
-      <c r="P19" s="67"/>
-      <c r="Q19" s="67"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="51"/>
+      <c r="G19" s="51"/>
+      <c r="H19" s="51"/>
+      <c r="I19" s="51"/>
+      <c r="J19" s="51"/>
+      <c r="K19" s="51"/>
+      <c r="L19" s="51"/>
+      <c r="M19" s="51"/>
+      <c r="N19" s="51"/>
+      <c r="O19" s="51"/>
+      <c r="P19" s="51"/>
+      <c r="Q19" s="51"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
-      <c r="B20" s="71" t="s">
+      <c r="B20" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="C20" s="68"/>
-      <c r="D20" s="68"/>
-      <c r="E20" s="68"/>
-      <c r="F20" s="68"/>
-      <c r="G20" s="68"/>
-      <c r="H20" s="68"/>
-      <c r="I20" s="68"/>
-      <c r="J20" s="68"/>
-      <c r="K20" s="68"/>
-      <c r="L20" s="68"/>
-      <c r="M20" s="68"/>
-      <c r="N20" s="68"/>
-      <c r="O20" s="68"/>
-      <c r="P20" s="68"/>
-      <c r="Q20" s="68"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="52"/>
+      <c r="H20" s="52"/>
+      <c r="I20" s="52"/>
+      <c r="J20" s="52"/>
+      <c r="K20" s="52"/>
+      <c r="L20" s="52"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="52"/>
+      <c r="O20" s="52"/>
+      <c r="P20" s="52"/>
+      <c r="Q20" s="52"/>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>18</v>
       </c>
-      <c r="B21" s="70" t="s">
+      <c r="B21" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="C21" s="67"/>
-      <c r="D21" s="67"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="67"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-      <c r="I21" s="67"/>
-      <c r="J21" s="67"/>
-      <c r="K21" s="67"/>
-      <c r="L21" s="67"/>
-      <c r="M21" s="67"/>
-      <c r="N21" s="67"/>
-      <c r="O21" s="67"/>
-      <c r="P21" s="67"/>
-      <c r="Q21" s="67"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="51"/>
+      <c r="F21" s="51"/>
+      <c r="G21" s="51"/>
+      <c r="H21" s="51"/>
+      <c r="I21" s="51"/>
+      <c r="J21" s="51"/>
+      <c r="K21" s="51"/>
+      <c r="L21" s="51"/>
+      <c r="M21" s="51"/>
+      <c r="N21" s="51"/>
+      <c r="O21" s="51"/>
+      <c r="P21" s="51"/>
+      <c r="Q21" s="51"/>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>19</v>
       </c>
-      <c r="B22" s="71" t="s">
+      <c r="B22" s="55" t="s">
         <v>147</v>
       </c>
-      <c r="C22" s="68"/>
-      <c r="D22" s="68"/>
-      <c r="E22" s="68"/>
-      <c r="F22" s="68"/>
-      <c r="G22" s="68"/>
-      <c r="H22" s="68"/>
-      <c r="I22" s="68"/>
-      <c r="J22" s="68"/>
-      <c r="K22" s="68"/>
-      <c r="L22" s="68"/>
-      <c r="M22" s="68"/>
-      <c r="N22" s="68"/>
-      <c r="O22" s="68"/>
-      <c r="P22" s="68"/>
-      <c r="Q22" s="68"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+      <c r="I22" s="52"/>
+      <c r="J22" s="52"/>
+      <c r="K22" s="52"/>
+      <c r="L22" s="52"/>
+      <c r="M22" s="52"/>
+      <c r="N22" s="52"/>
+      <c r="O22" s="52"/>
+      <c r="P22" s="52"/>
+      <c r="Q22" s="52"/>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>20</v>
       </c>
-      <c r="B23" s="70" t="s">
+      <c r="B23" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="C23" s="67"/>
-      <c r="D23" s="67"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="67"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-      <c r="I23" s="67"/>
-      <c r="J23" s="67"/>
-      <c r="K23" s="67"/>
-      <c r="L23" s="67"/>
-      <c r="M23" s="67"/>
-      <c r="N23" s="67"/>
-      <c r="O23" s="67"/>
-      <c r="P23" s="67"/>
-      <c r="Q23" s="67"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="51"/>
+      <c r="F23" s="51"/>
+      <c r="G23" s="51"/>
+      <c r="H23" s="51"/>
+      <c r="I23" s="51"/>
+      <c r="J23" s="51"/>
+      <c r="K23" s="51"/>
+      <c r="L23" s="51"/>
+      <c r="M23" s="51"/>
+      <c r="N23" s="51"/>
+      <c r="O23" s="51"/>
+      <c r="P23" s="51"/>
+      <c r="Q23" s="51"/>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>21</v>
       </c>
-      <c r="B24" s="71" t="s">
+      <c r="B24" s="55" t="s">
         <v>149</v>
       </c>
-      <c r="C24" s="68"/>
-      <c r="D24" s="68"/>
-      <c r="E24" s="68"/>
-      <c r="F24" s="68"/>
-      <c r="G24" s="68"/>
-      <c r="H24" s="68"/>
-      <c r="I24" s="68"/>
-      <c r="J24" s="68"/>
-      <c r="K24" s="68"/>
-      <c r="L24" s="68"/>
-      <c r="M24" s="68"/>
-      <c r="N24" s="68"/>
-      <c r="O24" s="68"/>
-      <c r="P24" s="68"/>
-      <c r="Q24" s="68"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="52"/>
+      <c r="O24" s="52"/>
+      <c r="P24" s="52"/>
+      <c r="Q24" s="52"/>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="70" t="s">
+      <c r="B25" s="54" t="s">
         <v>150</v>
       </c>
-      <c r="C25" s="67"/>
-      <c r="D25" s="67"/>
-      <c r="E25" s="67"/>
-      <c r="F25" s="67"/>
-      <c r="G25" s="67"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="67"/>
-      <c r="J25" s="67"/>
-      <c r="K25" s="67"/>
-      <c r="L25" s="67"/>
-      <c r="M25" s="67"/>
-      <c r="N25" s="67"/>
-      <c r="O25" s="67"/>
-      <c r="P25" s="67"/>
-      <c r="Q25" s="67"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="51"/>
+      <c r="F25" s="51"/>
+      <c r="G25" s="51"/>
+      <c r="H25" s="51"/>
+      <c r="I25" s="51"/>
+      <c r="J25" s="51"/>
+      <c r="K25" s="51"/>
+      <c r="L25" s="51"/>
+      <c r="M25" s="51"/>
+      <c r="N25" s="51"/>
+      <c r="O25" s="51"/>
+      <c r="P25" s="51"/>
+      <c r="Q25" s="51"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
-      <c r="B26" s="71" t="s">
+      <c r="B26" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="C26" s="68"/>
-      <c r="D26" s="68"/>
-      <c r="E26" s="68"/>
-      <c r="F26" s="68"/>
-      <c r="G26" s="68"/>
-      <c r="H26" s="68"/>
-      <c r="I26" s="68"/>
-      <c r="J26" s="68"/>
-      <c r="K26" s="68"/>
-      <c r="L26" s="68"/>
-      <c r="M26" s="68"/>
-      <c r="N26" s="68"/>
-      <c r="O26" s="68"/>
-      <c r="P26" s="68"/>
-      <c r="Q26" s="68"/>
+      <c r="C26" s="52"/>
+      <c r="D26" s="52"/>
+      <c r="E26" s="52"/>
+      <c r="F26" s="52"/>
+      <c r="G26" s="52"/>
+      <c r="H26" s="52"/>
+      <c r="I26" s="52"/>
+      <c r="J26" s="52"/>
+      <c r="K26" s="52"/>
+      <c r="L26" s="52"/>
+      <c r="M26" s="52"/>
+      <c r="N26" s="52"/>
+      <c r="O26" s="52"/>
+      <c r="P26" s="52"/>
+      <c r="Q26" s="52"/>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>24</v>
       </c>
-      <c r="B27" s="70" t="s">
+      <c r="B27" s="54" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="67"/>
-      <c r="F27" s="67"/>
-      <c r="G27" s="67"/>
-      <c r="H27" s="67"/>
-      <c r="I27" s="67"/>
-      <c r="J27" s="67"/>
-      <c r="K27" s="67"/>
-      <c r="L27" s="67"/>
-      <c r="M27" s="67"/>
-      <c r="N27" s="67"/>
-      <c r="O27" s="67"/>
-      <c r="P27" s="67"/>
-      <c r="Q27" s="67"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="51"/>
+      <c r="F27" s="51"/>
+      <c r="G27" s="51"/>
+      <c r="H27" s="51"/>
+      <c r="I27" s="51"/>
+      <c r="J27" s="51"/>
+      <c r="K27" s="51"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="51"/>
+      <c r="N27" s="51"/>
+      <c r="O27" s="51"/>
+      <c r="P27" s="51"/>
+      <c r="Q27" s="51"/>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="71" t="s">
+      <c r="B28" s="55" t="s">
         <v>153</v>
       </c>
-      <c r="C28" s="68"/>
-      <c r="D28" s="68"/>
-      <c r="E28" s="68"/>
-      <c r="F28" s="68"/>
-      <c r="G28" s="68"/>
-      <c r="H28" s="68"/>
-      <c r="I28" s="68"/>
-      <c r="J28" s="68"/>
-      <c r="K28" s="68"/>
-      <c r="L28" s="68"/>
-      <c r="M28" s="68"/>
-      <c r="N28" s="68"/>
-      <c r="O28" s="68"/>
-      <c r="P28" s="68"/>
-      <c r="Q28" s="68"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="52"/>
+      <c r="E28" s="52"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
+      <c r="J28" s="52"/>
+      <c r="K28" s="52"/>
+      <c r="L28" s="52"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="52"/>
+      <c r="O28" s="52"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="70" t="s">
+      <c r="B29" s="54" t="s">
         <v>154</v>
       </c>
-      <c r="C29" s="67"/>
-      <c r="D29" s="67"/>
-      <c r="E29" s="67"/>
-      <c r="F29" s="67"/>
-      <c r="G29" s="67"/>
-      <c r="H29" s="67"/>
-      <c r="I29" s="67"/>
-      <c r="J29" s="67"/>
-      <c r="K29" s="67"/>
-      <c r="L29" s="67"/>
-      <c r="M29" s="67"/>
-      <c r="N29" s="67"/>
-      <c r="O29" s="67"/>
-      <c r="P29" s="67"/>
-      <c r="Q29" s="67"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="51"/>
+      <c r="F29" s="51"/>
+      <c r="G29" s="51"/>
+      <c r="H29" s="51"/>
+      <c r="I29" s="51"/>
+      <c r="J29" s="51"/>
+      <c r="K29" s="51"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="51"/>
+      <c r="N29" s="51"/>
+      <c r="O29" s="51"/>
+      <c r="P29" s="51"/>
+      <c r="Q29" s="51"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="71" t="s">
+      <c r="B30" s="55" t="s">
         <v>155</v>
       </c>
-      <c r="C30" s="68"/>
-      <c r="D30" s="68"/>
-      <c r="E30" s="68"/>
-      <c r="F30" s="68"/>
-      <c r="G30" s="68"/>
-      <c r="H30" s="68"/>
-      <c r="I30" s="68"/>
-      <c r="J30" s="68"/>
-      <c r="K30" s="68"/>
-      <c r="L30" s="68"/>
-      <c r="M30" s="68"/>
-      <c r="N30" s="68"/>
-      <c r="O30" s="68"/>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="68"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="52"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
+      <c r="J30" s="52"/>
+      <c r="K30" s="52"/>
+      <c r="L30" s="52"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="52"/>
+      <c r="O30" s="52"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
-      <c r="B31" s="70" t="s">
+      <c r="B31" s="54" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="67"/>
-      <c r="D31" s="67"/>
-      <c r="E31" s="67"/>
-      <c r="F31" s="67"/>
-      <c r="G31" s="67"/>
-      <c r="H31" s="67"/>
-      <c r="I31" s="67"/>
-      <c r="J31" s="67"/>
-      <c r="K31" s="67"/>
-      <c r="L31" s="67"/>
-      <c r="M31" s="67"/>
-      <c r="N31" s="67"/>
-      <c r="O31" s="67"/>
-      <c r="P31" s="67"/>
-      <c r="Q31" s="67"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="51"/>
+      <c r="F31" s="51"/>
+      <c r="G31" s="51"/>
+      <c r="H31" s="51"/>
+      <c r="I31" s="51"/>
+      <c r="J31" s="51"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="51"/>
+      <c r="M31" s="51"/>
+      <c r="N31" s="51"/>
+      <c r="O31" s="51"/>
+      <c r="P31" s="51"/>
+      <c r="Q31" s="51"/>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
-      <c r="B32" s="71" t="s">
+      <c r="B32" s="55" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="68"/>
-      <c r="D32" s="68"/>
-      <c r="E32" s="68"/>
-      <c r="F32" s="68"/>
-      <c r="G32" s="68"/>
-      <c r="H32" s="68"/>
-      <c r="I32" s="68"/>
-      <c r="J32" s="68"/>
-      <c r="K32" s="68"/>
-      <c r="L32" s="68"/>
-      <c r="M32" s="68"/>
-      <c r="N32" s="68"/>
-      <c r="O32" s="68"/>
-      <c r="P32" s="68"/>
-      <c r="Q32" s="68"/>
+      <c r="C32" s="52"/>
+      <c r="D32" s="52"/>
+      <c r="E32" s="52"/>
+      <c r="F32" s="52"/>
+      <c r="G32" s="52"/>
+      <c r="H32" s="52"/>
+      <c r="I32" s="52"/>
+      <c r="J32" s="52"/>
+      <c r="K32" s="52"/>
+      <c r="L32" s="52"/>
+      <c r="M32" s="52"/>
+      <c r="N32" s="52"/>
+      <c r="O32" s="52"/>
+      <c r="P32" s="52"/>
+      <c r="Q32" s="52"/>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>30</v>
       </c>
-      <c r="B33" s="70" t="s">
+      <c r="B33" s="54" t="s">
         <v>158</v>
       </c>
-      <c r="C33" s="67"/>
-      <c r="D33" s="67"/>
-      <c r="E33" s="67"/>
-      <c r="F33" s="67"/>
-      <c r="G33" s="67"/>
-      <c r="H33" s="67"/>
-      <c r="I33" s="67"/>
-      <c r="J33" s="67"/>
-      <c r="K33" s="67"/>
-      <c r="L33" s="67"/>
-      <c r="M33" s="67"/>
-      <c r="N33" s="67"/>
-      <c r="O33" s="67"/>
-      <c r="P33" s="67"/>
-      <c r="Q33" s="67"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="51"/>
+      <c r="F33" s="51"/>
+      <c r="G33" s="51"/>
+      <c r="H33" s="51"/>
+      <c r="I33" s="51"/>
+      <c r="J33" s="51"/>
+      <c r="K33" s="51"/>
+      <c r="L33" s="51"/>
+      <c r="M33" s="51"/>
+      <c r="N33" s="51"/>
+      <c r="O33" s="51"/>
+      <c r="P33" s="51"/>
+      <c r="Q33" s="51"/>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="71" t="s">
+      <c r="B34" s="55" t="s">
         <v>159</v>
       </c>
-      <c r="C34" s="68"/>
-      <c r="D34" s="68"/>
-      <c r="E34" s="68"/>
-      <c r="F34" s="68"/>
-      <c r="G34" s="68"/>
-      <c r="H34" s="68"/>
-      <c r="I34" s="68"/>
-      <c r="J34" s="68"/>
-      <c r="K34" s="68"/>
-      <c r="L34" s="68"/>
-      <c r="M34" s="68"/>
-      <c r="N34" s="68"/>
-      <c r="O34" s="68"/>
-      <c r="P34" s="68"/>
-      <c r="Q34" s="68"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="52"/>
+      <c r="E34" s="52"/>
+      <c r="F34" s="52"/>
+      <c r="G34" s="52"/>
+      <c r="H34" s="52"/>
+      <c r="I34" s="52"/>
+      <c r="J34" s="52"/>
+      <c r="K34" s="52"/>
+      <c r="L34" s="52"/>
+      <c r="M34" s="52"/>
+      <c r="N34" s="52"/>
+      <c r="O34" s="52"/>
+      <c r="P34" s="52"/>
+      <c r="Q34" s="52"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="70" t="s">
+      <c r="B35" s="54" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="67"/>
-      <c r="D35" s="67"/>
-      <c r="E35" s="67"/>
-      <c r="F35" s="67"/>
-      <c r="G35" s="67"/>
-      <c r="H35" s="67"/>
-      <c r="I35" s="67"/>
-      <c r="J35" s="67"/>
-      <c r="K35" s="67"/>
-      <c r="L35" s="67"/>
-      <c r="M35" s="67"/>
-      <c r="N35" s="67"/>
-      <c r="O35" s="67"/>
-      <c r="P35" s="67"/>
-      <c r="Q35" s="67"/>
+      <c r="C35" s="51"/>
+      <c r="D35" s="51"/>
+      <c r="E35" s="51"/>
+      <c r="F35" s="51"/>
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+      <c r="J35" s="51"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="51"/>
+      <c r="M35" s="51"/>
+      <c r="N35" s="51"/>
+      <c r="O35" s="51"/>
+      <c r="P35" s="51"/>
+      <c r="Q35" s="51"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="71" t="s">
+      <c r="B36" s="55" t="s">
         <v>161</v>
       </c>
-      <c r="C36" s="68"/>
-      <c r="D36" s="68"/>
-      <c r="E36" s="68"/>
-      <c r="F36" s="68"/>
-      <c r="G36" s="68"/>
-      <c r="H36" s="68"/>
-      <c r="I36" s="68"/>
-      <c r="J36" s="68"/>
-      <c r="K36" s="68"/>
-      <c r="L36" s="68"/>
-      <c r="M36" s="68"/>
-      <c r="N36" s="68"/>
-      <c r="O36" s="68"/>
-      <c r="P36" s="68"/>
-      <c r="Q36" s="68"/>
+      <c r="C36" s="52"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="52"/>
+      <c r="F36" s="52"/>
+      <c r="G36" s="52"/>
+      <c r="H36" s="52"/>
+      <c r="I36" s="52"/>
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="52"/>
+      <c r="N36" s="52"/>
+      <c r="O36" s="52"/>
+      <c r="P36" s="52"/>
+      <c r="Q36" s="52"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
-      <c r="B37" s="70" t="s">
+      <c r="B37" s="54" t="s">
         <v>162</v>
       </c>
-      <c r="C37" s="67"/>
-      <c r="D37" s="67"/>
-      <c r="E37" s="67"/>
-      <c r="F37" s="67"/>
-      <c r="G37" s="67"/>
-      <c r="H37" s="67"/>
-      <c r="I37" s="67"/>
-      <c r="J37" s="67"/>
-      <c r="K37" s="67"/>
-      <c r="L37" s="67"/>
-      <c r="M37" s="67"/>
-      <c r="N37" s="67"/>
-      <c r="O37" s="67"/>
-      <c r="P37" s="67"/>
-      <c r="Q37" s="67"/>
+      <c r="C37" s="51"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="51"/>
+      <c r="F37" s="51"/>
+      <c r="G37" s="51"/>
+      <c r="H37" s="51"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38" s="71" t="s">
+      <c r="B38" s="55" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="68"/>
-      <c r="D38" s="68"/>
-      <c r="E38" s="68"/>
-      <c r="F38" s="68"/>
-      <c r="G38" s="68"/>
-      <c r="H38" s="68"/>
-      <c r="I38" s="68"/>
-      <c r="J38" s="68"/>
-      <c r="K38" s="68"/>
-      <c r="L38" s="68"/>
-      <c r="M38" s="68"/>
-      <c r="N38" s="68"/>
-      <c r="O38" s="68"/>
-      <c r="P38" s="68"/>
-      <c r="Q38" s="68"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="52"/>
+      <c r="F38" s="52"/>
+      <c r="G38" s="52"/>
+      <c r="H38" s="52"/>
+      <c r="I38" s="52"/>
+      <c r="J38" s="52"/>
+      <c r="K38" s="52"/>
+      <c r="L38" s="52"/>
+      <c r="M38" s="52"/>
+      <c r="N38" s="52"/>
+      <c r="O38" s="52"/>
+      <c r="P38" s="52"/>
+      <c r="Q38" s="52"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="B39" s="70" t="s">
+      <c r="B39" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="C39" s="67"/>
-      <c r="D39" s="67"/>
-      <c r="E39" s="67"/>
-      <c r="F39" s="67"/>
-      <c r="G39" s="67"/>
-      <c r="H39" s="67"/>
-      <c r="I39" s="67"/>
-      <c r="J39" s="67"/>
-      <c r="K39" s="67"/>
-      <c r="L39" s="67"/>
-      <c r="M39" s="67"/>
-      <c r="N39" s="67"/>
-      <c r="O39" s="67"/>
-      <c r="P39" s="67"/>
-      <c r="Q39" s="67"/>
+      <c r="C39" s="51"/>
+      <c r="D39" s="51"/>
+      <c r="E39" s="51"/>
+      <c r="F39" s="51"/>
+      <c r="G39" s="51"/>
+      <c r="H39" s="51"/>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" s="71" t="s">
+      <c r="B40" s="55" t="s">
         <v>165</v>
       </c>
-      <c r="C40" s="68"/>
-      <c r="D40" s="68"/>
-      <c r="E40" s="68"/>
-      <c r="F40" s="68"/>
-      <c r="G40" s="68"/>
-      <c r="H40" s="68"/>
-      <c r="I40" s="68"/>
-      <c r="J40" s="68"/>
-      <c r="K40" s="68"/>
-      <c r="L40" s="68"/>
-      <c r="M40" s="68"/>
-      <c r="N40" s="68"/>
-      <c r="O40" s="68"/>
-      <c r="P40" s="68"/>
-      <c r="Q40" s="68"/>
+      <c r="C40" s="52"/>
+      <c r="D40" s="52"/>
+      <c r="E40" s="52"/>
+      <c r="F40" s="52"/>
+      <c r="G40" s="52"/>
+      <c r="H40" s="52"/>
+      <c r="I40" s="52"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="52"/>
+      <c r="N40" s="52"/>
+      <c r="O40" s="52"/>
+      <c r="P40" s="52"/>
+      <c r="Q40" s="52"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="B41" s="70" t="s">
+      <c r="B41" s="54" t="s">
         <v>166</v>
       </c>
-      <c r="C41" s="67"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="67"/>
-      <c r="F41" s="67"/>
-      <c r="G41" s="67"/>
-      <c r="H41" s="67"/>
-      <c r="I41" s="67"/>
-      <c r="J41" s="67"/>
-      <c r="K41" s="67"/>
-      <c r="L41" s="67"/>
-      <c r="M41" s="67"/>
-      <c r="N41" s="67"/>
-      <c r="O41" s="67"/>
-      <c r="P41" s="67"/>
-      <c r="Q41" s="67"/>
+      <c r="C41" s="51"/>
+      <c r="D41" s="51"/>
+      <c r="E41" s="51"/>
+      <c r="F41" s="51"/>
+      <c r="G41" s="51"/>
+      <c r="H41" s="51"/>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
-      <c r="B42" s="71" t="s">
+      <c r="B42" s="55" t="s">
         <v>167</v>
       </c>
-      <c r="C42" s="68"/>
-      <c r="D42" s="68"/>
-      <c r="E42" s="68"/>
-      <c r="F42" s="68"/>
-      <c r="G42" s="68"/>
-      <c r="H42" s="68"/>
-      <c r="I42" s="68"/>
-      <c r="J42" s="68"/>
-      <c r="K42" s="68"/>
-      <c r="L42" s="68"/>
-      <c r="M42" s="68"/>
-      <c r="N42" s="68"/>
-      <c r="O42" s="68"/>
-      <c r="P42" s="68"/>
-      <c r="Q42" s="68"/>
+      <c r="C42" s="52"/>
+      <c r="D42" s="52"/>
+      <c r="E42" s="52"/>
+      <c r="F42" s="52"/>
+      <c r="G42" s="52"/>
+      <c r="H42" s="52"/>
+      <c r="I42" s="52"/>
+      <c r="J42" s="52"/>
+      <c r="K42" s="52"/>
+      <c r="L42" s="52"/>
+      <c r="M42" s="52"/>
+      <c r="N42" s="52"/>
+      <c r="O42" s="52"/>
+      <c r="P42" s="52"/>
+      <c r="Q42" s="52"/>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C43" s="67"/>
-      <c r="D43" s="67"/>
-      <c r="E43" s="67"/>
-      <c r="F43" s="67"/>
-      <c r="G43" s="67"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="67"/>
-      <c r="J43" s="67"/>
-      <c r="K43" s="67"/>
-      <c r="L43" s="67"/>
-      <c r="M43" s="67"/>
-      <c r="N43" s="67"/>
-      <c r="O43" s="67"/>
-      <c r="P43" s="67"/>
-      <c r="Q43" s="67"/>
+      <c r="C43" s="51"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="51"/>
+      <c r="F43" s="51"/>
+      <c r="G43" s="51"/>
+      <c r="H43" s="51"/>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
-      <c r="B44" s="71" t="s">
+      <c r="B44" s="55" t="s">
         <v>169</v>
       </c>
-      <c r="C44" s="68"/>
-      <c r="D44" s="68"/>
-      <c r="E44" s="68"/>
-      <c r="F44" s="68"/>
-      <c r="G44" s="68"/>
-      <c r="H44" s="68"/>
-      <c r="I44" s="68"/>
-      <c r="J44" s="68"/>
-      <c r="K44" s="68"/>
-      <c r="L44" s="68"/>
-      <c r="M44" s="68"/>
-      <c r="N44" s="68"/>
-      <c r="O44" s="68"/>
-      <c r="P44" s="68"/>
-      <c r="Q44" s="68"/>
+      <c r="C44" s="52"/>
+      <c r="D44" s="52"/>
+      <c r="E44" s="52"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+      <c r="K44" s="52"/>
+      <c r="L44" s="52"/>
+      <c r="M44" s="52"/>
+      <c r="N44" s="52"/>
+      <c r="O44" s="52"/>
+      <c r="P44" s="52"/>
+      <c r="Q44" s="52"/>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>42</v>
       </c>
-      <c r="B45" s="70" t="s">
+      <c r="B45" s="54" t="s">
         <v>170</v>
       </c>
-      <c r="C45" s="67"/>
-      <c r="D45" s="67"/>
-      <c r="E45" s="67"/>
-      <c r="F45" s="67"/>
-      <c r="G45" s="67"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="67"/>
-      <c r="J45" s="67"/>
-      <c r="K45" s="67"/>
-      <c r="L45" s="67"/>
-      <c r="M45" s="67"/>
-      <c r="N45" s="67"/>
-      <c r="O45" s="67"/>
-      <c r="P45" s="67"/>
-      <c r="Q45" s="67"/>
+      <c r="C45" s="51"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="51"/>
+      <c r="G45" s="51"/>
+      <c r="H45" s="51"/>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>43</v>
       </c>
-      <c r="B46" s="71" t="s">
+      <c r="B46" s="55" t="s">
         <v>171</v>
       </c>
-      <c r="C46" s="68"/>
-      <c r="D46" s="68"/>
-      <c r="E46" s="68"/>
-      <c r="F46" s="68"/>
-      <c r="G46" s="68"/>
-      <c r="H46" s="68"/>
-      <c r="I46" s="68"/>
-      <c r="J46" s="68"/>
-      <c r="K46" s="68"/>
-      <c r="L46" s="68"/>
-      <c r="M46" s="68"/>
-      <c r="N46" s="68"/>
-      <c r="O46" s="68"/>
-      <c r="P46" s="68"/>
-      <c r="Q46" s="68"/>
+      <c r="C46" s="52"/>
+      <c r="D46" s="52"/>
+      <c r="E46" s="52"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+      <c r="K46" s="52"/>
+      <c r="L46" s="52"/>
+      <c r="M46" s="52"/>
+      <c r="N46" s="52"/>
+      <c r="O46" s="52"/>
+      <c r="P46" s="52"/>
+      <c r="Q46" s="52"/>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>44</v>
       </c>
-      <c r="B47" s="70" t="s">
+      <c r="B47" s="54" t="s">
         <v>172</v>
       </c>
-      <c r="C47" s="67"/>
-      <c r="D47" s="67"/>
-      <c r="E47" s="67"/>
-      <c r="F47" s="67"/>
-      <c r="G47" s="67"/>
-      <c r="H47" s="67"/>
-      <c r="I47" s="67"/>
-      <c r="J47" s="67"/>
-      <c r="K47" s="67"/>
-      <c r="L47" s="67"/>
-      <c r="M47" s="67"/>
-      <c r="N47" s="67"/>
-      <c r="O47" s="67"/>
-      <c r="P47" s="67"/>
-      <c r="Q47" s="67"/>
+      <c r="C47" s="51"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="51"/>
+      <c r="F47" s="51"/>
+      <c r="G47" s="51"/>
+      <c r="H47" s="51"/>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>45</v>
       </c>
-      <c r="B48" s="71" t="s">
+      <c r="B48" s="55" t="s">
         <v>173</v>
       </c>
-      <c r="C48" s="68"/>
-      <c r="D48" s="68"/>
-      <c r="E48" s="68"/>
-      <c r="F48" s="68"/>
-      <c r="G48" s="68"/>
-      <c r="H48" s="68"/>
-      <c r="I48" s="68"/>
-      <c r="J48" s="68"/>
-      <c r="K48" s="68"/>
-      <c r="L48" s="68"/>
-      <c r="M48" s="68"/>
-      <c r="N48" s="68"/>
-      <c r="O48" s="68"/>
-      <c r="P48" s="68"/>
-      <c r="Q48" s="68"/>
+      <c r="C48" s="52"/>
+      <c r="D48" s="52"/>
+      <c r="E48" s="52"/>
+      <c r="F48" s="52"/>
+      <c r="G48" s="52"/>
+      <c r="H48" s="52"/>
+      <c r="I48" s="52"/>
+      <c r="J48" s="52"/>
+      <c r="K48" s="52"/>
+      <c r="L48" s="52"/>
+      <c r="M48" s="52"/>
+      <c r="N48" s="52"/>
+      <c r="O48" s="52"/>
+      <c r="P48" s="52"/>
+      <c r="Q48" s="52"/>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>46</v>
       </c>
-      <c r="B49" s="70" t="s">
+      <c r="B49" s="54" t="s">
         <v>174</v>
       </c>
-      <c r="C49" s="67"/>
-      <c r="D49" s="67"/>
-      <c r="E49" s="67"/>
-      <c r="F49" s="67"/>
-      <c r="G49" s="67"/>
-      <c r="H49" s="67"/>
-      <c r="I49" s="67"/>
-      <c r="J49" s="67"/>
-      <c r="K49" s="67"/>
-      <c r="L49" s="67"/>
-      <c r="M49" s="67"/>
-      <c r="N49" s="67"/>
-      <c r="O49" s="67"/>
-      <c r="P49" s="67"/>
-      <c r="Q49" s="67"/>
+      <c r="C49" s="51"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="51"/>
+      <c r="F49" s="51"/>
+      <c r="G49" s="51"/>
+      <c r="H49" s="51"/>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>47</v>
       </c>
-      <c r="B50" s="71" t="s">
+      <c r="B50" s="55" t="s">
         <v>175</v>
       </c>
-      <c r="C50" s="68"/>
-      <c r="D50" s="68"/>
-      <c r="E50" s="68"/>
-      <c r="F50" s="68"/>
-      <c r="G50" s="68"/>
-      <c r="H50" s="68"/>
-      <c r="I50" s="68"/>
-      <c r="J50" s="68"/>
-      <c r="K50" s="68"/>
-      <c r="L50" s="68"/>
-      <c r="M50" s="68"/>
-      <c r="N50" s="68"/>
-      <c r="O50" s="68"/>
-      <c r="P50" s="68"/>
-      <c r="Q50" s="68"/>
+      <c r="C50" s="52"/>
+      <c r="D50" s="52"/>
+      <c r="E50" s="52"/>
+      <c r="F50" s="52"/>
+      <c r="G50" s="52"/>
+      <c r="H50" s="52"/>
+      <c r="I50" s="52"/>
+      <c r="J50" s="52"/>
+      <c r="K50" s="52"/>
+      <c r="L50" s="52"/>
+      <c r="M50" s="52"/>
+      <c r="N50" s="52"/>
+      <c r="O50" s="52"/>
+      <c r="P50" s="52"/>
+      <c r="Q50" s="52"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
-      <c r="B51" s="70" t="s">
+      <c r="B51" s="54" t="s">
         <v>176</v>
       </c>
-      <c r="C51" s="67"/>
-      <c r="D51" s="67"/>
-      <c r="E51" s="67"/>
-      <c r="F51" s="67"/>
-      <c r="G51" s="67"/>
-      <c r="H51" s="67"/>
-      <c r="I51" s="67"/>
-      <c r="J51" s="67"/>
-      <c r="K51" s="67"/>
-      <c r="L51" s="67"/>
-      <c r="M51" s="67"/>
-      <c r="N51" s="67"/>
-      <c r="O51" s="67"/>
-      <c r="P51" s="67"/>
-      <c r="Q51" s="67"/>
+      <c r="C51" s="51"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="51"/>
+      <c r="F51" s="51"/>
+      <c r="G51" s="51"/>
+      <c r="H51" s="51"/>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>49</v>
       </c>
-      <c r="B52" s="71" t="s">
+      <c r="B52" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="C52" s="68"/>
-      <c r="D52" s="68"/>
-      <c r="E52" s="68"/>
-      <c r="F52" s="68"/>
-      <c r="G52" s="68"/>
-      <c r="H52" s="68"/>
-      <c r="I52" s="68"/>
-      <c r="J52" s="68"/>
-      <c r="K52" s="68"/>
-      <c r="L52" s="68"/>
-      <c r="M52" s="68"/>
-      <c r="N52" s="68"/>
-      <c r="O52" s="68"/>
-      <c r="P52" s="68"/>
-      <c r="Q52" s="68"/>
+      <c r="C52" s="52"/>
+      <c r="D52" s="52"/>
+      <c r="E52" s="52"/>
+      <c r="F52" s="52"/>
+      <c r="G52" s="52"/>
+      <c r="H52" s="52"/>
+      <c r="I52" s="52"/>
+      <c r="J52" s="52"/>
+      <c r="K52" s="52"/>
+      <c r="L52" s="52"/>
+      <c r="M52" s="52"/>
+      <c r="N52" s="52"/>
+      <c r="O52" s="52"/>
+      <c r="P52" s="52"/>
+      <c r="Q52" s="52"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
-      <c r="B53" s="70" t="s">
+      <c r="B53" s="54" t="s">
         <v>178</v>
       </c>
-      <c r="C53" s="67"/>
-      <c r="D53" s="67"/>
-      <c r="E53" s="67"/>
-      <c r="F53" s="67"/>
-      <c r="G53" s="67"/>
-      <c r="H53" s="67"/>
-      <c r="I53" s="67"/>
-      <c r="J53" s="67"/>
-      <c r="K53" s="67"/>
-      <c r="L53" s="67"/>
-      <c r="M53" s="67"/>
-      <c r="N53" s="67"/>
-      <c r="O53" s="67"/>
-      <c r="P53" s="67"/>
-      <c r="Q53" s="67"/>
+      <c r="C53" s="51"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="51"/>
+      <c r="F53" s="51"/>
+      <c r="G53" s="51"/>
+      <c r="H53" s="51"/>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
-      <c r="B54" s="71" t="s">
+      <c r="B54" s="55" t="s">
         <v>179</v>
       </c>
-      <c r="C54" s="68"/>
-      <c r="D54" s="68"/>
-      <c r="E54" s="68"/>
-      <c r="F54" s="68"/>
-      <c r="G54" s="68"/>
-      <c r="H54" s="68"/>
-      <c r="I54" s="68"/>
-      <c r="J54" s="68"/>
-      <c r="K54" s="68"/>
-      <c r="L54" s="68"/>
-      <c r="M54" s="68"/>
-      <c r="N54" s="68"/>
-      <c r="O54" s="68"/>
-      <c r="P54" s="68"/>
-      <c r="Q54" s="68"/>
+      <c r="C54" s="52"/>
+      <c r="D54" s="52"/>
+      <c r="E54" s="52"/>
+      <c r="F54" s="52"/>
+      <c r="G54" s="52"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
+      <c r="J54" s="52"/>
+      <c r="K54" s="52"/>
+      <c r="L54" s="52"/>
+      <c r="M54" s="52"/>
+      <c r="N54" s="52"/>
+      <c r="O54" s="52"/>
+      <c r="P54" s="52"/>
+      <c r="Q54" s="52"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
-      <c r="B55" s="70" t="s">
+      <c r="B55" s="54" t="s">
         <v>180</v>
       </c>
-      <c r="C55" s="67"/>
-      <c r="D55" s="67"/>
-      <c r="E55" s="67"/>
-      <c r="F55" s="67"/>
-      <c r="G55" s="67"/>
-      <c r="H55" s="67"/>
-      <c r="I55" s="67"/>
-      <c r="J55" s="67"/>
-      <c r="K55" s="67"/>
-      <c r="L55" s="67"/>
-      <c r="M55" s="67"/>
-      <c r="N55" s="67"/>
-      <c r="O55" s="67"/>
-      <c r="P55" s="67"/>
-      <c r="Q55" s="67"/>
+      <c r="C55" s="51"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
+      <c r="F55" s="51"/>
+      <c r="G55" s="51"/>
+      <c r="H55" s="51"/>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>53</v>
       </c>
-      <c r="B56" s="71" t="s">
+      <c r="B56" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="C56" s="68"/>
-      <c r="D56" s="68"/>
-      <c r="E56" s="68"/>
-      <c r="F56" s="68"/>
-      <c r="G56" s="68"/>
-      <c r="H56" s="68"/>
-      <c r="I56" s="68"/>
-      <c r="J56" s="68"/>
-      <c r="K56" s="68"/>
-      <c r="L56" s="68"/>
-      <c r="M56" s="68"/>
-      <c r="N56" s="68"/>
-      <c r="O56" s="68"/>
-      <c r="P56" s="68"/>
-      <c r="Q56" s="68"/>
+      <c r="C56" s="52"/>
+      <c r="D56" s="52"/>
+      <c r="E56" s="52"/>
+      <c r="F56" s="52"/>
+      <c r="G56" s="52"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
+      <c r="J56" s="52"/>
+      <c r="K56" s="52"/>
+      <c r="L56" s="52"/>
+      <c r="M56" s="52"/>
+      <c r="N56" s="52"/>
+      <c r="O56" s="52"/>
+      <c r="P56" s="52"/>
+      <c r="Q56" s="52"/>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>54</v>
       </c>
-      <c r="B57" s="70" t="s">
+      <c r="B57" s="54" t="s">
         <v>182</v>
       </c>
-      <c r="C57" s="67"/>
-      <c r="D57" s="67"/>
-      <c r="E57" s="67"/>
-      <c r="F57" s="67"/>
-      <c r="G57" s="67"/>
-      <c r="H57" s="67"/>
-      <c r="I57" s="67"/>
-      <c r="J57" s="67"/>
-      <c r="K57" s="67"/>
-      <c r="L57" s="67"/>
-      <c r="M57" s="67"/>
-      <c r="N57" s="67"/>
-      <c r="O57" s="67"/>
-      <c r="P57" s="67"/>
-      <c r="Q57" s="67"/>
+      <c r="C57" s="51"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
+      <c r="H57" s="51"/>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="55" t="s">
         <v>183</v>
       </c>
-      <c r="C58" s="68"/>
-      <c r="D58" s="68"/>
-      <c r="E58" s="68"/>
-      <c r="F58" s="68"/>
-      <c r="G58" s="68"/>
-      <c r="H58" s="68"/>
-      <c r="I58" s="68"/>
-      <c r="J58" s="68"/>
-      <c r="K58" s="68"/>
-      <c r="L58" s="68"/>
-      <c r="M58" s="68"/>
-      <c r="N58" s="68"/>
-      <c r="O58" s="68"/>
-      <c r="P58" s="68"/>
-      <c r="Q58" s="68"/>
+      <c r="C58" s="52"/>
+      <c r="D58" s="52"/>
+      <c r="E58" s="52"/>
+      <c r="F58" s="52"/>
+      <c r="G58" s="52"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
+      <c r="J58" s="52"/>
+      <c r="K58" s="52"/>
+      <c r="L58" s="52"/>
+      <c r="M58" s="52"/>
+      <c r="N58" s="52"/>
+      <c r="O58" s="52"/>
+      <c r="P58" s="52"/>
+      <c r="Q58" s="52"/>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>56</v>
       </c>
-      <c r="B59" s="70" t="s">
+      <c r="B59" s="54" t="s">
         <v>184</v>
       </c>
-      <c r="C59" s="67"/>
-      <c r="D59" s="67"/>
-      <c r="E59" s="67"/>
-      <c r="F59" s="67"/>
-      <c r="G59" s="67"/>
-      <c r="H59" s="67"/>
-      <c r="I59" s="67"/>
-      <c r="J59" s="67"/>
-      <c r="K59" s="67"/>
-      <c r="L59" s="67"/>
-      <c r="M59" s="67"/>
-      <c r="N59" s="67"/>
-      <c r="O59" s="67"/>
-      <c r="P59" s="67"/>
-      <c r="Q59" s="67"/>
+      <c r="C59" s="51"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
+      <c r="F59" s="51"/>
+      <c r="G59" s="51"/>
+      <c r="H59" s="51"/>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>57</v>
       </c>
-      <c r="B60" s="71" t="s">
+      <c r="B60" s="55" t="s">
         <v>185</v>
       </c>
-      <c r="C60" s="68"/>
-      <c r="D60" s="68"/>
-      <c r="E60" s="68"/>
-      <c r="F60" s="68"/>
-      <c r="G60" s="68"/>
-      <c r="H60" s="68"/>
-      <c r="I60" s="68"/>
-      <c r="J60" s="68"/>
-      <c r="K60" s="68"/>
-      <c r="L60" s="68"/>
-      <c r="M60" s="68"/>
-      <c r="N60" s="68"/>
-      <c r="O60" s="68"/>
-      <c r="P60" s="68"/>
-      <c r="Q60" s="68"/>
+      <c r="C60" s="52"/>
+      <c r="D60" s="52"/>
+      <c r="E60" s="52"/>
+      <c r="F60" s="52"/>
+      <c r="G60" s="52"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
+      <c r="J60" s="52"/>
+      <c r="K60" s="52"/>
+      <c r="L60" s="52"/>
+      <c r="M60" s="52"/>
+      <c r="N60" s="52"/>
+      <c r="O60" s="52"/>
+      <c r="P60" s="52"/>
+      <c r="Q60" s="52"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
-      <c r="B61" s="70" t="s">
+      <c r="B61" s="54" t="s">
         <v>186</v>
       </c>
-      <c r="C61" s="67"/>
-      <c r="D61" s="67"/>
-      <c r="E61" s="67"/>
-      <c r="F61" s="67"/>
-      <c r="G61" s="67"/>
-      <c r="H61" s="67"/>
-      <c r="I61" s="67"/>
-      <c r="J61" s="67"/>
-      <c r="K61" s="67"/>
-      <c r="L61" s="67"/>
-      <c r="M61" s="67"/>
-      <c r="N61" s="67"/>
-      <c r="O61" s="67"/>
-      <c r="P61" s="67"/>
-      <c r="Q61" s="67"/>
+      <c r="C61" s="51"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
+      <c r="F61" s="51"/>
+      <c r="G61" s="51"/>
+      <c r="H61" s="51"/>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
-      <c r="B62" s="71" t="s">
+      <c r="B62" s="55" t="s">
         <v>187</v>
       </c>
-      <c r="C62" s="68"/>
-      <c r="D62" s="68"/>
-      <c r="E62" s="68"/>
-      <c r="F62" s="68"/>
-      <c r="G62" s="68"/>
-      <c r="H62" s="68"/>
-      <c r="I62" s="68"/>
-      <c r="J62" s="68"/>
-      <c r="K62" s="68"/>
-      <c r="L62" s="68"/>
-      <c r="M62" s="68"/>
-      <c r="N62" s="68"/>
-      <c r="O62" s="68"/>
-      <c r="P62" s="68"/>
-      <c r="Q62" s="68"/>
+      <c r="C62" s="52"/>
+      <c r="D62" s="52"/>
+      <c r="E62" s="52"/>
+      <c r="F62" s="52"/>
+      <c r="G62" s="52"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
+      <c r="J62" s="52"/>
+      <c r="K62" s="52"/>
+      <c r="L62" s="52"/>
+      <c r="M62" s="52"/>
+      <c r="N62" s="52"/>
+      <c r="O62" s="52"/>
+      <c r="P62" s="52"/>
+      <c r="Q62" s="52"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
-      <c r="B63" s="70" t="s">
+      <c r="B63" s="54" t="s">
         <v>188</v>
       </c>
-      <c r="C63" s="67"/>
-      <c r="D63" s="67"/>
-      <c r="E63" s="67"/>
-      <c r="F63" s="67"/>
-      <c r="G63" s="67"/>
-      <c r="H63" s="67"/>
-      <c r="I63" s="67"/>
-      <c r="J63" s="67"/>
-      <c r="K63" s="67"/>
-      <c r="L63" s="67"/>
-      <c r="M63" s="67"/>
-      <c r="N63" s="67"/>
-      <c r="O63" s="67"/>
-      <c r="P63" s="67"/>
-      <c r="Q63" s="67"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
+      <c r="F63" s="51"/>
+      <c r="G63" s="51"/>
+      <c r="H63" s="51"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="51"/>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
-      <c r="B64" s="71" t="s">
+      <c r="B64" s="55" t="s">
         <v>189</v>
       </c>
-      <c r="C64" s="68"/>
-      <c r="D64" s="68"/>
-      <c r="E64" s="68"/>
-      <c r="F64" s="68"/>
-      <c r="G64" s="68"/>
-      <c r="H64" s="68"/>
-      <c r="I64" s="68"/>
-      <c r="J64" s="68"/>
-      <c r="K64" s="68"/>
-      <c r="L64" s="68"/>
-      <c r="M64" s="68"/>
-      <c r="N64" s="68"/>
-      <c r="O64" s="68"/>
-      <c r="P64" s="68"/>
-      <c r="Q64" s="68"/>
+      <c r="C64" s="52"/>
+      <c r="D64" s="52"/>
+      <c r="E64" s="52"/>
+      <c r="F64" s="52"/>
+      <c r="G64" s="52"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="52"/>
+      <c r="L64" s="52"/>
+      <c r="M64" s="52"/>
+      <c r="N64" s="52"/>
+      <c r="O64" s="52"/>
+      <c r="P64" s="52"/>
+      <c r="Q64" s="52"/>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>62</v>
       </c>
-      <c r="B65" s="70" t="s">
+      <c r="B65" s="54" t="s">
         <v>190</v>
       </c>
-      <c r="C65" s="67"/>
-      <c r="D65" s="67"/>
-      <c r="E65" s="67"/>
-      <c r="F65" s="67"/>
-      <c r="G65" s="67"/>
-      <c r="H65" s="67"/>
-      <c r="I65" s="67"/>
-      <c r="J65" s="67"/>
-      <c r="K65" s="67"/>
-      <c r="L65" s="67"/>
-      <c r="M65" s="67"/>
-      <c r="N65" s="67"/>
-      <c r="O65" s="67"/>
-      <c r="P65" s="67"/>
-      <c r="Q65" s="67"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
+      <c r="H65" s="51"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>63</v>
       </c>
-      <c r="B66" s="71" t="s">
+      <c r="B66" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="C66" s="68"/>
-      <c r="D66" s="68"/>
-      <c r="E66" s="68"/>
-      <c r="F66" s="68"/>
-      <c r="G66" s="68"/>
-      <c r="H66" s="68"/>
-      <c r="I66" s="68"/>
-      <c r="J66" s="68"/>
-      <c r="K66" s="68"/>
-      <c r="L66" s="68"/>
-      <c r="M66" s="68"/>
-      <c r="N66" s="68"/>
-      <c r="O66" s="68"/>
-      <c r="P66" s="68"/>
-      <c r="Q66" s="68"/>
+      <c r="C66" s="52"/>
+      <c r="D66" s="52"/>
+      <c r="E66" s="52"/>
+      <c r="F66" s="52"/>
+      <c r="G66" s="52"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
+      <c r="J66" s="52"/>
+      <c r="K66" s="52"/>
+      <c r="L66" s="52"/>
+      <c r="M66" s="52"/>
+      <c r="N66" s="52"/>
+      <c r="O66" s="52"/>
+      <c r="P66" s="52"/>
+      <c r="Q66" s="52"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
-      <c r="B67" s="70" t="s">
+      <c r="B67" s="54" t="s">
         <v>192</v>
       </c>
-      <c r="C67" s="67"/>
-      <c r="D67" s="67"/>
-      <c r="E67" s="67"/>
-      <c r="F67" s="67"/>
-      <c r="G67" s="67"/>
-      <c r="H67" s="67"/>
-      <c r="I67" s="67"/>
-      <c r="J67" s="67"/>
-      <c r="K67" s="67"/>
-      <c r="L67" s="67"/>
-      <c r="M67" s="67"/>
-      <c r="N67" s="67"/>
-      <c r="O67" s="67"/>
-      <c r="P67" s="67"/>
-      <c r="Q67" s="67"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
+      <c r="F67" s="51"/>
+      <c r="G67" s="51"/>
+      <c r="H67" s="51"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="51"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="51"/>
+      <c r="O67" s="51"/>
+      <c r="P67" s="51"/>
+      <c r="Q67" s="51"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
-      <c r="B68" s="71" t="s">
+      <c r="B68" s="55" t="s">
         <v>193</v>
       </c>
-      <c r="C68" s="68"/>
-      <c r="D68" s="68"/>
-      <c r="E68" s="68"/>
-      <c r="F68" s="68"/>
-      <c r="G68" s="68"/>
-      <c r="H68" s="68"/>
-      <c r="I68" s="68"/>
-      <c r="J68" s="68"/>
-      <c r="K68" s="68"/>
-      <c r="L68" s="68"/>
-      <c r="M68" s="68"/>
-      <c r="N68" s="68"/>
-      <c r="O68" s="68"/>
-      <c r="P68" s="68"/>
-      <c r="Q68" s="68"/>
+      <c r="C68" s="52"/>
+      <c r="D68" s="52"/>
+      <c r="E68" s="52"/>
+      <c r="F68" s="52"/>
+      <c r="G68" s="52"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
+      <c r="J68" s="52"/>
+      <c r="K68" s="52"/>
+      <c r="L68" s="52"/>
+      <c r="M68" s="52"/>
+      <c r="N68" s="52"/>
+      <c r="O68" s="52"/>
+      <c r="P68" s="52"/>
+      <c r="Q68" s="52"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
-      <c r="B69" s="70" t="s">
+      <c r="B69" s="54" t="s">
         <v>194</v>
       </c>
-      <c r="C69" s="67"/>
-      <c r="D69" s="67"/>
-      <c r="E69" s="67"/>
-      <c r="F69" s="67"/>
-      <c r="G69" s="67"/>
-      <c r="H69" s="67"/>
-      <c r="I69" s="67"/>
-      <c r="J69" s="67"/>
-      <c r="K69" s="67"/>
-      <c r="L69" s="67"/>
-      <c r="M69" s="67"/>
-      <c r="N69" s="67"/>
-      <c r="O69" s="67"/>
-      <c r="P69" s="67"/>
-      <c r="Q69" s="67"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
+      <c r="F69" s="51"/>
+      <c r="G69" s="51"/>
+      <c r="H69" s="51"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="51"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
-      <c r="B70" s="71" t="s">
+      <c r="B70" s="55" t="s">
         <v>195</v>
       </c>
-      <c r="C70" s="68"/>
-      <c r="D70" s="68"/>
-      <c r="E70" s="68"/>
-      <c r="F70" s="68"/>
-      <c r="G70" s="68"/>
-      <c r="H70" s="68"/>
-      <c r="I70" s="68"/>
-      <c r="J70" s="68"/>
-      <c r="K70" s="68"/>
-      <c r="L70" s="68"/>
-      <c r="M70" s="68"/>
-      <c r="N70" s="68"/>
-      <c r="O70" s="68"/>
-      <c r="P70" s="68"/>
-      <c r="Q70" s="68"/>
+      <c r="C70" s="52"/>
+      <c r="D70" s="52"/>
+      <c r="E70" s="52"/>
+      <c r="F70" s="52"/>
+      <c r="G70" s="52"/>
+      <c r="H70" s="52"/>
+      <c r="I70" s="52"/>
+      <c r="J70" s="52"/>
+      <c r="K70" s="52"/>
+      <c r="L70" s="52"/>
+      <c r="M70" s="52"/>
+      <c r="N70" s="52"/>
+      <c r="O70" s="52"/>
+      <c r="P70" s="52"/>
+      <c r="Q70" s="52"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
-      <c r="B71" s="70" t="s">
+      <c r="B71" s="54" t="s">
         <v>196</v>
       </c>
-      <c r="C71" s="67"/>
-      <c r="D71" s="67"/>
-      <c r="E71" s="67"/>
-      <c r="F71" s="67"/>
-      <c r="G71" s="67"/>
-      <c r="H71" s="67"/>
-      <c r="I71" s="67"/>
-      <c r="J71" s="67"/>
-      <c r="K71" s="67"/>
-      <c r="L71" s="67"/>
-      <c r="M71" s="67"/>
-      <c r="N71" s="67"/>
-      <c r="O71" s="67"/>
-      <c r="P71" s="67"/>
-      <c r="Q71" s="67"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="51"/>
+      <c r="E71" s="51"/>
+      <c r="F71" s="51"/>
+      <c r="G71" s="51"/>
+      <c r="H71" s="51"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="51"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="51"/>
+      <c r="Q71" s="51"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
-      <c r="B72" s="71" t="s">
+      <c r="B72" s="55" t="s">
         <v>197</v>
       </c>
-      <c r="C72" s="68"/>
-      <c r="D72" s="68"/>
-      <c r="E72" s="68"/>
-      <c r="F72" s="68"/>
-      <c r="G72" s="68"/>
-      <c r="H72" s="68"/>
-      <c r="I72" s="68"/>
-      <c r="J72" s="68"/>
-      <c r="K72" s="68"/>
-      <c r="L72" s="68"/>
-      <c r="M72" s="68"/>
-      <c r="N72" s="68"/>
-      <c r="O72" s="68"/>
-      <c r="P72" s="68"/>
-      <c r="Q72" s="68"/>
+      <c r="C72" s="52"/>
+      <c r="D72" s="52"/>
+      <c r="E72" s="52"/>
+      <c r="F72" s="52"/>
+      <c r="G72" s="52"/>
+      <c r="H72" s="52"/>
+      <c r="I72" s="52"/>
+      <c r="J72" s="52"/>
+      <c r="K72" s="52"/>
+      <c r="L72" s="52"/>
+      <c r="M72" s="52"/>
+      <c r="N72" s="52"/>
+      <c r="O72" s="52"/>
+      <c r="P72" s="52"/>
+      <c r="Q72" s="52"/>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>70</v>
       </c>
-      <c r="B73" s="70" t="s">
+      <c r="B73" s="54" t="s">
         <v>198</v>
       </c>
-      <c r="C73" s="67"/>
-      <c r="D73" s="67"/>
-      <c r="E73" s="67"/>
-      <c r="F73" s="67"/>
-      <c r="G73" s="67"/>
-      <c r="H73" s="67"/>
-      <c r="I73" s="67"/>
-      <c r="J73" s="67"/>
-      <c r="K73" s="67"/>
-      <c r="L73" s="67"/>
-      <c r="M73" s="67"/>
-      <c r="N73" s="67"/>
-      <c r="O73" s="67"/>
-      <c r="P73" s="67"/>
-      <c r="Q73" s="67"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="51"/>
+      <c r="E73" s="51"/>
+      <c r="F73" s="51"/>
+      <c r="G73" s="51"/>
+      <c r="H73" s="51"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="51"/>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>71</v>
       </c>
-      <c r="B74" s="71" t="s">
+      <c r="B74" s="55" t="s">
         <v>199</v>
       </c>
-      <c r="C74" s="68"/>
-      <c r="D74" s="68"/>
-      <c r="E74" s="68"/>
-      <c r="F74" s="68"/>
-      <c r="G74" s="68"/>
-      <c r="H74" s="68"/>
-      <c r="I74" s="68"/>
-      <c r="J74" s="68"/>
-      <c r="K74" s="68"/>
-      <c r="L74" s="68"/>
-      <c r="M74" s="68"/>
-      <c r="N74" s="68"/>
-      <c r="O74" s="68"/>
-      <c r="P74" s="68"/>
-      <c r="Q74" s="68"/>
+      <c r="C74" s="52"/>
+      <c r="D74" s="52"/>
+      <c r="E74" s="52"/>
+      <c r="F74" s="52"/>
+      <c r="G74" s="52"/>
+      <c r="H74" s="52"/>
+      <c r="I74" s="52"/>
+      <c r="J74" s="52"/>
+      <c r="K74" s="52"/>
+      <c r="L74" s="52"/>
+      <c r="M74" s="52"/>
+      <c r="N74" s="52"/>
+      <c r="O74" s="52"/>
+      <c r="P74" s="52"/>
+      <c r="Q74" s="52"/>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>72</v>
       </c>
-      <c r="B75" s="70" t="s">
+      <c r="B75" s="54" t="s">
         <v>200</v>
       </c>
-      <c r="C75" s="67"/>
-      <c r="D75" s="67"/>
-      <c r="E75" s="67"/>
-      <c r="F75" s="67"/>
-      <c r="G75" s="67"/>
-      <c r="H75" s="67"/>
-      <c r="I75" s="67"/>
-      <c r="J75" s="67"/>
-      <c r="K75" s="67"/>
-      <c r="L75" s="67"/>
-      <c r="M75" s="67"/>
-      <c r="N75" s="67"/>
-      <c r="O75" s="67"/>
-      <c r="P75" s="67"/>
-      <c r="Q75" s="67"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="51"/>
+      <c r="E75" s="51"/>
+      <c r="F75" s="51"/>
+      <c r="G75" s="51"/>
+      <c r="H75" s="51"/>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>73</v>
       </c>
-      <c r="B76" s="71" t="s">
+      <c r="B76" s="55" t="s">
         <v>201</v>
       </c>
-      <c r="C76" s="68"/>
-      <c r="D76" s="68"/>
-      <c r="E76" s="68"/>
-      <c r="F76" s="68"/>
-      <c r="G76" s="68"/>
-      <c r="H76" s="68"/>
-      <c r="I76" s="68"/>
-      <c r="J76" s="68"/>
-      <c r="K76" s="68"/>
-      <c r="L76" s="68"/>
-      <c r="M76" s="68"/>
-      <c r="N76" s="68"/>
-      <c r="O76" s="68"/>
-      <c r="P76" s="68"/>
-      <c r="Q76" s="68"/>
+      <c r="C76" s="52"/>
+      <c r="D76" s="52"/>
+      <c r="E76" s="52"/>
+      <c r="F76" s="52"/>
+      <c r="G76" s="52"/>
+      <c r="H76" s="52"/>
+      <c r="I76" s="52"/>
+      <c r="J76" s="52"/>
+      <c r="K76" s="52"/>
+      <c r="L76" s="52"/>
+      <c r="M76" s="52"/>
+      <c r="N76" s="52"/>
+      <c r="O76" s="52"/>
+      <c r="P76" s="52"/>
+      <c r="Q76" s="52"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>74</v>
       </c>
-      <c r="B77" s="70" t="s">
+      <c r="B77" s="54" t="s">
         <v>202</v>
       </c>
-      <c r="C77" s="67"/>
-      <c r="D77" s="67"/>
-      <c r="E77" s="67"/>
-      <c r="F77" s="67"/>
-      <c r="G77" s="67"/>
-      <c r="H77" s="67"/>
-      <c r="I77" s="67"/>
-      <c r="J77" s="67"/>
-      <c r="K77" s="67"/>
-      <c r="L77" s="67"/>
-      <c r="M77" s="67"/>
-      <c r="N77" s="67"/>
-      <c r="O77" s="67"/>
-      <c r="P77" s="67"/>
-      <c r="Q77" s="67"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="51"/>
+      <c r="E77" s="51"/>
+      <c r="F77" s="51"/>
+      <c r="G77" s="51"/>
+      <c r="H77" s="51"/>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>75</v>
       </c>
-      <c r="B78" s="71" t="s">
+      <c r="B78" s="55" t="s">
         <v>203</v>
       </c>
-      <c r="C78" s="68"/>
-      <c r="D78" s="68"/>
-      <c r="E78" s="68"/>
-      <c r="F78" s="68"/>
-      <c r="G78" s="68"/>
-      <c r="H78" s="68"/>
-      <c r="I78" s="68"/>
-      <c r="J78" s="68"/>
-      <c r="K78" s="68"/>
-      <c r="L78" s="68"/>
-      <c r="M78" s="68"/>
-      <c r="N78" s="68"/>
-      <c r="O78" s="68"/>
-      <c r="P78" s="68"/>
-      <c r="Q78" s="68"/>
+      <c r="C78" s="52"/>
+      <c r="D78" s="52"/>
+      <c r="E78" s="52"/>
+      <c r="F78" s="52"/>
+      <c r="G78" s="52"/>
+      <c r="H78" s="52"/>
+      <c r="I78" s="52"/>
+      <c r="J78" s="52"/>
+      <c r="K78" s="52"/>
+      <c r="L78" s="52"/>
+      <c r="M78" s="52"/>
+      <c r="N78" s="52"/>
+      <c r="O78" s="52"/>
+      <c r="P78" s="52"/>
+      <c r="Q78" s="52"/>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>76</v>
       </c>
-      <c r="B79" s="70" t="s">
+      <c r="B79" s="54" t="s">
         <v>204</v>
       </c>
-      <c r="C79" s="67"/>
-      <c r="D79" s="67"/>
-      <c r="E79" s="67"/>
-      <c r="F79" s="67"/>
-      <c r="G79" s="67"/>
-      <c r="H79" s="67"/>
-      <c r="I79" s="67"/>
-      <c r="J79" s="67"/>
-      <c r="K79" s="67"/>
-      <c r="L79" s="67"/>
-      <c r="M79" s="67"/>
-      <c r="N79" s="67"/>
-      <c r="O79" s="67"/>
-      <c r="P79" s="67"/>
-      <c r="Q79" s="67"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="51"/>
+      <c r="E79" s="51"/>
+      <c r="F79" s="51"/>
+      <c r="G79" s="51"/>
+      <c r="H79" s="51"/>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="51"/>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>77</v>
       </c>
-      <c r="B80" s="71" t="s">
+      <c r="B80" s="55" t="s">
         <v>205</v>
       </c>
-      <c r="C80" s="68"/>
-      <c r="D80" s="68"/>
-      <c r="E80" s="68"/>
-      <c r="F80" s="68"/>
-      <c r="G80" s="68"/>
-      <c r="H80" s="68"/>
-      <c r="I80" s="68"/>
-      <c r="J80" s="68"/>
-      <c r="K80" s="68"/>
-      <c r="L80" s="68"/>
-      <c r="M80" s="68"/>
-      <c r="N80" s="68"/>
-      <c r="O80" s="68"/>
-      <c r="P80" s="68"/>
-      <c r="Q80" s="68"/>
+      <c r="C80" s="52"/>
+      <c r="D80" s="52"/>
+      <c r="E80" s="52"/>
+      <c r="F80" s="52"/>
+      <c r="G80" s="52"/>
+      <c r="H80" s="52"/>
+      <c r="I80" s="52"/>
+      <c r="J80" s="52"/>
+      <c r="K80" s="52"/>
+      <c r="L80" s="52"/>
+      <c r="M80" s="52"/>
+      <c r="N80" s="52"/>
+      <c r="O80" s="52"/>
+      <c r="P80" s="52"/>
+      <c r="Q80" s="52"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
-      <c r="B81" s="70" t="s">
+      <c r="B81" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="C81" s="67"/>
-      <c r="D81" s="67"/>
-      <c r="E81" s="67"/>
-      <c r="F81" s="67"/>
-      <c r="G81" s="67"/>
-      <c r="H81" s="67"/>
-      <c r="I81" s="67"/>
-      <c r="J81" s="67"/>
-      <c r="K81" s="67"/>
-      <c r="L81" s="67"/>
-      <c r="M81" s="67"/>
-      <c r="N81" s="67"/>
-      <c r="O81" s="67"/>
-      <c r="P81" s="67"/>
-      <c r="Q81" s="67"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="51"/>
+      <c r="E81" s="51"/>
+      <c r="F81" s="51"/>
+      <c r="G81" s="51"/>
+      <c r="H81" s="51"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
-      <c r="B82" s="71" t="s">
+      <c r="B82" s="55" t="s">
         <v>207</v>
       </c>
-      <c r="C82" s="68"/>
-      <c r="D82" s="68"/>
-      <c r="E82" s="68"/>
-      <c r="F82" s="68"/>
-      <c r="G82" s="68"/>
-      <c r="H82" s="68"/>
-      <c r="I82" s="68"/>
-      <c r="J82" s="68"/>
-      <c r="K82" s="68"/>
-      <c r="L82" s="68"/>
-      <c r="M82" s="68"/>
-      <c r="N82" s="68"/>
-      <c r="O82" s="68"/>
-      <c r="P82" s="68"/>
-      <c r="Q82" s="68"/>
+      <c r="C82" s="52"/>
+      <c r="D82" s="52"/>
+      <c r="E82" s="52"/>
+      <c r="F82" s="52"/>
+      <c r="G82" s="52"/>
+      <c r="H82" s="52"/>
+      <c r="I82" s="52"/>
+      <c r="J82" s="52"/>
+      <c r="K82" s="52"/>
+      <c r="L82" s="52"/>
+      <c r="M82" s="52"/>
+      <c r="N82" s="52"/>
+      <c r="O82" s="52"/>
+      <c r="P82" s="52"/>
+      <c r="Q82" s="52"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
-      <c r="B83" s="70" t="s">
+      <c r="B83" s="54" t="s">
         <v>208</v>
       </c>
-      <c r="C83" s="67"/>
-      <c r="D83" s="67"/>
-      <c r="E83" s="67"/>
-      <c r="F83" s="67"/>
-      <c r="G83" s="67"/>
-      <c r="H83" s="67"/>
-      <c r="I83" s="67"/>
-      <c r="J83" s="67"/>
-      <c r="K83" s="67"/>
-      <c r="L83" s="67"/>
-      <c r="M83" s="67"/>
-      <c r="N83" s="67"/>
-      <c r="O83" s="67"/>
-      <c r="P83" s="67"/>
-      <c r="Q83" s="67"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="51"/>
+      <c r="E83" s="51"/>
+      <c r="F83" s="51"/>
+      <c r="G83" s="51"/>
+      <c r="H83" s="51"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="51"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="51"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="51"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
-      <c r="B84" s="71" t="s">
+      <c r="B84" s="55" t="s">
         <v>209</v>
       </c>
-      <c r="C84" s="68"/>
-      <c r="D84" s="68"/>
-      <c r="E84" s="68"/>
-      <c r="F84" s="68"/>
-      <c r="G84" s="68"/>
-      <c r="H84" s="68"/>
-      <c r="I84" s="68"/>
-      <c r="J84" s="68"/>
-      <c r="K84" s="68"/>
-      <c r="L84" s="68"/>
-      <c r="M84" s="68"/>
-      <c r="N84" s="68"/>
-      <c r="O84" s="68"/>
-      <c r="P84" s="68"/>
-      <c r="Q84" s="68"/>
+      <c r="C84" s="52"/>
+      <c r="D84" s="52"/>
+      <c r="E84" s="52"/>
+      <c r="F84" s="52"/>
+      <c r="G84" s="52"/>
+      <c r="H84" s="52"/>
+      <c r="I84" s="52"/>
+      <c r="J84" s="52"/>
+      <c r="K84" s="52"/>
+      <c r="L84" s="52"/>
+      <c r="M84" s="52"/>
+      <c r="N84" s="52"/>
+      <c r="O84" s="52"/>
+      <c r="P84" s="52"/>
+      <c r="Q84" s="52"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
-      <c r="B85" s="70" t="s">
+      <c r="B85" s="54" t="s">
         <v>210</v>
       </c>
-      <c r="C85" s="67"/>
-      <c r="D85" s="67"/>
-      <c r="E85" s="67"/>
-      <c r="F85" s="67"/>
-      <c r="G85" s="67"/>
-      <c r="H85" s="67"/>
-      <c r="I85" s="67"/>
-      <c r="J85" s="67"/>
-      <c r="K85" s="67"/>
-      <c r="L85" s="67"/>
-      <c r="M85" s="67"/>
-      <c r="N85" s="67"/>
-      <c r="O85" s="67"/>
-      <c r="P85" s="67"/>
-      <c r="Q85" s="67"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="51"/>
+      <c r="E85" s="51"/>
+      <c r="F85" s="51"/>
+      <c r="G85" s="51"/>
+      <c r="H85" s="51"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="51"/>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>83</v>
       </c>
-      <c r="B86" s="71" t="s">
+      <c r="B86" s="55" t="s">
         <v>211</v>
       </c>
-      <c r="C86" s="68"/>
-      <c r="D86" s="68"/>
-      <c r="E86" s="68"/>
-      <c r="F86" s="68"/>
-      <c r="G86" s="68"/>
-      <c r="H86" s="68"/>
-      <c r="I86" s="68"/>
-      <c r="J86" s="68"/>
-      <c r="K86" s="68"/>
-      <c r="L86" s="68"/>
-      <c r="M86" s="68"/>
-      <c r="N86" s="68"/>
-      <c r="O86" s="68"/>
-      <c r="P86" s="68"/>
-      <c r="Q86" s="68"/>
+      <c r="C86" s="52"/>
+      <c r="D86" s="52"/>
+      <c r="E86" s="52"/>
+      <c r="F86" s="52"/>
+      <c r="G86" s="52"/>
+      <c r="H86" s="52"/>
+      <c r="I86" s="52"/>
+      <c r="J86" s="52"/>
+      <c r="K86" s="52"/>
+      <c r="L86" s="52"/>
+      <c r="M86" s="52"/>
+      <c r="N86" s="52"/>
+      <c r="O86" s="52"/>
+      <c r="P86" s="52"/>
+      <c r="Q86" s="52"/>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>84</v>
       </c>
-      <c r="B87" s="70" t="s">
+      <c r="B87" s="54" t="s">
         <v>212</v>
       </c>
-      <c r="C87" s="67"/>
-      <c r="D87" s="67"/>
-      <c r="E87" s="67"/>
-      <c r="F87" s="67"/>
-      <c r="G87" s="67"/>
-      <c r="H87" s="67"/>
-      <c r="I87" s="67"/>
-      <c r="J87" s="67"/>
-      <c r="K87" s="67"/>
-      <c r="L87" s="67"/>
-      <c r="M87" s="67"/>
-      <c r="N87" s="67"/>
-      <c r="O87" s="67"/>
-      <c r="P87" s="67"/>
-      <c r="Q87" s="67"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="51"/>
+      <c r="E87" s="51"/>
+      <c r="F87" s="51"/>
+      <c r="G87" s="51"/>
+      <c r="H87" s="51"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="51"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="51"/>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>85</v>
       </c>
-      <c r="B88" s="71" t="s">
+      <c r="B88" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="C88" s="68"/>
-      <c r="D88" s="68"/>
-      <c r="E88" s="68"/>
-      <c r="F88" s="68"/>
-      <c r="G88" s="68"/>
-      <c r="H88" s="68"/>
-      <c r="I88" s="68"/>
-      <c r="J88" s="68"/>
-      <c r="K88" s="68"/>
-      <c r="L88" s="68"/>
-      <c r="M88" s="68"/>
-      <c r="N88" s="68"/>
-      <c r="O88" s="68"/>
-      <c r="P88" s="68"/>
-      <c r="Q88" s="68"/>
+      <c r="C88" s="52"/>
+      <c r="D88" s="52"/>
+      <c r="E88" s="52"/>
+      <c r="F88" s="52"/>
+      <c r="G88" s="52"/>
+      <c r="H88" s="52"/>
+      <c r="I88" s="52"/>
+      <c r="J88" s="52"/>
+      <c r="K88" s="52"/>
+      <c r="L88" s="52"/>
+      <c r="M88" s="52"/>
+      <c r="N88" s="52"/>
+      <c r="O88" s="52"/>
+      <c r="P88" s="52"/>
+      <c r="Q88" s="52"/>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>86</v>
       </c>
-      <c r="B89" s="70" t="s">
+      <c r="B89" s="54" t="s">
         <v>214</v>
       </c>
-      <c r="C89" s="67"/>
-      <c r="D89" s="67"/>
-      <c r="E89" s="67"/>
-      <c r="F89" s="67"/>
-      <c r="G89" s="67"/>
-      <c r="H89" s="67"/>
-      <c r="I89" s="67"/>
-      <c r="J89" s="67"/>
-      <c r="K89" s="67"/>
-      <c r="L89" s="67"/>
-      <c r="M89" s="67"/>
-      <c r="N89" s="67"/>
-      <c r="O89" s="67"/>
-      <c r="P89" s="67"/>
-      <c r="Q89" s="67"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="51"/>
+      <c r="E89" s="51"/>
+      <c r="F89" s="51"/>
+      <c r="G89" s="51"/>
+      <c r="H89" s="51"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="51"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="51"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>87</v>
       </c>
-      <c r="B90" s="71" t="s">
+      <c r="B90" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="C90" s="68"/>
-      <c r="D90" s="68"/>
-      <c r="E90" s="68"/>
-      <c r="F90" s="68"/>
-      <c r="G90" s="68"/>
-      <c r="H90" s="68"/>
-      <c r="I90" s="68"/>
-      <c r="J90" s="68"/>
-      <c r="K90" s="68"/>
-      <c r="L90" s="68"/>
-      <c r="M90" s="68"/>
-      <c r="N90" s="68"/>
-      <c r="O90" s="68"/>
-      <c r="P90" s="68"/>
-      <c r="Q90" s="68"/>
+      <c r="C90" s="52"/>
+      <c r="D90" s="52"/>
+      <c r="E90" s="52"/>
+      <c r="F90" s="52"/>
+      <c r="G90" s="52"/>
+      <c r="H90" s="52"/>
+      <c r="I90" s="52"/>
+      <c r="J90" s="52"/>
+      <c r="K90" s="52"/>
+      <c r="L90" s="52"/>
+      <c r="M90" s="52"/>
+      <c r="N90" s="52"/>
+      <c r="O90" s="52"/>
+      <c r="P90" s="52"/>
+      <c r="Q90" s="52"/>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>88</v>
       </c>
-      <c r="B91" s="70" t="s">
+      <c r="B91" s="54" t="s">
         <v>216</v>
       </c>
-      <c r="C91" s="67"/>
-      <c r="D91" s="67"/>
-      <c r="E91" s="67"/>
-      <c r="F91" s="67"/>
-      <c r="G91" s="67"/>
-      <c r="H91" s="67"/>
-      <c r="I91" s="67"/>
-      <c r="J91" s="67"/>
-      <c r="K91" s="67"/>
-      <c r="L91" s="67"/>
-      <c r="M91" s="67"/>
-      <c r="N91" s="67"/>
-      <c r="O91" s="67"/>
-      <c r="P91" s="67"/>
-      <c r="Q91" s="67"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="51"/>
+      <c r="E91" s="51"/>
+      <c r="F91" s="51"/>
+      <c r="G91" s="51"/>
+      <c r="H91" s="51"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="51"/>
+      <c r="O91" s="51"/>
+      <c r="P91" s="51"/>
+      <c r="Q91" s="51"/>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>89</v>
       </c>
-      <c r="B92" s="71" t="s">
+      <c r="B92" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C92" s="68"/>
-      <c r="D92" s="68"/>
-      <c r="E92" s="68"/>
-      <c r="F92" s="68"/>
-      <c r="G92" s="68"/>
-      <c r="H92" s="68"/>
-      <c r="I92" s="68"/>
-      <c r="J92" s="68"/>
-      <c r="K92" s="68"/>
-      <c r="L92" s="68"/>
-      <c r="M92" s="68"/>
-      <c r="N92" s="68"/>
-      <c r="O92" s="68"/>
-      <c r="P92" s="68"/>
-      <c r="Q92" s="68"/>
+      <c r="C92" s="52"/>
+      <c r="D92" s="52"/>
+      <c r="E92" s="52"/>
+      <c r="F92" s="52"/>
+      <c r="G92" s="52"/>
+      <c r="H92" s="52"/>
+      <c r="I92" s="52"/>
+      <c r="J92" s="52"/>
+      <c r="K92" s="52"/>
+      <c r="L92" s="52"/>
+      <c r="M92" s="52"/>
+      <c r="N92" s="52"/>
+      <c r="O92" s="52"/>
+      <c r="P92" s="52"/>
+      <c r="Q92" s="52"/>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>90</v>
       </c>
-      <c r="B93" s="70" t="s">
+      <c r="B93" s="54" t="s">
         <v>218</v>
       </c>
-      <c r="C93" s="67"/>
-      <c r="D93" s="67"/>
-      <c r="E93" s="67"/>
-      <c r="F93" s="67"/>
-      <c r="G93" s="67"/>
-      <c r="H93" s="67"/>
-      <c r="I93" s="67"/>
-      <c r="J93" s="67"/>
-      <c r="K93" s="67"/>
-      <c r="L93" s="67"/>
-      <c r="M93" s="67"/>
-      <c r="N93" s="67"/>
-      <c r="O93" s="67"/>
-      <c r="P93" s="67"/>
-      <c r="Q93" s="67"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="51"/>
+      <c r="E93" s="51"/>
+      <c r="F93" s="51"/>
+      <c r="G93" s="51"/>
+      <c r="H93" s="51"/>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="51"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="51"/>
+      <c r="Q93" s="51"/>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>91</v>
       </c>
-      <c r="B94" s="71" t="s">
+      <c r="B94" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="C94" s="68"/>
-      <c r="D94" s="68"/>
-      <c r="E94" s="68"/>
-      <c r="F94" s="68"/>
-      <c r="G94" s="68"/>
-      <c r="H94" s="68"/>
-      <c r="I94" s="68"/>
-      <c r="J94" s="68"/>
-      <c r="K94" s="68"/>
-      <c r="L94" s="68"/>
-      <c r="M94" s="68"/>
-      <c r="N94" s="68"/>
-      <c r="O94" s="68"/>
-      <c r="P94" s="68"/>
-      <c r="Q94" s="68"/>
+      <c r="C94" s="52"/>
+      <c r="D94" s="52"/>
+      <c r="E94" s="52"/>
+      <c r="F94" s="52"/>
+      <c r="G94" s="52"/>
+      <c r="H94" s="52"/>
+      <c r="I94" s="52"/>
+      <c r="J94" s="52"/>
+      <c r="K94" s="52"/>
+      <c r="L94" s="52"/>
+      <c r="M94" s="52"/>
+      <c r="N94" s="52"/>
+      <c r="O94" s="52"/>
+      <c r="P94" s="52"/>
+      <c r="Q94" s="52"/>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>92</v>
       </c>
-      <c r="B95" s="70" t="s">
+      <c r="B95" s="54" t="s">
         <v>220</v>
       </c>
-      <c r="C95" s="67"/>
-      <c r="D95" s="67"/>
-      <c r="E95" s="67"/>
-      <c r="F95" s="67"/>
-      <c r="G95" s="67"/>
-      <c r="H95" s="67"/>
-      <c r="I95" s="67"/>
-      <c r="J95" s="67"/>
-      <c r="K95" s="67"/>
-      <c r="L95" s="67"/>
-      <c r="M95" s="67"/>
-      <c r="N95" s="67"/>
-      <c r="O95" s="67"/>
-      <c r="P95" s="67"/>
-      <c r="Q95" s="67"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="51"/>
+      <c r="E95" s="51"/>
+      <c r="F95" s="51"/>
+      <c r="G95" s="51"/>
+      <c r="H95" s="51"/>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="51"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="51"/>
+      <c r="O95" s="51"/>
+      <c r="P95" s="51"/>
+      <c r="Q95" s="51"/>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>93</v>
       </c>
-      <c r="B96" s="71" t="s">
+      <c r="B96" s="55" t="s">
         <v>221</v>
       </c>
-      <c r="C96" s="68"/>
-      <c r="D96" s="68"/>
-      <c r="E96" s="68"/>
-      <c r="F96" s="68"/>
-      <c r="G96" s="68"/>
-      <c r="H96" s="68"/>
-      <c r="I96" s="68"/>
-      <c r="J96" s="68"/>
-      <c r="K96" s="68"/>
-      <c r="L96" s="68"/>
-      <c r="M96" s="68"/>
-      <c r="N96" s="68"/>
-      <c r="O96" s="68"/>
-      <c r="P96" s="68"/>
-      <c r="Q96" s="68"/>
+      <c r="C96" s="52"/>
+      <c r="D96" s="52"/>
+      <c r="E96" s="52"/>
+      <c r="F96" s="52"/>
+      <c r="G96" s="52"/>
+      <c r="H96" s="52"/>
+      <c r="I96" s="52"/>
+      <c r="J96" s="52"/>
+      <c r="K96" s="52"/>
+      <c r="L96" s="52"/>
+      <c r="M96" s="52"/>
+      <c r="N96" s="52"/>
+      <c r="O96" s="52"/>
+      <c r="P96" s="52"/>
+      <c r="Q96" s="52"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>94</v>
       </c>
-      <c r="B97" s="70" t="s">
+      <c r="B97" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="C97" s="67"/>
-      <c r="D97" s="67"/>
-      <c r="E97" s="67"/>
-      <c r="F97" s="67"/>
-      <c r="G97" s="67"/>
-      <c r="H97" s="67"/>
-      <c r="I97" s="67"/>
-      <c r="J97" s="67"/>
-      <c r="K97" s="67"/>
-      <c r="L97" s="67"/>
-      <c r="M97" s="67"/>
-      <c r="N97" s="67"/>
-      <c r="O97" s="67"/>
-      <c r="P97" s="67"/>
-      <c r="Q97" s="67"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="51"/>
+      <c r="E97" s="51"/>
+      <c r="F97" s="51"/>
+      <c r="G97" s="51"/>
+      <c r="H97" s="51"/>
+      <c r="I97" s="51"/>
+      <c r="J97" s="51"/>
+      <c r="K97" s="51"/>
+      <c r="L97" s="51"/>
+      <c r="M97" s="51"/>
+      <c r="N97" s="51"/>
+      <c r="O97" s="51"/>
+      <c r="P97" s="51"/>
+      <c r="Q97" s="51"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95</v>
       </c>
-      <c r="B98" s="71" t="s">
+      <c r="B98" s="55" t="s">
         <v>223</v>
       </c>
-      <c r="C98" s="68"/>
-      <c r="D98" s="68"/>
-      <c r="E98" s="68"/>
-      <c r="F98" s="68"/>
-      <c r="G98" s="68"/>
-      <c r="H98" s="68"/>
-      <c r="I98" s="68"/>
-      <c r="J98" s="68"/>
-      <c r="K98" s="68"/>
-      <c r="L98" s="68"/>
-      <c r="M98" s="68"/>
-      <c r="N98" s="68"/>
-      <c r="O98" s="68"/>
-      <c r="P98" s="68"/>
-      <c r="Q98" s="68"/>
+      <c r="C98" s="52"/>
+      <c r="D98" s="52"/>
+      <c r="E98" s="52"/>
+      <c r="F98" s="52"/>
+      <c r="G98" s="52"/>
+      <c r="H98" s="52"/>
+      <c r="I98" s="52"/>
+      <c r="J98" s="52"/>
+      <c r="K98" s="52"/>
+      <c r="L98" s="52"/>
+      <c r="M98" s="52"/>
+      <c r="N98" s="52"/>
+      <c r="O98" s="52"/>
+      <c r="P98" s="52"/>
+      <c r="Q98" s="52"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>96</v>
       </c>
-      <c r="B99" s="70" t="s">
+      <c r="B99" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="C99" s="67"/>
-      <c r="D99" s="67"/>
-      <c r="E99" s="67"/>
-      <c r="F99" s="67"/>
-      <c r="G99" s="67"/>
-      <c r="H99" s="67"/>
-      <c r="I99" s="67"/>
-      <c r="J99" s="67"/>
-      <c r="K99" s="67"/>
-      <c r="L99" s="67"/>
-      <c r="M99" s="67"/>
-      <c r="N99" s="67"/>
-      <c r="O99" s="67"/>
-      <c r="P99" s="67"/>
-      <c r="Q99" s="67"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="51"/>
+      <c r="E99" s="51"/>
+      <c r="F99" s="51"/>
+      <c r="G99" s="51"/>
+      <c r="H99" s="51"/>
+      <c r="I99" s="51"/>
+      <c r="J99" s="51"/>
+      <c r="K99" s="51"/>
+      <c r="L99" s="51"/>
+      <c r="M99" s="51"/>
+      <c r="N99" s="51"/>
+      <c r="O99" s="51"/>
+      <c r="P99" s="51"/>
+      <c r="Q99" s="51"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>97</v>
       </c>
-      <c r="B100" s="71" t="s">
+      <c r="B100" s="55" t="s">
         <v>225</v>
       </c>
-      <c r="C100" s="68"/>
-      <c r="D100" s="68"/>
-      <c r="E100" s="68"/>
-      <c r="F100" s="68"/>
-      <c r="G100" s="68"/>
-      <c r="H100" s="68"/>
-      <c r="I100" s="68"/>
-      <c r="J100" s="68"/>
-      <c r="K100" s="68"/>
-      <c r="L100" s="68"/>
-      <c r="M100" s="68"/>
-      <c r="N100" s="68"/>
-      <c r="O100" s="68"/>
-      <c r="P100" s="68"/>
-      <c r="Q100" s="68"/>
+      <c r="C100" s="52"/>
+      <c r="D100" s="52"/>
+      <c r="E100" s="52"/>
+      <c r="F100" s="52"/>
+      <c r="G100" s="52"/>
+      <c r="H100" s="52"/>
+      <c r="I100" s="52"/>
+      <c r="J100" s="52"/>
+      <c r="K100" s="52"/>
+      <c r="L100" s="52"/>
+      <c r="M100" s="52"/>
+      <c r="N100" s="52"/>
+      <c r="O100" s="52"/>
+      <c r="P100" s="52"/>
+      <c r="Q100" s="52"/>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>98</v>
       </c>
-      <c r="B101" s="70" t="s">
+      <c r="B101" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C101" s="67"/>
-      <c r="D101" s="67"/>
-      <c r="E101" s="67"/>
-      <c r="F101" s="67"/>
-      <c r="G101" s="67"/>
-      <c r="H101" s="67"/>
-      <c r="I101" s="67"/>
-      <c r="J101" s="67"/>
-      <c r="K101" s="67"/>
-      <c r="L101" s="67"/>
-      <c r="M101" s="67"/>
-      <c r="N101" s="67"/>
-      <c r="O101" s="67"/>
-      <c r="P101" s="67"/>
-      <c r="Q101" s="67"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="51"/>
+      <c r="E101" s="51"/>
+      <c r="F101" s="51"/>
+      <c r="G101" s="51"/>
+      <c r="H101" s="51"/>
+      <c r="I101" s="51"/>
+      <c r="J101" s="51"/>
+      <c r="K101" s="51"/>
+      <c r="L101" s="51"/>
+      <c r="M101" s="51"/>
+      <c r="N101" s="51"/>
+      <c r="O101" s="51"/>
+      <c r="P101" s="51"/>
+      <c r="Q101" s="51"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>99</v>
       </c>
-      <c r="B102" s="71" t="s">
+      <c r="B102" s="55" t="s">
         <v>227</v>
       </c>
-      <c r="C102" s="68"/>
-      <c r="D102" s="68"/>
-      <c r="E102" s="68"/>
-      <c r="F102" s="68"/>
-      <c r="G102" s="68"/>
-      <c r="H102" s="68"/>
-      <c r="I102" s="68"/>
-      <c r="J102" s="68"/>
-      <c r="K102" s="68"/>
-      <c r="L102" s="68"/>
-      <c r="M102" s="68"/>
-      <c r="N102" s="68"/>
-      <c r="O102" s="68"/>
-      <c r="P102" s="68"/>
-      <c r="Q102" s="68"/>
+      <c r="C102" s="52"/>
+      <c r="D102" s="52"/>
+      <c r="E102" s="52"/>
+      <c r="F102" s="52"/>
+      <c r="G102" s="52"/>
+      <c r="H102" s="52"/>
+      <c r="I102" s="52"/>
+      <c r="J102" s="52"/>
+      <c r="K102" s="52"/>
+      <c r="L102" s="52"/>
+      <c r="M102" s="52"/>
+      <c r="N102" s="52"/>
+      <c r="O102" s="52"/>
+      <c r="P102" s="52"/>
+      <c r="Q102" s="52"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>100</v>
       </c>
-      <c r="B103" s="70" t="s">
+      <c r="B103" s="54" t="s">
         <v>228</v>
       </c>
-      <c r="C103" s="67"/>
-      <c r="D103" s="67"/>
-      <c r="E103" s="67"/>
-      <c r="F103" s="67"/>
-      <c r="G103" s="67"/>
-      <c r="H103" s="67"/>
-      <c r="I103" s="67"/>
-      <c r="J103" s="67"/>
-      <c r="K103" s="67"/>
-      <c r="L103" s="67"/>
-      <c r="M103" s="67"/>
-      <c r="N103" s="67"/>
-      <c r="O103" s="67"/>
-      <c r="P103" s="67"/>
-      <c r="Q103" s="67"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="51"/>
+      <c r="E103" s="51"/>
+      <c r="F103" s="51"/>
+      <c r="G103" s="51"/>
+      <c r="H103" s="51"/>
+      <c r="I103" s="51"/>
+      <c r="J103" s="51"/>
+      <c r="K103" s="51"/>
+      <c r="L103" s="51"/>
+      <c r="M103" s="51"/>
+      <c r="N103" s="51"/>
+      <c r="O103" s="51"/>
+      <c r="P103" s="51"/>
+      <c r="Q103" s="51"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>101</v>
       </c>
-      <c r="B104" s="71" t="s">
+      <c r="B104" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="C104" s="68"/>
-      <c r="D104" s="68"/>
-      <c r="E104" s="68"/>
-      <c r="F104" s="68"/>
-      <c r="G104" s="68"/>
-      <c r="H104" s="68"/>
-      <c r="I104" s="68"/>
-      <c r="J104" s="68"/>
-      <c r="K104" s="68"/>
-      <c r="L104" s="68"/>
-      <c r="M104" s="68"/>
-      <c r="N104" s="68"/>
-      <c r="O104" s="68"/>
-      <c r="P104" s="68"/>
-      <c r="Q104" s="68"/>
+      <c r="C104" s="52"/>
+      <c r="D104" s="52"/>
+      <c r="E104" s="52"/>
+      <c r="F104" s="52"/>
+      <c r="G104" s="52"/>
+      <c r="H104" s="52"/>
+      <c r="I104" s="52"/>
+      <c r="J104" s="52"/>
+      <c r="K104" s="52"/>
+      <c r="L104" s="52"/>
+      <c r="M104" s="52"/>
+      <c r="N104" s="52"/>
+      <c r="O104" s="52"/>
+      <c r="P104" s="52"/>
+      <c r="Q104" s="52"/>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>102</v>
       </c>
-      <c r="B105" s="70" t="s">
+      <c r="B105" s="54" t="s">
         <v>230</v>
       </c>
-      <c r="C105" s="67"/>
-      <c r="D105" s="67"/>
-      <c r="E105" s="67"/>
-      <c r="F105" s="67"/>
-      <c r="G105" s="67"/>
-      <c r="H105" s="67"/>
-      <c r="I105" s="67"/>
-      <c r="J105" s="67"/>
-      <c r="K105" s="67"/>
-      <c r="L105" s="67"/>
-      <c r="M105" s="67"/>
-      <c r="N105" s="67"/>
-      <c r="O105" s="67"/>
-      <c r="P105" s="67"/>
-      <c r="Q105" s="67"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="51"/>
+      <c r="E105" s="51"/>
+      <c r="F105" s="51"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="51"/>
+      <c r="I105" s="51"/>
+      <c r="J105" s="51"/>
+      <c r="K105" s="51"/>
+      <c r="L105" s="51"/>
+      <c r="M105" s="51"/>
+      <c r="N105" s="51"/>
+      <c r="O105" s="51"/>
+      <c r="P105" s="51"/>
+      <c r="Q105" s="51"/>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>103</v>
       </c>
-      <c r="B106" s="71" t="s">
+      <c r="B106" s="55" t="s">
         <v>231</v>
       </c>
-      <c r="C106" s="68"/>
-      <c r="D106" s="68"/>
-      <c r="E106" s="68"/>
-      <c r="F106" s="68"/>
-      <c r="G106" s="68"/>
-      <c r="H106" s="68"/>
-      <c r="I106" s="68"/>
-      <c r="J106" s="68"/>
-      <c r="K106" s="68"/>
-      <c r="L106" s="68"/>
-      <c r="M106" s="68"/>
-      <c r="N106" s="68"/>
-      <c r="O106" s="68"/>
-      <c r="P106" s="68"/>
-      <c r="Q106" s="68"/>
+      <c r="C106" s="52"/>
+      <c r="D106" s="52"/>
+      <c r="E106" s="52"/>
+      <c r="F106" s="52"/>
+      <c r="G106" s="52"/>
+      <c r="H106" s="52"/>
+      <c r="I106" s="52"/>
+      <c r="J106" s="52"/>
+      <c r="K106" s="52"/>
+      <c r="L106" s="52"/>
+      <c r="M106" s="52"/>
+      <c r="N106" s="52"/>
+      <c r="O106" s="52"/>
+      <c r="P106" s="52"/>
+      <c r="Q106" s="52"/>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>104</v>
       </c>
-      <c r="B107" s="70" t="s">
+      <c r="B107" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="C107" s="67"/>
-      <c r="D107" s="67"/>
-      <c r="E107" s="67"/>
-      <c r="F107" s="67"/>
-      <c r="G107" s="67"/>
-      <c r="H107" s="67"/>
-      <c r="I107" s="67"/>
-      <c r="J107" s="67"/>
-      <c r="K107" s="67"/>
-      <c r="L107" s="67"/>
-      <c r="M107" s="67"/>
-      <c r="N107" s="67"/>
-      <c r="O107" s="67"/>
-      <c r="P107" s="67"/>
-      <c r="Q107" s="67"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="51"/>
+      <c r="E107" s="51"/>
+      <c r="F107" s="51"/>
+      <c r="G107" s="51"/>
+      <c r="H107" s="51"/>
+      <c r="I107" s="51"/>
+      <c r="J107" s="51"/>
+      <c r="K107" s="51"/>
+      <c r="L107" s="51"/>
+      <c r="M107" s="51"/>
+      <c r="N107" s="51"/>
+      <c r="O107" s="51"/>
+      <c r="P107" s="51"/>
+      <c r="Q107" s="51"/>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>105</v>
       </c>
-      <c r="B108" s="71" t="s">
+      <c r="B108" s="55" t="s">
         <v>233</v>
       </c>
-      <c r="C108" s="68"/>
-      <c r="D108" s="68"/>
-      <c r="E108" s="68"/>
-      <c r="F108" s="68"/>
-      <c r="G108" s="68"/>
-      <c r="H108" s="68"/>
-      <c r="I108" s="68"/>
-      <c r="J108" s="68"/>
-      <c r="K108" s="68"/>
-      <c r="L108" s="68"/>
-      <c r="M108" s="68"/>
-      <c r="N108" s="68"/>
-      <c r="O108" s="68"/>
-      <c r="P108" s="68"/>
-      <c r="Q108" s="68"/>
+      <c r="C108" s="52"/>
+      <c r="D108" s="52"/>
+      <c r="E108" s="52"/>
+      <c r="F108" s="52"/>
+      <c r="G108" s="52"/>
+      <c r="H108" s="52"/>
+      <c r="I108" s="52"/>
+      <c r="J108" s="52"/>
+      <c r="K108" s="52"/>
+      <c r="L108" s="52"/>
+      <c r="M108" s="52"/>
+      <c r="N108" s="52"/>
+      <c r="O108" s="52"/>
+      <c r="P108" s="52"/>
+      <c r="Q108" s="52"/>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>106</v>
       </c>
-      <c r="B109" s="70" t="s">
+      <c r="B109" s="54" t="s">
         <v>234</v>
       </c>
-      <c r="C109" s="67"/>
-      <c r="D109" s="67"/>
-      <c r="E109" s="67"/>
-      <c r="F109" s="67"/>
-      <c r="G109" s="67"/>
-      <c r="H109" s="67"/>
-      <c r="I109" s="67"/>
-      <c r="J109" s="67"/>
-      <c r="K109" s="67"/>
-      <c r="L109" s="67"/>
-      <c r="M109" s="67"/>
-      <c r="N109" s="67"/>
-      <c r="O109" s="67"/>
-      <c r="P109" s="67"/>
-      <c r="Q109" s="67"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="51"/>
+      <c r="E109" s="51"/>
+      <c r="F109" s="51"/>
+      <c r="G109" s="51"/>
+      <c r="H109" s="51"/>
+      <c r="I109" s="51"/>
+      <c r="J109" s="51"/>
+      <c r="K109" s="51"/>
+      <c r="L109" s="51"/>
+      <c r="M109" s="51"/>
+      <c r="N109" s="51"/>
+      <c r="O109" s="51"/>
+      <c r="P109" s="51"/>
+      <c r="Q109" s="51"/>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>107</v>
       </c>
-      <c r="B110" s="71" t="s">
+      <c r="B110" s="55" t="s">
         <v>235</v>
       </c>
-      <c r="C110" s="68"/>
-      <c r="D110" s="68"/>
-      <c r="E110" s="68"/>
-      <c r="F110" s="68"/>
-      <c r="G110" s="68"/>
-      <c r="H110" s="68"/>
-      <c r="I110" s="68"/>
-      <c r="J110" s="68"/>
-      <c r="K110" s="68"/>
-      <c r="L110" s="68"/>
-      <c r="M110" s="68"/>
-      <c r="N110" s="68"/>
-      <c r="O110" s="68"/>
-      <c r="P110" s="68"/>
-      <c r="Q110" s="68"/>
+      <c r="C110" s="52"/>
+      <c r="D110" s="52"/>
+      <c r="E110" s="52"/>
+      <c r="F110" s="52"/>
+      <c r="G110" s="52"/>
+      <c r="H110" s="52"/>
+      <c r="I110" s="52"/>
+      <c r="J110" s="52"/>
+      <c r="K110" s="52"/>
+      <c r="L110" s="52"/>
+      <c r="M110" s="52"/>
+      <c r="N110" s="52"/>
+      <c r="O110" s="52"/>
+      <c r="P110" s="52"/>
+      <c r="Q110" s="52"/>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>108</v>
       </c>
-      <c r="B111" s="70" t="s">
+      <c r="B111" s="54" t="s">
         <v>236</v>
       </c>
-      <c r="C111" s="67"/>
-      <c r="D111" s="67"/>
-      <c r="E111" s="67"/>
-      <c r="F111" s="67"/>
-      <c r="G111" s="67"/>
-      <c r="H111" s="67"/>
-      <c r="I111" s="67"/>
-      <c r="J111" s="67"/>
-      <c r="K111" s="67"/>
-      <c r="L111" s="67"/>
-      <c r="M111" s="67"/>
-      <c r="N111" s="67"/>
-      <c r="O111" s="67"/>
-      <c r="P111" s="67"/>
-      <c r="Q111" s="67"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="51"/>
+      <c r="E111" s="51"/>
+      <c r="F111" s="51"/>
+      <c r="G111" s="51"/>
+      <c r="H111" s="51"/>
+      <c r="I111" s="51"/>
+      <c r="J111" s="51"/>
+      <c r="K111" s="51"/>
+      <c r="L111" s="51"/>
+      <c r="M111" s="51"/>
+      <c r="N111" s="51"/>
+      <c r="O111" s="51"/>
+      <c r="P111" s="51"/>
+      <c r="Q111" s="51"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>109</v>
       </c>
-      <c r="B112" s="71" t="s">
+      <c r="B112" s="55" t="s">
         <v>237</v>
       </c>
-      <c r="C112" s="68"/>
-      <c r="D112" s="68"/>
-      <c r="E112" s="68"/>
-      <c r="F112" s="68"/>
-      <c r="G112" s="68"/>
-      <c r="H112" s="68"/>
-      <c r="I112" s="68"/>
-      <c r="J112" s="68"/>
-      <c r="K112" s="68"/>
-      <c r="L112" s="68"/>
-      <c r="M112" s="68"/>
-      <c r="N112" s="68"/>
-      <c r="O112" s="68"/>
-      <c r="P112" s="68"/>
-      <c r="Q112" s="68"/>
+      <c r="C112" s="52"/>
+      <c r="D112" s="52"/>
+      <c r="E112" s="52"/>
+      <c r="F112" s="52"/>
+      <c r="G112" s="52"/>
+      <c r="H112" s="52"/>
+      <c r="I112" s="52"/>
+      <c r="J112" s="52"/>
+      <c r="K112" s="52"/>
+      <c r="L112" s="52"/>
+      <c r="M112" s="52"/>
+      <c r="N112" s="52"/>
+      <c r="O112" s="52"/>
+      <c r="P112" s="52"/>
+      <c r="Q112" s="52"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>110</v>
       </c>
-      <c r="B113" s="70" t="s">
+      <c r="B113" s="54" t="s">
         <v>238</v>
       </c>
-      <c r="C113" s="67"/>
-      <c r="D113" s="67"/>
-      <c r="E113" s="67"/>
-      <c r="F113" s="67"/>
-      <c r="G113" s="67"/>
-      <c r="H113" s="67"/>
-      <c r="I113" s="67"/>
-      <c r="J113" s="67"/>
-      <c r="K113" s="67"/>
-      <c r="L113" s="67"/>
-      <c r="M113" s="67"/>
-      <c r="N113" s="67"/>
-      <c r="O113" s="67"/>
-      <c r="P113" s="67"/>
-      <c r="Q113" s="67"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="51"/>
+      <c r="E113" s="51"/>
+      <c r="F113" s="51"/>
+      <c r="G113" s="51"/>
+      <c r="H113" s="51"/>
+      <c r="I113" s="51"/>
+      <c r="J113" s="51"/>
+      <c r="K113" s="51"/>
+      <c r="L113" s="51"/>
+      <c r="M113" s="51"/>
+      <c r="N113" s="51"/>
+      <c r="O113" s="51"/>
+      <c r="P113" s="51"/>
+      <c r="Q113" s="51"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>111</v>
       </c>
-      <c r="B114" s="71" t="s">
+      <c r="B114" s="55" t="s">
         <v>239</v>
       </c>
-      <c r="C114" s="68"/>
-      <c r="D114" s="68"/>
-      <c r="E114" s="68"/>
-      <c r="F114" s="68"/>
-      <c r="G114" s="68"/>
-      <c r="H114" s="68"/>
-      <c r="I114" s="68"/>
-      <c r="J114" s="68"/>
-      <c r="K114" s="68"/>
-      <c r="L114" s="68"/>
-      <c r="M114" s="68"/>
-      <c r="N114" s="68"/>
-      <c r="O114" s="68"/>
-      <c r="P114" s="68"/>
-      <c r="Q114" s="68"/>
+      <c r="C114" s="52"/>
+      <c r="D114" s="52"/>
+      <c r="E114" s="52"/>
+      <c r="F114" s="52"/>
+      <c r="G114" s="52"/>
+      <c r="H114" s="52"/>
+      <c r="I114" s="52"/>
+      <c r="J114" s="52"/>
+      <c r="K114" s="52"/>
+      <c r="L114" s="52"/>
+      <c r="M114" s="52"/>
+      <c r="N114" s="52"/>
+      <c r="O114" s="52"/>
+      <c r="P114" s="52"/>
+      <c r="Q114" s="52"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>112</v>
       </c>
-      <c r="B115" s="70" t="s">
+      <c r="B115" s="54" t="s">
         <v>240</v>
       </c>
-      <c r="C115" s="67"/>
-      <c r="D115" s="67"/>
-      <c r="E115" s="67"/>
-      <c r="F115" s="67"/>
-      <c r="G115" s="67"/>
-      <c r="H115" s="67"/>
-      <c r="I115" s="67"/>
-      <c r="J115" s="67"/>
-      <c r="K115" s="67"/>
-      <c r="L115" s="67"/>
-      <c r="M115" s="67"/>
-      <c r="N115" s="67"/>
-      <c r="O115" s="67"/>
-      <c r="P115" s="67"/>
-      <c r="Q115" s="67"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="51"/>
+      <c r="E115" s="51"/>
+      <c r="F115" s="51"/>
+      <c r="G115" s="51"/>
+      <c r="H115" s="51"/>
+      <c r="I115" s="51"/>
+      <c r="J115" s="51"/>
+      <c r="K115" s="51"/>
+      <c r="L115" s="51"/>
+      <c r="M115" s="51"/>
+      <c r="N115" s="51"/>
+      <c r="O115" s="51"/>
+      <c r="P115" s="51"/>
+      <c r="Q115" s="51"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>113</v>
       </c>
-      <c r="B116" s="71" t="s">
+      <c r="B116" s="55" t="s">
         <v>241</v>
       </c>
-      <c r="C116" s="68"/>
-      <c r="D116" s="68"/>
-      <c r="E116" s="68"/>
-      <c r="F116" s="68"/>
-      <c r="G116" s="68"/>
-      <c r="H116" s="68"/>
-      <c r="I116" s="68"/>
-      <c r="J116" s="68"/>
-      <c r="K116" s="68"/>
-      <c r="L116" s="68"/>
-      <c r="M116" s="68"/>
-      <c r="N116" s="68"/>
-      <c r="O116" s="68"/>
-      <c r="P116" s="68"/>
-      <c r="Q116" s="68"/>
+      <c r="C116" s="52"/>
+      <c r="D116" s="52"/>
+      <c r="E116" s="52"/>
+      <c r="F116" s="52"/>
+      <c r="G116" s="52"/>
+      <c r="H116" s="52"/>
+      <c r="I116" s="52"/>
+      <c r="J116" s="52"/>
+      <c r="K116" s="52"/>
+      <c r="L116" s="52"/>
+      <c r="M116" s="52"/>
+      <c r="N116" s="52"/>
+      <c r="O116" s="52"/>
+      <c r="P116" s="52"/>
+      <c r="Q116" s="52"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>114</v>
       </c>
-      <c r="B117" s="70" t="s">
+      <c r="B117" s="54" t="s">
         <v>242</v>
       </c>
-      <c r="C117" s="67"/>
-      <c r="D117" s="67"/>
-      <c r="E117" s="67"/>
-      <c r="F117" s="67"/>
-      <c r="G117" s="67"/>
-      <c r="H117" s="67"/>
-      <c r="I117" s="67"/>
-      <c r="J117" s="67"/>
-      <c r="K117" s="67"/>
-      <c r="L117" s="67"/>
-      <c r="M117" s="67"/>
-      <c r="N117" s="67"/>
-      <c r="O117" s="67"/>
-      <c r="P117" s="67"/>
-      <c r="Q117" s="67"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="51"/>
+      <c r="E117" s="51"/>
+      <c r="F117" s="51"/>
+      <c r="G117" s="51"/>
+      <c r="H117" s="51"/>
+      <c r="I117" s="51"/>
+      <c r="J117" s="51"/>
+      <c r="K117" s="51"/>
+      <c r="L117" s="51"/>
+      <c r="M117" s="51"/>
+      <c r="N117" s="51"/>
+      <c r="O117" s="51"/>
+      <c r="P117" s="51"/>
+      <c r="Q117" s="51"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>115</v>
       </c>
-      <c r="B118" s="71" t="s">
+      <c r="B118" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="C118" s="68"/>
-      <c r="D118" s="68"/>
-      <c r="E118" s="68"/>
-      <c r="F118" s="68"/>
-      <c r="G118" s="68"/>
-      <c r="H118" s="68"/>
-      <c r="I118" s="68"/>
-      <c r="J118" s="68"/>
-      <c r="K118" s="68"/>
-      <c r="L118" s="68"/>
-      <c r="M118" s="68"/>
-      <c r="N118" s="68"/>
-      <c r="O118" s="68"/>
-      <c r="P118" s="68"/>
-      <c r="Q118" s="68"/>
+      <c r="C118" s="52"/>
+      <c r="D118" s="52"/>
+      <c r="E118" s="52"/>
+      <c r="F118" s="52"/>
+      <c r="G118" s="52"/>
+      <c r="H118" s="52"/>
+      <c r="I118" s="52"/>
+      <c r="J118" s="52"/>
+      <c r="K118" s="52"/>
+      <c r="L118" s="52"/>
+      <c r="M118" s="52"/>
+      <c r="N118" s="52"/>
+      <c r="O118" s="52"/>
+      <c r="P118" s="52"/>
+      <c r="Q118" s="52"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>116</v>
       </c>
-      <c r="B119" s="70" t="s">
+      <c r="B119" s="54" t="s">
         <v>244</v>
       </c>
-      <c r="C119" s="67"/>
-      <c r="D119" s="67"/>
-      <c r="E119" s="67"/>
-      <c r="F119" s="67"/>
-      <c r="G119" s="67"/>
-      <c r="H119" s="67"/>
-      <c r="I119" s="67"/>
-      <c r="J119" s="67"/>
-      <c r="K119" s="67"/>
-      <c r="L119" s="67"/>
-      <c r="M119" s="67"/>
-      <c r="N119" s="67"/>
-      <c r="O119" s="67"/>
-      <c r="P119" s="67"/>
-      <c r="Q119" s="67"/>
+      <c r="C119" s="51"/>
+      <c r="D119" s="51"/>
+      <c r="E119" s="51"/>
+      <c r="F119" s="51"/>
+      <c r="G119" s="51"/>
+      <c r="H119" s="51"/>
+      <c r="I119" s="51"/>
+      <c r="J119" s="51"/>
+      <c r="K119" s="51"/>
+      <c r="L119" s="51"/>
+      <c r="M119" s="51"/>
+      <c r="N119" s="51"/>
+      <c r="O119" s="51"/>
+      <c r="P119" s="51"/>
+      <c r="Q119" s="51"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>117</v>
       </c>
-      <c r="B120" s="71" t="s">
+      <c r="B120" s="55" t="s">
         <v>245</v>
       </c>
-      <c r="C120" s="68"/>
-      <c r="D120" s="68"/>
-      <c r="E120" s="68"/>
-      <c r="F120" s="68"/>
-      <c r="G120" s="68"/>
-      <c r="H120" s="68"/>
-      <c r="I120" s="68"/>
-      <c r="J120" s="68"/>
-      <c r="K120" s="68"/>
-      <c r="L120" s="68"/>
-      <c r="M120" s="68"/>
-      <c r="N120" s="68"/>
-      <c r="O120" s="68"/>
-      <c r="P120" s="68"/>
-      <c r="Q120" s="68"/>
+      <c r="C120" s="52"/>
+      <c r="D120" s="52"/>
+      <c r="E120" s="52"/>
+      <c r="F120" s="52"/>
+      <c r="G120" s="52"/>
+      <c r="H120" s="52"/>
+      <c r="I120" s="52"/>
+      <c r="J120" s="52"/>
+      <c r="K120" s="52"/>
+      <c r="L120" s="52"/>
+      <c r="M120" s="52"/>
+      <c r="N120" s="52"/>
+      <c r="O120" s="52"/>
+      <c r="P120" s="52"/>
+      <c r="Q120" s="52"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>118</v>
       </c>
-      <c r="B121" s="70" t="s">
+      <c r="B121" s="54" t="s">
         <v>246</v>
       </c>
-      <c r="C121" s="67"/>
-      <c r="D121" s="67"/>
-      <c r="E121" s="67"/>
-      <c r="F121" s="67"/>
-      <c r="G121" s="67"/>
-      <c r="H121" s="67"/>
-      <c r="I121" s="67"/>
-      <c r="J121" s="67"/>
-      <c r="K121" s="67"/>
-      <c r="L121" s="67"/>
-      <c r="M121" s="67"/>
-      <c r="N121" s="67"/>
-      <c r="O121" s="67"/>
-      <c r="P121" s="67"/>
-      <c r="Q121" s="67"/>
+      <c r="C121" s="51"/>
+      <c r="D121" s="51"/>
+      <c r="E121" s="51"/>
+      <c r="F121" s="51"/>
+      <c r="G121" s="51"/>
+      <c r="H121" s="51"/>
+      <c r="I121" s="51"/>
+      <c r="J121" s="51"/>
+      <c r="K121" s="51"/>
+      <c r="L121" s="51"/>
+      <c r="M121" s="51"/>
+      <c r="N121" s="51"/>
+      <c r="O121" s="51"/>
+      <c r="P121" s="51"/>
+      <c r="Q121" s="51"/>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>119</v>
       </c>
-      <c r="B122" s="71" t="s">
+      <c r="B122" s="55" t="s">
         <v>247</v>
       </c>
-      <c r="C122" s="68"/>
-      <c r="D122" s="68"/>
-      <c r="E122" s="68"/>
-      <c r="F122" s="68"/>
-      <c r="G122" s="68"/>
-      <c r="H122" s="68"/>
-      <c r="I122" s="68"/>
-      <c r="J122" s="68"/>
-      <c r="K122" s="68"/>
-      <c r="L122" s="68"/>
-      <c r="M122" s="68"/>
-      <c r="N122" s="68"/>
-      <c r="O122" s="68"/>
-      <c r="P122" s="68"/>
-      <c r="Q122" s="68"/>
+      <c r="C122" s="52"/>
+      <c r="D122" s="52"/>
+      <c r="E122" s="52"/>
+      <c r="F122" s="52"/>
+      <c r="G122" s="52"/>
+      <c r="H122" s="52"/>
+      <c r="I122" s="52"/>
+      <c r="J122" s="52"/>
+      <c r="K122" s="52"/>
+      <c r="L122" s="52"/>
+      <c r="M122" s="52"/>
+      <c r="N122" s="52"/>
+      <c r="O122" s="52"/>
+      <c r="P122" s="52"/>
+      <c r="Q122" s="52"/>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>120</v>
       </c>
-      <c r="B123" s="70" t="s">
+      <c r="B123" s="54" t="s">
         <v>248</v>
       </c>
-      <c r="C123" s="67"/>
-      <c r="D123" s="67"/>
-      <c r="E123" s="67"/>
-      <c r="F123" s="67"/>
-      <c r="G123" s="67"/>
-      <c r="H123" s="67"/>
-      <c r="I123" s="67"/>
-      <c r="J123" s="67"/>
-      <c r="K123" s="67"/>
-      <c r="L123" s="67"/>
-      <c r="M123" s="67"/>
-      <c r="N123" s="67"/>
-      <c r="O123" s="67"/>
-      <c r="P123" s="67"/>
-      <c r="Q123" s="67"/>
+      <c r="C123" s="51"/>
+      <c r="D123" s="51"/>
+      <c r="E123" s="51"/>
+      <c r="F123" s="51"/>
+      <c r="G123" s="51"/>
+      <c r="H123" s="51"/>
+      <c r="I123" s="51"/>
+      <c r="J123" s="51"/>
+      <c r="K123" s="51"/>
+      <c r="L123" s="51"/>
+      <c r="M123" s="51"/>
+      <c r="N123" s="51"/>
+      <c r="O123" s="51"/>
+      <c r="P123" s="51"/>
+      <c r="Q123" s="51"/>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>121</v>
       </c>
-      <c r="B124" s="71" t="s">
+      <c r="B124" s="55" t="s">
         <v>249</v>
       </c>
-      <c r="C124" s="68"/>
-      <c r="D124" s="68"/>
-      <c r="E124" s="68"/>
-      <c r="F124" s="68"/>
-      <c r="G124" s="68"/>
-      <c r="H124" s="68"/>
-      <c r="I124" s="68"/>
-      <c r="J124" s="68"/>
-      <c r="K124" s="68"/>
-      <c r="L124" s="68"/>
-      <c r="M124" s="68"/>
-      <c r="N124" s="68"/>
-      <c r="O124" s="68"/>
-      <c r="P124" s="68"/>
-      <c r="Q124" s="68"/>
+      <c r="C124" s="52"/>
+      <c r="D124" s="52"/>
+      <c r="E124" s="52"/>
+      <c r="F124" s="52"/>
+      <c r="G124" s="52"/>
+      <c r="H124" s="52"/>
+      <c r="I124" s="52"/>
+      <c r="J124" s="52"/>
+      <c r="K124" s="52"/>
+      <c r="L124" s="52"/>
+      <c r="M124" s="52"/>
+      <c r="N124" s="52"/>
+      <c r="O124" s="52"/>
+      <c r="P124" s="52"/>
+      <c r="Q124" s="52"/>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>122</v>
       </c>
-      <c r="B125" s="70" t="s">
+      <c r="B125" s="54" t="s">
         <v>250</v>
       </c>
-      <c r="C125" s="67"/>
-      <c r="D125" s="67"/>
-      <c r="E125" s="67"/>
-      <c r="F125" s="67"/>
-      <c r="G125" s="67"/>
-      <c r="H125" s="67"/>
-      <c r="I125" s="67"/>
-      <c r="J125" s="67"/>
-      <c r="K125" s="67"/>
-      <c r="L125" s="67"/>
-      <c r="M125" s="67"/>
-      <c r="N125" s="67"/>
-      <c r="O125" s="67"/>
-      <c r="P125" s="67"/>
-      <c r="Q125" s="67"/>
+      <c r="C125" s="51"/>
+      <c r="D125" s="51"/>
+      <c r="E125" s="51"/>
+      <c r="F125" s="51"/>
+      <c r="G125" s="51"/>
+      <c r="H125" s="51"/>
+      <c r="I125" s="51"/>
+      <c r="J125" s="51"/>
+      <c r="K125" s="51"/>
+      <c r="L125" s="51"/>
+      <c r="M125" s="51"/>
+      <c r="N125" s="51"/>
+      <c r="O125" s="51"/>
+      <c r="P125" s="51"/>
+      <c r="Q125" s="51"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>123</v>
       </c>
-      <c r="B126" s="71" t="s">
+      <c r="B126" s="55" t="s">
         <v>251</v>
       </c>
-      <c r="C126" s="68"/>
-      <c r="D126" s="68"/>
-      <c r="E126" s="68"/>
-      <c r="F126" s="68"/>
-      <c r="G126" s="68"/>
-      <c r="H126" s="68"/>
-      <c r="I126" s="68"/>
-      <c r="J126" s="68"/>
-      <c r="K126" s="68"/>
-      <c r="L126" s="68"/>
-      <c r="M126" s="68"/>
-      <c r="N126" s="68"/>
-      <c r="O126" s="68"/>
-      <c r="P126" s="68"/>
-      <c r="Q126" s="68"/>
+      <c r="C126" s="52"/>
+      <c r="D126" s="52"/>
+      <c r="E126" s="52"/>
+      <c r="F126" s="52"/>
+      <c r="G126" s="52"/>
+      <c r="H126" s="52"/>
+      <c r="I126" s="52"/>
+      <c r="J126" s="52"/>
+      <c r="K126" s="52"/>
+      <c r="L126" s="52"/>
+      <c r="M126" s="52"/>
+      <c r="N126" s="52"/>
+      <c r="O126" s="52"/>
+      <c r="P126" s="52"/>
+      <c r="Q126" s="52"/>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>124</v>
       </c>
-      <c r="B127" s="70" t="s">
+      <c r="B127" s="54" t="s">
         <v>252</v>
       </c>
-      <c r="C127" s="67"/>
-      <c r="D127" s="67"/>
-      <c r="E127" s="67"/>
-      <c r="F127" s="67"/>
-      <c r="G127" s="67"/>
-      <c r="H127" s="67"/>
-      <c r="I127" s="67"/>
-      <c r="J127" s="67"/>
-      <c r="K127" s="67"/>
-      <c r="L127" s="67"/>
-      <c r="M127" s="67"/>
-      <c r="N127" s="67"/>
-      <c r="O127" s="67"/>
-      <c r="P127" s="67"/>
-      <c r="Q127" s="67"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="51"/>
+      <c r="E127" s="51"/>
+      <c r="F127" s="51"/>
+      <c r="G127" s="51"/>
+      <c r="H127" s="51"/>
+      <c r="I127" s="51"/>
+      <c r="J127" s="51"/>
+      <c r="K127" s="51"/>
+      <c r="L127" s="51"/>
+      <c r="M127" s="51"/>
+      <c r="N127" s="51"/>
+      <c r="O127" s="51"/>
+      <c r="P127" s="51"/>
+      <c r="Q127" s="51"/>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>125</v>
       </c>
-      <c r="B128" s="71" t="s">
+      <c r="B128" s="55" t="s">
         <v>253</v>
       </c>
-      <c r="C128" s="68"/>
-      <c r="D128" s="68"/>
-      <c r="E128" s="68"/>
-      <c r="F128" s="68"/>
-      <c r="G128" s="68"/>
-      <c r="H128" s="68"/>
-      <c r="I128" s="68"/>
-      <c r="J128" s="68"/>
-      <c r="K128" s="68"/>
-      <c r="L128" s="68"/>
-      <c r="M128" s="68"/>
-      <c r="N128" s="68"/>
-      <c r="O128" s="68"/>
-      <c r="P128" s="68"/>
-      <c r="Q128" s="68"/>
+      <c r="C128" s="52"/>
+      <c r="D128" s="52"/>
+      <c r="E128" s="52"/>
+      <c r="F128" s="52"/>
+      <c r="G128" s="52"/>
+      <c r="H128" s="52"/>
+      <c r="I128" s="52"/>
+      <c r="J128" s="52"/>
+      <c r="K128" s="52"/>
+      <c r="L128" s="52"/>
+      <c r="M128" s="52"/>
+      <c r="N128" s="52"/>
+      <c r="O128" s="52"/>
+      <c r="P128" s="52"/>
+      <c r="Q128" s="52"/>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>126</v>
       </c>
-      <c r="B129" s="70" t="s">
+      <c r="B129" s="54" t="s">
         <v>254</v>
       </c>
-      <c r="C129" s="67"/>
-      <c r="D129" s="67"/>
-      <c r="E129" s="67"/>
-      <c r="F129" s="67"/>
-      <c r="G129" s="67"/>
-      <c r="H129" s="67"/>
-      <c r="I129" s="67"/>
-      <c r="J129" s="67"/>
-      <c r="K129" s="67"/>
-      <c r="L129" s="67"/>
-      <c r="M129" s="67"/>
-      <c r="N129" s="67"/>
-      <c r="O129" s="67"/>
-      <c r="P129" s="67"/>
-      <c r="Q129" s="67"/>
+      <c r="C129" s="51"/>
+      <c r="D129" s="51"/>
+      <c r="E129" s="51"/>
+      <c r="F129" s="51"/>
+      <c r="G129" s="51"/>
+      <c r="H129" s="51"/>
+      <c r="I129" s="51"/>
+      <c r="J129" s="51"/>
+      <c r="K129" s="51"/>
+      <c r="L129" s="51"/>
+      <c r="M129" s="51"/>
+      <c r="N129" s="51"/>
+      <c r="O129" s="51"/>
+      <c r="P129" s="51"/>
+      <c r="Q129" s="51"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>127</v>
       </c>
-      <c r="B130" s="71" t="s">
+      <c r="B130" s="55" t="s">
         <v>255</v>
       </c>
-      <c r="C130" s="68"/>
-      <c r="D130" s="68"/>
-      <c r="E130" s="68"/>
-      <c r="F130" s="68"/>
-      <c r="G130" s="68"/>
-      <c r="H130" s="68"/>
-      <c r="I130" s="68"/>
-      <c r="J130" s="68"/>
-      <c r="K130" s="68"/>
-      <c r="L130" s="68"/>
-      <c r="M130" s="68"/>
-      <c r="N130" s="68"/>
-      <c r="O130" s="68"/>
-      <c r="P130" s="68"/>
-      <c r="Q130" s="68"/>
+      <c r="C130" s="52"/>
+      <c r="D130" s="52"/>
+      <c r="E130" s="52"/>
+      <c r="F130" s="52"/>
+      <c r="G130" s="52"/>
+      <c r="H130" s="52"/>
+      <c r="I130" s="52"/>
+      <c r="J130" s="52"/>
+      <c r="K130" s="52"/>
+      <c r="L130" s="52"/>
+      <c r="M130" s="52"/>
+      <c r="N130" s="52"/>
+      <c r="O130" s="52"/>
+      <c r="P130" s="52"/>
+      <c r="Q130" s="52"/>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>128</v>
       </c>
-      <c r="B131" s="70" t="s">
+      <c r="B131" s="54" t="s">
         <v>256</v>
       </c>
-      <c r="C131" s="67"/>
-      <c r="D131" s="67"/>
-      <c r="E131" s="67"/>
-      <c r="F131" s="67"/>
-      <c r="G131" s="67"/>
-      <c r="H131" s="67"/>
-      <c r="I131" s="67"/>
-      <c r="J131" s="67"/>
-      <c r="K131" s="67"/>
-      <c r="L131" s="67"/>
-      <c r="M131" s="67"/>
-      <c r="N131" s="67"/>
-      <c r="O131" s="67"/>
-      <c r="P131" s="67"/>
-      <c r="Q131" s="67"/>
+      <c r="C131" s="51"/>
+      <c r="D131" s="51"/>
+      <c r="E131" s="51"/>
+      <c r="F131" s="51"/>
+      <c r="G131" s="51"/>
+      <c r="H131" s="51"/>
+      <c r="I131" s="51"/>
+      <c r="J131" s="51"/>
+      <c r="K131" s="51"/>
+      <c r="L131" s="51"/>
+      <c r="M131" s="51"/>
+      <c r="N131" s="51"/>
+      <c r="O131" s="51"/>
+      <c r="P131" s="51"/>
+      <c r="Q131" s="51"/>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>129</v>
       </c>
-      <c r="B132" s="71" t="s">
+      <c r="B132" s="55" t="s">
         <v>257</v>
       </c>
-      <c r="C132" s="68"/>
-      <c r="D132" s="68"/>
-      <c r="E132" s="68"/>
-      <c r="F132" s="68"/>
-      <c r="G132" s="68"/>
-      <c r="H132" s="68"/>
-      <c r="I132" s="68"/>
-      <c r="J132" s="68"/>
-      <c r="K132" s="68"/>
-      <c r="L132" s="68"/>
-      <c r="M132" s="68"/>
-      <c r="N132" s="68"/>
-      <c r="O132" s="68"/>
-      <c r="P132" s="68"/>
-      <c r="Q132" s="68"/>
+      <c r="C132" s="52"/>
+      <c r="D132" s="52"/>
+      <c r="E132" s="52"/>
+      <c r="F132" s="52"/>
+      <c r="G132" s="52"/>
+      <c r="H132" s="52"/>
+      <c r="I132" s="52"/>
+      <c r="J132" s="52"/>
+      <c r="K132" s="52"/>
+      <c r="L132" s="52"/>
+      <c r="M132" s="52"/>
+      <c r="N132" s="52"/>
+      <c r="O132" s="52"/>
+      <c r="P132" s="52"/>
+      <c r="Q132" s="52"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:Q3" xr:uid="{059DF620-CE28-40AA-8496-345611D48E05}"/>
@@ -8910,10 +8939,10 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="60" t="s">
+      <c r="B3" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="60" t="s">
+      <c r="C3" s="45" t="s">
         <v>2</v>
       </c>
     </row>

--- a/main/factions.xlsx
+++ b/main/factions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Gry\Medieval II Total War\mods\MTW2_Tools\main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B9540B-481D-493D-B433-27A84F1BB033}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6661D39-7F3B-44C3-A4D8-2769F92A4327}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="factions" sheetId="1" r:id="rId1"/>
@@ -1221,16 +1221,20 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1254,22 +1258,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1555,7 +1555,7 @@
   </sheetPr>
   <dimension ref="A1:AK73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -1604,17 +1604,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="71" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
       <c r="Q1" s="12" t="s">
         <v>61</v>
       </c>
@@ -1626,62 +1626,62 @@
       </c>
     </row>
     <row r="2" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="C2" s="59"/>
-      <c r="D2" s="59"/>
-      <c r="E2" s="59"/>
-      <c r="F2" s="59"/>
-      <c r="G2" s="59"/>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+      <c r="F2" s="60"/>
+      <c r="G2" s="60"/>
+      <c r="H2" s="60"/>
+      <c r="I2" s="60"/>
+      <c r="J2" s="60"/>
+      <c r="K2" s="60"/>
+      <c r="L2" s="60"/>
+      <c r="M2" s="60"/>
+      <c r="N2" s="60"/>
+      <c r="O2" s="60"/>
     </row>
     <row r="3" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="56" t="s">
         <v>258</v>
       </c>
-      <c r="E3" s="69" t="s">
+      <c r="E3" s="61" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69" t="s">
+      <c r="F3" s="61"/>
+      <c r="G3" s="61"/>
+      <c r="H3" s="61" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="P3" s="68" t="s">
+      <c r="I3" s="61"/>
+      <c r="J3" s="61"/>
+      <c r="P3" s="59" t="s">
         <v>77</v>
       </c>
-      <c r="Q3" s="68"/>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="67" t="s">
+      <c r="Q3" s="59"/>
+      <c r="R3" s="59"/>
+      <c r="S3" s="59"/>
+      <c r="T3" s="59"/>
+      <c r="U3" s="59"/>
+      <c r="V3" s="59"/>
+      <c r="W3" s="59"/>
+      <c r="X3" s="59"/>
+      <c r="Y3" s="59"/>
+      <c r="Z3" s="59"/>
+      <c r="AA3" s="59"/>
+      <c r="AB3" s="59"/>
+      <c r="AC3" s="59"/>
+      <c r="AD3" s="58" t="s">
         <v>78</v>
       </c>
-      <c r="AE3" s="67"/>
-      <c r="AF3" s="67"/>
-      <c r="AG3" s="67"/>
-      <c r="AH3" s="67"/>
-      <c r="AI3" s="67"/>
-      <c r="AJ3" s="67"/>
+      <c r="AE3" s="58"/>
+      <c r="AF3" s="58"/>
+      <c r="AG3" s="58"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
     </row>
     <row r="4" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -4519,41 +4519,41 @@
       </c>
     </row>
     <row r="36" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="AK36" s="72" t="s">
+      <c r="AK36" s="57" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="37" spans="1:37" x14ac:dyDescent="0.25">
-      <c r="B37" s="59" t="s">
+      <c r="B37" s="60" t="s">
         <v>90</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="59"/>
-      <c r="J37" s="59"/>
-      <c r="K37" s="59"/>
-      <c r="L37" s="59"/>
-      <c r="M37" s="59"/>
-      <c r="N37" s="59"/>
-      <c r="O37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="60"/>
+      <c r="J37" s="60"/>
+      <c r="K37" s="60"/>
+      <c r="L37" s="60"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="60"/>
     </row>
     <row r="38" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B38" s="34"/>
-      <c r="C38" s="56" t="s">
+      <c r="C38" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="D38" s="56"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="56"/>
-      <c r="H38" s="63" t="s">
+      <c r="D38" s="70"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="70"/>
+      <c r="H38" s="65" t="s">
         <v>91</v>
       </c>
-      <c r="I38" s="64"/>
+      <c r="I38" s="66"/>
       <c r="J38" s="27" t="s">
         <v>100</v>
       </c>
@@ -4572,14 +4572,14 @@
       <c r="O38" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="P38" s="56" t="s">
+      <c r="P38" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="Q38" s="56"/>
-      <c r="R38" s="56"/>
-      <c r="S38" s="56"/>
-      <c r="T38" s="56"/>
-      <c r="U38" s="56"/>
+      <c r="Q38" s="70"/>
+      <c r="R38" s="70"/>
+      <c r="S38" s="70"/>
+      <c r="T38" s="70"/>
+      <c r="U38" s="70"/>
       <c r="V38" s="43" t="s">
         <v>58</v>
       </c>
@@ -4594,25 +4594,25 @@
       <c r="B39" s="36" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="57"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="57"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="57"/>
-      <c r="I39" s="57"/>
+      <c r="C39" s="69"/>
+      <c r="D39" s="69"/>
+      <c r="E39" s="69"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="69"/>
+      <c r="H39" s="69"/>
+      <c r="I39" s="69"/>
       <c r="J39" s="40"/>
       <c r="K39" s="40"/>
       <c r="L39" s="40"/>
       <c r="M39" s="40"/>
       <c r="N39" s="40"/>
       <c r="O39" s="41"/>
-      <c r="P39" s="57"/>
-      <c r="Q39" s="57"/>
-      <c r="R39" s="57"/>
-      <c r="S39" s="57"/>
-      <c r="T39" s="57"/>
-      <c r="U39" s="57"/>
+      <c r="P39" s="69"/>
+      <c r="Q39" s="69"/>
+      <c r="R39" s="69"/>
+      <c r="S39" s="69"/>
+      <c r="T39" s="69"/>
+      <c r="U39" s="69"/>
       <c r="V39" s="41"/>
       <c r="W39" s="41"/>
       <c r="X39" s="40"/>
@@ -4621,40 +4621,40 @@
       <c r="B40" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
+      <c r="C40" s="69"/>
+      <c r="D40" s="69"/>
+      <c r="E40" s="69"/>
+      <c r="F40" s="69"/>
+      <c r="G40" s="69"/>
+      <c r="H40" s="69"/>
+      <c r="I40" s="69"/>
       <c r="J40" s="40"/>
       <c r="K40" s="40"/>
       <c r="L40" s="40"/>
       <c r="M40" s="40"/>
       <c r="N40" s="40"/>
       <c r="O40" s="41"/>
-      <c r="P40" s="57"/>
-      <c r="Q40" s="57"/>
-      <c r="R40" s="57"/>
-      <c r="S40" s="57"/>
-      <c r="T40" s="57"/>
-      <c r="U40" s="57"/>
+      <c r="P40" s="69"/>
+      <c r="Q40" s="69"/>
+      <c r="R40" s="69"/>
+      <c r="S40" s="69"/>
+      <c r="T40" s="69"/>
+      <c r="U40" s="69"/>
       <c r="V40" s="41"/>
       <c r="W40" s="41"/>
       <c r="X40" s="40"/>
     </row>
     <row r="41" spans="1:37" x14ac:dyDescent="0.25">
       <c r="B41" s="34"/>
-      <c r="C41" s="60" t="s">
+      <c r="C41" s="62" t="s">
         <v>99</v>
       </c>
-      <c r="D41" s="61"/>
-      <c r="E41" s="62"/>
-      <c r="F41" s="60"/>
-      <c r="G41" s="62"/>
-      <c r="H41" s="65"/>
-      <c r="I41" s="66"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="64"/>
+      <c r="F41" s="62"/>
+      <c r="G41" s="64"/>
+      <c r="H41" s="67"/>
+      <c r="I41" s="68"/>
       <c r="J41" s="34"/>
       <c r="K41" s="34"/>
       <c r="L41" s="34"/>
@@ -5714,11 +5714,12 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="AD3:AJ3"/>
-    <mergeCell ref="P3:AC3"/>
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="E3:G3"/>
-    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="P38:U38"/>
+    <mergeCell ref="P39:U39"/>
+    <mergeCell ref="P40:U40"/>
+    <mergeCell ref="B1:J1"/>
+    <mergeCell ref="B37:O37"/>
+    <mergeCell ref="C38:G38"/>
     <mergeCell ref="C41:E41"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="F41:G41"/>
@@ -5727,12 +5728,11 @@
     <mergeCell ref="C40:G40"/>
     <mergeCell ref="H39:I39"/>
     <mergeCell ref="H40:I40"/>
-    <mergeCell ref="P38:U38"/>
-    <mergeCell ref="P39:U39"/>
-    <mergeCell ref="P40:U40"/>
-    <mergeCell ref="B1:J1"/>
-    <mergeCell ref="B37:O37"/>
-    <mergeCell ref="C38:G38"/>
+    <mergeCell ref="AD3:AJ3"/>
+    <mergeCell ref="P3:AC3"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="E3:G3"/>
+    <mergeCell ref="H3:J3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5764,8 +5764,8 @@
   </sheetPr>
   <dimension ref="A1:Q132"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5784,17 +5784,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="B1" s="70" t="s">
+      <c r="B1" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="70"/>
-      <c r="H1" s="70"/>
-      <c r="I1" s="70"/>
-      <c r="J1" s="70"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="72"/>
+      <c r="G1" s="72"/>
+      <c r="H1" s="72"/>
+      <c r="I1" s="72"/>
+      <c r="J1" s="72"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B3" s="28" t="s">
@@ -5850,91 +5850,99 @@
       <c r="A4">
         <v>1</v>
       </c>
-      <c r="B4" s="53" t="s">
-        <v>115</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>116</v>
-      </c>
-      <c r="D4" s="50">
-        <v>100</v>
-      </c>
-      <c r="E4" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="F4" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50"/>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-      <c r="L4" s="50"/>
-      <c r="M4" s="50"/>
-      <c r="N4" s="50"/>
-      <c r="O4" s="50"/>
-      <c r="P4" s="50"/>
-      <c r="Q4" s="50"/>
+      <c r="B4" s="54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="51">
+        <v>60</v>
+      </c>
+      <c r="E4" s="51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F4" s="51" t="s">
+        <v>119</v>
+      </c>
+      <c r="G4" s="51" t="s">
+        <v>120</v>
+      </c>
+      <c r="H4" s="51" t="s">
+        <v>121</v>
+      </c>
+      <c r="I4" s="51"/>
+      <c r="J4" s="51"/>
+      <c r="K4" s="51"/>
+      <c r="L4" s="51"/>
+      <c r="M4" s="51"/>
+      <c r="N4" s="51"/>
+      <c r="O4" s="51"/>
+      <c r="P4" s="51"/>
+      <c r="Q4" s="51"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
-      <c r="B5" s="54" t="s">
-        <v>118</v>
-      </c>
-      <c r="C5" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="51">
-        <v>60</v>
-      </c>
-      <c r="E5" s="51" t="s">
-        <v>118</v>
-      </c>
-      <c r="F5" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="G5" s="51" t="s">
-        <v>120</v>
-      </c>
-      <c r="H5" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="I5" s="51"/>
-      <c r="J5" s="51"/>
-      <c r="K5" s="51"/>
-      <c r="L5" s="51"/>
-      <c r="M5" s="51"/>
-      <c r="N5" s="51"/>
-      <c r="O5" s="51"/>
-      <c r="P5" s="51"/>
-      <c r="Q5" s="51"/>
+      <c r="B5" s="53" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D5" s="50">
+        <v>100</v>
+      </c>
+      <c r="E5" s="50" t="s">
+        <v>115</v>
+      </c>
+      <c r="F5" s="50" t="s">
+        <v>117</v>
+      </c>
+      <c r="G5" s="50"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
+      <c r="M5" s="50"/>
+      <c r="N5" s="50"/>
+      <c r="O5" s="50"/>
+      <c r="P5" s="50"/>
+      <c r="Q5" s="50"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" s="55" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="C6" s="52" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="D6" s="52">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" s="52" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="F6" s="52" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
+        <v>126</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>129</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>130</v>
+      </c>
       <c r="K6" s="52"/>
       <c r="L6" s="52"/>
       <c r="M6" s="52"/>
@@ -5948,16 +5956,16 @@
         <v>4</v>
       </c>
       <c r="B7" s="54" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C7" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D7" s="51">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E7" s="51" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="F7" s="51" t="s">
         <v>126</v>
@@ -5974,8 +5982,12 @@
       <c r="J7" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="K7" s="51"/>
-      <c r="L7" s="51"/>
+      <c r="K7" s="51" t="s">
+        <v>134</v>
+      </c>
+      <c r="L7" s="51" t="s">
+        <v>135</v>
+      </c>
       <c r="M7" s="51"/>
       <c r="N7" s="51"/>
       <c r="O7" s="51"/>
@@ -5987,7 +5999,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="C8" s="52" t="s">
         <v>125</v>
@@ -5996,7 +6008,7 @@
         <v>6</v>
       </c>
       <c r="E8" s="52" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="F8" s="52" t="s">
         <v>126</v>
@@ -6013,8 +6025,12 @@
       <c r="J8" s="52" t="s">
         <v>130</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
+      <c r="K8" s="52" t="s">
+        <v>134</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>135</v>
+      </c>
       <c r="M8" s="52"/>
       <c r="N8" s="52"/>
       <c r="O8" s="52"/>
@@ -6026,16 +6042,16 @@
         <v>6</v>
       </c>
       <c r="B9" s="54" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="C9" s="51" t="s">
         <v>125</v>
       </c>
       <c r="D9" s="51">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E9" s="51" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="F9" s="51" t="s">
         <v>126</v>
@@ -6052,12 +6068,8 @@
       <c r="J9" s="51" t="s">
         <v>130</v>
       </c>
-      <c r="K9" s="51" t="s">
-        <v>134</v>
-      </c>
-      <c r="L9" s="51" t="s">
-        <v>135</v>
-      </c>
+      <c r="K9" s="51"/>
+      <c r="L9" s="51"/>
       <c r="M9" s="51"/>
       <c r="N9" s="51"/>
       <c r="O9" s="51"/>
@@ -6069,38 +6081,26 @@
         <v>7</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>136</v>
+        <v>122</v>
       </c>
       <c r="C10" s="52" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="D10" s="52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E10" s="52" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="F10" s="52" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="52" t="s">
-        <v>127</v>
-      </c>
-      <c r="H10" s="52" t="s">
-        <v>128</v>
-      </c>
-      <c r="I10" s="52" t="s">
-        <v>129</v>
-      </c>
-      <c r="J10" s="52" t="s">
-        <v>130</v>
-      </c>
-      <c r="K10" s="52" t="s">
-        <v>134</v>
-      </c>
-      <c r="L10" s="52" t="s">
-        <v>135</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
       <c r="M10" s="52"/>
       <c r="N10" s="52"/>
       <c r="O10" s="52"/>
@@ -6111,215 +6111,215 @@
       <c r="A11">
         <v>8</v>
       </c>
-      <c r="B11" s="54" t="s">
-        <v>133</v>
-      </c>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
-      <c r="H11" s="51"/>
-      <c r="I11" s="51"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="51"/>
-      <c r="L11" s="51"/>
-      <c r="M11" s="51"/>
-      <c r="N11" s="51"/>
-      <c r="O11" s="51"/>
-      <c r="P11" s="51"/>
-      <c r="Q11" s="51"/>
+      <c r="B11" s="55" t="s">
+        <v>245</v>
+      </c>
+      <c r="C11" s="52"/>
+      <c r="D11" s="52"/>
+      <c r="E11" s="52"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="52"/>
+      <c r="N11" s="52"/>
+      <c r="O11" s="52"/>
+      <c r="P11" s="52"/>
+      <c r="Q11" s="52"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>9</v>
       </c>
-      <c r="B12" s="55" t="s">
-        <v>137</v>
-      </c>
-      <c r="C12" s="52"/>
-      <c r="D12" s="52"/>
-      <c r="E12" s="52"/>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
-      <c r="M12" s="52"/>
-      <c r="N12" s="52"/>
-      <c r="O12" s="52"/>
-      <c r="P12" s="52"/>
-      <c r="Q12" s="52"/>
+      <c r="B12" s="54" t="s">
+        <v>246</v>
+      </c>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="51"/>
+      <c r="J12" s="51"/>
+      <c r="K12" s="51"/>
+      <c r="L12" s="51"/>
+      <c r="M12" s="51"/>
+      <c r="N12" s="51"/>
+      <c r="O12" s="51"/>
+      <c r="P12" s="51"/>
+      <c r="Q12" s="51"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>10</v>
       </c>
-      <c r="B13" s="54" t="s">
-        <v>138</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
-      <c r="H13" s="51"/>
-      <c r="I13" s="51"/>
-      <c r="J13" s="51"/>
-      <c r="K13" s="51"/>
-      <c r="L13" s="51"/>
-      <c r="M13" s="51"/>
-      <c r="N13" s="51"/>
-      <c r="O13" s="51"/>
-      <c r="P13" s="51"/>
-      <c r="Q13" s="51"/>
+      <c r="B13" s="55" t="s">
+        <v>247</v>
+      </c>
+      <c r="C13" s="52"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
-      <c r="B14" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="C14" s="52"/>
-      <c r="D14" s="52"/>
-      <c r="E14" s="52"/>
-      <c r="F14" s="52"/>
-      <c r="G14" s="52"/>
-      <c r="H14" s="52"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
-      <c r="K14" s="52"/>
-      <c r="L14" s="52"/>
-      <c r="M14" s="52"/>
-      <c r="N14" s="52"/>
-      <c r="O14" s="52"/>
-      <c r="P14" s="52"/>
-      <c r="Q14" s="52"/>
+      <c r="B14" s="54" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="51"/>
+      <c r="J14" s="51"/>
+      <c r="K14" s="51"/>
+      <c r="L14" s="51"/>
+      <c r="M14" s="51"/>
+      <c r="N14" s="51"/>
+      <c r="O14" s="51"/>
+      <c r="P14" s="51"/>
+      <c r="Q14" s="51"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>12</v>
       </c>
-      <c r="B15" s="54" t="s">
-        <v>140</v>
-      </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
-      <c r="K15" s="51"/>
-      <c r="L15" s="51"/>
-      <c r="M15" s="51"/>
-      <c r="N15" s="51"/>
-      <c r="O15" s="51"/>
-      <c r="P15" s="51"/>
-      <c r="Q15" s="51"/>
+      <c r="B15" s="55" t="s">
+        <v>149</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="52"/>
+      <c r="E15" s="52"/>
+      <c r="F15" s="52"/>
+      <c r="G15" s="52"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="52"/>
+      <c r="J15" s="52"/>
+      <c r="K15" s="52"/>
+      <c r="L15" s="52"/>
+      <c r="M15" s="52"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="52"/>
+      <c r="P15" s="52"/>
+      <c r="Q15" s="52"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>13</v>
       </c>
-      <c r="B16" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="C16" s="52"/>
-      <c r="D16" s="52"/>
-      <c r="E16" s="52"/>
-      <c r="F16" s="52"/>
-      <c r="G16" s="52"/>
-      <c r="H16" s="52"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="52"/>
-      <c r="K16" s="52"/>
-      <c r="L16" s="52"/>
-      <c r="M16" s="52"/>
-      <c r="N16" s="52"/>
-      <c r="O16" s="52"/>
-      <c r="P16" s="52"/>
-      <c r="Q16" s="52"/>
+      <c r="B16" s="54" t="s">
+        <v>150</v>
+      </c>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51"/>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51"/>
+      <c r="L16" s="51"/>
+      <c r="M16" s="51"/>
+      <c r="N16" s="51"/>
+      <c r="O16" s="51"/>
+      <c r="P16" s="51"/>
+      <c r="Q16" s="51"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>14</v>
       </c>
-      <c r="B17" s="54" t="s">
-        <v>142</v>
-      </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51"/>
-      <c r="L17" s="51"/>
-      <c r="M17" s="51"/>
-      <c r="N17" s="51"/>
-      <c r="O17" s="51"/>
-      <c r="P17" s="51"/>
-      <c r="Q17" s="51"/>
+      <c r="B17" s="55" t="s">
+        <v>227</v>
+      </c>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
+      <c r="F17" s="52"/>
+      <c r="G17" s="52"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="52"/>
+      <c r="J17" s="52"/>
+      <c r="K17" s="52"/>
+      <c r="L17" s="52"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="52"/>
+      <c r="O17" s="52"/>
+      <c r="P17" s="52"/>
+      <c r="Q17" s="52"/>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>15</v>
       </c>
-      <c r="B18" s="55" t="s">
-        <v>143</v>
-      </c>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
-      <c r="F18" s="52"/>
-      <c r="G18" s="52"/>
-      <c r="H18" s="52"/>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
-      <c r="K18" s="52"/>
-      <c r="L18" s="52"/>
-      <c r="M18" s="52"/>
-      <c r="N18" s="52"/>
-      <c r="O18" s="52"/>
-      <c r="P18" s="52"/>
-      <c r="Q18" s="52"/>
+      <c r="B18" s="54" t="s">
+        <v>228</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="51"/>
+      <c r="G18" s="51"/>
+      <c r="H18" s="51"/>
+      <c r="I18" s="51"/>
+      <c r="J18" s="51"/>
+      <c r="K18" s="51"/>
+      <c r="L18" s="51"/>
+      <c r="M18" s="51"/>
+      <c r="N18" s="51"/>
+      <c r="O18" s="51"/>
+      <c r="P18" s="51"/>
+      <c r="Q18" s="51"/>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>16</v>
       </c>
-      <c r="B19" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="C19" s="51"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="51"/>
-      <c r="F19" s="51"/>
-      <c r="G19" s="51"/>
-      <c r="H19" s="51"/>
-      <c r="I19" s="51"/>
-      <c r="J19" s="51"/>
-      <c r="K19" s="51"/>
-      <c r="L19" s="51"/>
-      <c r="M19" s="51"/>
-      <c r="N19" s="51"/>
-      <c r="O19" s="51"/>
-      <c r="P19" s="51"/>
-      <c r="Q19" s="51"/>
+      <c r="B19" s="55" t="s">
+        <v>229</v>
+      </c>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
+      <c r="F19" s="52"/>
+      <c r="G19" s="52"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="52"/>
+      <c r="J19" s="52"/>
+      <c r="K19" s="52"/>
+      <c r="L19" s="52"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="52"/>
+      <c r="O19" s="52"/>
+      <c r="P19" s="52"/>
+      <c r="Q19" s="52"/>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>17</v>
       </c>
       <c r="B20" s="55" t="s">
-        <v>145</v>
+        <v>193</v>
       </c>
       <c r="C20" s="52"/>
       <c r="D20" s="52"/>
@@ -6342,7 +6342,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="54" t="s">
-        <v>146</v>
+        <v>194</v>
       </c>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -6365,7 +6365,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="55" t="s">
-        <v>147</v>
+        <v>195</v>
       </c>
       <c r="C22" s="52"/>
       <c r="D22" s="52"/>
@@ -6388,7 +6388,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="54" t="s">
-        <v>148</v>
+        <v>236</v>
       </c>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -6411,7 +6411,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="55" t="s">
-        <v>149</v>
+        <v>237</v>
       </c>
       <c r="C24" s="52"/>
       <c r="D24" s="52"/>
@@ -6433,31 +6433,31 @@
       <c r="A25">
         <v>22</v>
       </c>
-      <c r="B25" s="54" t="s">
-        <v>150</v>
-      </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="51"/>
-      <c r="G25" s="51"/>
-      <c r="H25" s="51"/>
-      <c r="I25" s="51"/>
-      <c r="J25" s="51"/>
-      <c r="K25" s="51"/>
-      <c r="L25" s="51"/>
-      <c r="M25" s="51"/>
-      <c r="N25" s="51"/>
-      <c r="O25" s="51"/>
-      <c r="P25" s="51"/>
-      <c r="Q25" s="51"/>
+      <c r="B25" s="55" t="s">
+        <v>213</v>
+      </c>
+      <c r="C25" s="52"/>
+      <c r="D25" s="52"/>
+      <c r="E25" s="52"/>
+      <c r="F25" s="52"/>
+      <c r="G25" s="52"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="52"/>
+      <c r="J25" s="52"/>
+      <c r="K25" s="52"/>
+      <c r="L25" s="52"/>
+      <c r="M25" s="52"/>
+      <c r="N25" s="52"/>
+      <c r="O25" s="52"/>
+      <c r="P25" s="52"/>
+      <c r="Q25" s="52"/>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>23</v>
       </c>
       <c r="B26" s="55" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="C26" s="52"/>
       <c r="D26" s="52"/>
@@ -6480,7 +6480,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="54" t="s">
-        <v>152</v>
+        <v>190</v>
       </c>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -6502,77 +6502,77 @@
       <c r="A28">
         <v>25</v>
       </c>
-      <c r="B28" s="55" t="s">
-        <v>153</v>
-      </c>
-      <c r="C28" s="52"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="52"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
-      <c r="K28" s="52"/>
-      <c r="L28" s="52"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="52"/>
-      <c r="O28" s="52"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
+      <c r="B28" s="54" t="s">
+        <v>162</v>
+      </c>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="51"/>
+      <c r="G28" s="51"/>
+      <c r="H28" s="51"/>
+      <c r="I28" s="51"/>
+      <c r="J28" s="51"/>
+      <c r="K28" s="51"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="51"/>
+      <c r="N28" s="51"/>
+      <c r="O28" s="51"/>
+      <c r="P28" s="51"/>
+      <c r="Q28" s="51"/>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>26</v>
       </c>
-      <c r="B29" s="54" t="s">
-        <v>154</v>
-      </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="51"/>
-      <c r="F29" s="51"/>
-      <c r="G29" s="51"/>
-      <c r="H29" s="51"/>
-      <c r="I29" s="51"/>
-      <c r="J29" s="51"/>
-      <c r="K29" s="51"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="51"/>
-      <c r="N29" s="51"/>
-      <c r="O29" s="51"/>
-      <c r="P29" s="51"/>
-      <c r="Q29" s="51"/>
+      <c r="B29" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="52"/>
+      <c r="D29" s="52"/>
+      <c r="E29" s="52"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="52"/>
+      <c r="K29" s="52"/>
+      <c r="L29" s="52"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="52"/>
+      <c r="O29" s="52"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>27</v>
       </c>
-      <c r="B30" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="C30" s="52"/>
-      <c r="D30" s="52"/>
-      <c r="E30" s="52"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
-      <c r="K30" s="52"/>
-      <c r="L30" s="52"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="52"/>
-      <c r="O30" s="52"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
+      <c r="B30" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="C30" s="51"/>
+      <c r="D30" s="51"/>
+      <c r="E30" s="51"/>
+      <c r="F30" s="51"/>
+      <c r="G30" s="51"/>
+      <c r="H30" s="51"/>
+      <c r="I30" s="51"/>
+      <c r="J30" s="51"/>
+      <c r="K30" s="51"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="51"/>
+      <c r="O30" s="51"/>
+      <c r="P30" s="51"/>
+      <c r="Q30" s="51"/>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>28</v>
       </c>
       <c r="B31" s="54" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -6595,7 +6595,7 @@
         <v>29</v>
       </c>
       <c r="B32" s="55" t="s">
-        <v>157</v>
+        <v>139</v>
       </c>
       <c r="C32" s="52"/>
       <c r="D32" s="52"/>
@@ -6618,7 +6618,7 @@
         <v>30</v>
       </c>
       <c r="B33" s="54" t="s">
-        <v>158</v>
+        <v>140</v>
       </c>
       <c r="C33" s="51"/>
       <c r="D33" s="51"/>
@@ -6640,77 +6640,77 @@
       <c r="A34">
         <v>31</v>
       </c>
-      <c r="B34" s="55" t="s">
-        <v>159</v>
-      </c>
-      <c r="C34" s="52"/>
-      <c r="D34" s="52"/>
-      <c r="E34" s="52"/>
-      <c r="F34" s="52"/>
-      <c r="G34" s="52"/>
-      <c r="H34" s="52"/>
-      <c r="I34" s="52"/>
-      <c r="J34" s="52"/>
-      <c r="K34" s="52"/>
-      <c r="L34" s="52"/>
-      <c r="M34" s="52"/>
-      <c r="N34" s="52"/>
-      <c r="O34" s="52"/>
-      <c r="P34" s="52"/>
-      <c r="Q34" s="52"/>
+      <c r="B34" s="54" t="s">
+        <v>234</v>
+      </c>
+      <c r="C34" s="51"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="51"/>
+      <c r="G34" s="51"/>
+      <c r="H34" s="51"/>
+      <c r="I34" s="51"/>
+      <c r="J34" s="51"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="51"/>
+      <c r="M34" s="51"/>
+      <c r="N34" s="51"/>
+      <c r="O34" s="51"/>
+      <c r="P34" s="51"/>
+      <c r="Q34" s="51"/>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>32</v>
       </c>
-      <c r="B35" s="54" t="s">
-        <v>160</v>
-      </c>
-      <c r="C35" s="51"/>
-      <c r="D35" s="51"/>
-      <c r="E35" s="51"/>
-      <c r="F35" s="51"/>
-      <c r="G35" s="51"/>
-      <c r="H35" s="51"/>
-      <c r="I35" s="51"/>
-      <c r="J35" s="51"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="51"/>
-      <c r="M35" s="51"/>
-      <c r="N35" s="51"/>
-      <c r="O35" s="51"/>
-      <c r="P35" s="51"/>
-      <c r="Q35" s="51"/>
+      <c r="B35" s="55" t="s">
+        <v>235</v>
+      </c>
+      <c r="C35" s="52"/>
+      <c r="D35" s="52"/>
+      <c r="E35" s="52"/>
+      <c r="F35" s="52"/>
+      <c r="G35" s="52"/>
+      <c r="H35" s="52"/>
+      <c r="I35" s="52"/>
+      <c r="J35" s="52"/>
+      <c r="K35" s="52"/>
+      <c r="L35" s="52"/>
+      <c r="M35" s="52"/>
+      <c r="N35" s="52"/>
+      <c r="O35" s="52"/>
+      <c r="P35" s="52"/>
+      <c r="Q35" s="52"/>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
-      <c r="B36" s="55" t="s">
-        <v>161</v>
-      </c>
-      <c r="C36" s="52"/>
-      <c r="D36" s="52"/>
-      <c r="E36" s="52"/>
-      <c r="F36" s="52"/>
-      <c r="G36" s="52"/>
-      <c r="H36" s="52"/>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
-      <c r="K36" s="52"/>
-      <c r="L36" s="52"/>
-      <c r="M36" s="52"/>
-      <c r="N36" s="52"/>
-      <c r="O36" s="52"/>
-      <c r="P36" s="52"/>
-      <c r="Q36" s="52"/>
+      <c r="B36" s="54" t="s">
+        <v>188</v>
+      </c>
+      <c r="C36" s="51"/>
+      <c r="D36" s="51"/>
+      <c r="E36" s="51"/>
+      <c r="F36" s="51"/>
+      <c r="G36" s="51"/>
+      <c r="H36" s="51"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>34</v>
       </c>
       <c r="B37" s="54" t="s">
-        <v>162</v>
+        <v>244</v>
       </c>
       <c r="C37" s="51"/>
       <c r="D37" s="51"/>
@@ -6732,100 +6732,100 @@
       <c r="A38">
         <v>35</v>
       </c>
-      <c r="B38" s="55" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="52"/>
-      <c r="D38" s="52"/>
-      <c r="E38" s="52"/>
-      <c r="F38" s="52"/>
-      <c r="G38" s="52"/>
-      <c r="H38" s="52"/>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="52"/>
-      <c r="L38" s="52"/>
-      <c r="M38" s="52"/>
-      <c r="N38" s="52"/>
-      <c r="O38" s="52"/>
-      <c r="P38" s="52"/>
-      <c r="Q38" s="52"/>
+      <c r="B38" s="54" t="s">
+        <v>226</v>
+      </c>
+      <c r="C38" s="51"/>
+      <c r="D38" s="51"/>
+      <c r="E38" s="51"/>
+      <c r="F38" s="51"/>
+      <c r="G38" s="51"/>
+      <c r="H38" s="51"/>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>36</v>
       </c>
-      <c r="B39" s="54" t="s">
-        <v>164</v>
-      </c>
-      <c r="C39" s="51"/>
-      <c r="D39" s="51"/>
-      <c r="E39" s="51"/>
-      <c r="F39" s="51"/>
-      <c r="G39" s="51"/>
-      <c r="H39" s="51"/>
-      <c r="I39" s="51"/>
-      <c r="J39" s="51"/>
-      <c r="K39" s="51"/>
-      <c r="L39" s="51"/>
-      <c r="M39" s="51"/>
-      <c r="N39" s="51"/>
-      <c r="O39" s="51"/>
-      <c r="P39" s="51"/>
-      <c r="Q39" s="51"/>
+      <c r="B39" s="55" t="s">
+        <v>249</v>
+      </c>
+      <c r="C39" s="52"/>
+      <c r="D39" s="52"/>
+      <c r="E39" s="52"/>
+      <c r="F39" s="52"/>
+      <c r="G39" s="52"/>
+      <c r="H39" s="52"/>
+      <c r="I39" s="52"/>
+      <c r="J39" s="52"/>
+      <c r="K39" s="52"/>
+      <c r="L39" s="52"/>
+      <c r="M39" s="52"/>
+      <c r="N39" s="52"/>
+      <c r="O39" s="52"/>
+      <c r="P39" s="52"/>
+      <c r="Q39" s="52"/>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>37</v>
       </c>
-      <c r="B40" s="55" t="s">
-        <v>165</v>
-      </c>
-      <c r="C40" s="52"/>
-      <c r="D40" s="52"/>
-      <c r="E40" s="52"/>
-      <c r="F40" s="52"/>
-      <c r="G40" s="52"/>
-      <c r="H40" s="52"/>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="52"/>
-      <c r="L40" s="52"/>
-      <c r="M40" s="52"/>
-      <c r="N40" s="52"/>
-      <c r="O40" s="52"/>
-      <c r="P40" s="52"/>
-      <c r="Q40" s="52"/>
+      <c r="B40" s="54" t="s">
+        <v>250</v>
+      </c>
+      <c r="C40" s="51"/>
+      <c r="D40" s="51"/>
+      <c r="E40" s="51"/>
+      <c r="F40" s="51"/>
+      <c r="G40" s="51"/>
+      <c r="H40" s="51"/>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>38</v>
       </c>
-      <c r="B41" s="54" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="51"/>
-      <c r="D41" s="51"/>
-      <c r="E41" s="51"/>
-      <c r="F41" s="51"/>
-      <c r="G41" s="51"/>
-      <c r="H41" s="51"/>
-      <c r="I41" s="51"/>
-      <c r="J41" s="51"/>
-      <c r="K41" s="51"/>
-      <c r="L41" s="51"/>
-      <c r="M41" s="51"/>
-      <c r="N41" s="51"/>
-      <c r="O41" s="51"/>
-      <c r="P41" s="51"/>
-      <c r="Q41" s="51"/>
+      <c r="B41" s="55" t="s">
+        <v>251</v>
+      </c>
+      <c r="C41" s="52"/>
+      <c r="D41" s="52"/>
+      <c r="E41" s="52"/>
+      <c r="F41" s="52"/>
+      <c r="G41" s="52"/>
+      <c r="H41" s="52"/>
+      <c r="I41" s="52"/>
+      <c r="J41" s="52"/>
+      <c r="K41" s="52"/>
+      <c r="L41" s="52"/>
+      <c r="M41" s="52"/>
+      <c r="N41" s="52"/>
+      <c r="O41" s="52"/>
+      <c r="P41" s="52"/>
+      <c r="Q41" s="52"/>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>39</v>
       </c>
       <c r="B42" s="55" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
       <c r="C42" s="52"/>
       <c r="D42" s="52"/>
@@ -6847,31 +6847,31 @@
       <c r="A43">
         <v>40</v>
       </c>
-      <c r="B43" s="54" t="s">
-        <v>168</v>
-      </c>
-      <c r="C43" s="51"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="51"/>
-      <c r="F43" s="51"/>
-      <c r="G43" s="51"/>
-      <c r="H43" s="51"/>
-      <c r="I43" s="51"/>
-      <c r="J43" s="51"/>
-      <c r="K43" s="51"/>
-      <c r="L43" s="51"/>
-      <c r="M43" s="51"/>
-      <c r="N43" s="51"/>
-      <c r="O43" s="51"/>
-      <c r="P43" s="51"/>
-      <c r="Q43" s="51"/>
+      <c r="B43" s="55" t="s">
+        <v>199</v>
+      </c>
+      <c r="C43" s="52"/>
+      <c r="D43" s="52"/>
+      <c r="E43" s="52"/>
+      <c r="F43" s="52"/>
+      <c r="G43" s="52"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="52"/>
+      <c r="J43" s="52"/>
+      <c r="K43" s="52"/>
+      <c r="L43" s="52"/>
+      <c r="M43" s="52"/>
+      <c r="N43" s="52"/>
+      <c r="O43" s="52"/>
+      <c r="P43" s="52"/>
+      <c r="Q43" s="52"/>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>41</v>
       </c>
       <c r="B44" s="55" t="s">
-        <v>169</v>
+        <v>151</v>
       </c>
       <c r="C44" s="52"/>
       <c r="D44" s="52"/>
@@ -6894,7 +6894,7 @@
         <v>42</v>
       </c>
       <c r="B45" s="54" t="s">
-        <v>170</v>
+        <v>152</v>
       </c>
       <c r="C45" s="51"/>
       <c r="D45" s="51"/>
@@ -6917,7 +6917,7 @@
         <v>43</v>
       </c>
       <c r="B46" s="55" t="s">
-        <v>171</v>
+        <v>153</v>
       </c>
       <c r="C46" s="52"/>
       <c r="D46" s="52"/>
@@ -6940,7 +6940,7 @@
         <v>44</v>
       </c>
       <c r="B47" s="54" t="s">
-        <v>172</v>
+        <v>206</v>
       </c>
       <c r="C47" s="51"/>
       <c r="D47" s="51"/>
@@ -6963,7 +6963,7 @@
         <v>45</v>
       </c>
       <c r="B48" s="55" t="s">
-        <v>173</v>
+        <v>207</v>
       </c>
       <c r="C48" s="52"/>
       <c r="D48" s="52"/>
@@ -6986,7 +6986,7 @@
         <v>46</v>
       </c>
       <c r="B49" s="54" t="s">
-        <v>174</v>
+        <v>208</v>
       </c>
       <c r="C49" s="51"/>
       <c r="D49" s="51"/>
@@ -7008,31 +7008,31 @@
       <c r="A50">
         <v>47</v>
       </c>
-      <c r="B50" s="55" t="s">
-        <v>175</v>
-      </c>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
-      <c r="E50" s="52"/>
-      <c r="F50" s="52"/>
-      <c r="G50" s="52"/>
-      <c r="H50" s="52"/>
-      <c r="I50" s="52"/>
-      <c r="J50" s="52"/>
-      <c r="K50" s="52"/>
-      <c r="L50" s="52"/>
-      <c r="M50" s="52"/>
-      <c r="N50" s="52"/>
-      <c r="O50" s="52"/>
-      <c r="P50" s="52"/>
-      <c r="Q50" s="52"/>
+      <c r="B50" s="54" t="s">
+        <v>248</v>
+      </c>
+      <c r="C50" s="51"/>
+      <c r="D50" s="51"/>
+      <c r="E50" s="51"/>
+      <c r="F50" s="51"/>
+      <c r="G50" s="51"/>
+      <c r="H50" s="51"/>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>48</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>176</v>
+        <v>214</v>
       </c>
       <c r="C51" s="51"/>
       <c r="D51" s="51"/>
@@ -7054,77 +7054,77 @@
       <c r="A52">
         <v>49</v>
       </c>
-      <c r="B52" s="55" t="s">
-        <v>177</v>
-      </c>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
-      <c r="E52" s="52"/>
-      <c r="F52" s="52"/>
-      <c r="G52" s="52"/>
-      <c r="H52" s="52"/>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
-      <c r="K52" s="52"/>
-      <c r="L52" s="52"/>
-      <c r="M52" s="52"/>
-      <c r="N52" s="52"/>
-      <c r="O52" s="52"/>
-      <c r="P52" s="52"/>
-      <c r="Q52" s="52"/>
+      <c r="B52" s="54" t="s">
+        <v>154</v>
+      </c>
+      <c r="C52" s="51"/>
+      <c r="D52" s="51"/>
+      <c r="E52" s="51"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
+      <c r="H52" s="51"/>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>50</v>
       </c>
-      <c r="B53" s="54" t="s">
-        <v>178</v>
-      </c>
-      <c r="C53" s="51"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="51"/>
-      <c r="F53" s="51"/>
-      <c r="G53" s="51"/>
-      <c r="H53" s="51"/>
-      <c r="I53" s="51"/>
-      <c r="J53" s="51"/>
-      <c r="K53" s="51"/>
-      <c r="L53" s="51"/>
-      <c r="M53" s="51"/>
-      <c r="N53" s="51"/>
-      <c r="O53" s="51"/>
-      <c r="P53" s="51"/>
-      <c r="Q53" s="51"/>
+      <c r="B53" s="55" t="s">
+        <v>155</v>
+      </c>
+      <c r="C53" s="52"/>
+      <c r="D53" s="52"/>
+      <c r="E53" s="52"/>
+      <c r="F53" s="52"/>
+      <c r="G53" s="52"/>
+      <c r="H53" s="52"/>
+      <c r="I53" s="52"/>
+      <c r="J53" s="52"/>
+      <c r="K53" s="52"/>
+      <c r="L53" s="52"/>
+      <c r="M53" s="52"/>
+      <c r="N53" s="52"/>
+      <c r="O53" s="52"/>
+      <c r="P53" s="52"/>
+      <c r="Q53" s="52"/>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>51</v>
       </c>
-      <c r="B54" s="55" t="s">
-        <v>179</v>
-      </c>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
-      <c r="E54" s="52"/>
-      <c r="F54" s="52"/>
-      <c r="G54" s="52"/>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
-      <c r="K54" s="52"/>
-      <c r="L54" s="52"/>
-      <c r="M54" s="52"/>
-      <c r="N54" s="52"/>
-      <c r="O54" s="52"/>
-      <c r="P54" s="52"/>
-      <c r="Q54" s="52"/>
+      <c r="B54" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="C54" s="51"/>
+      <c r="D54" s="51"/>
+      <c r="E54" s="51"/>
+      <c r="F54" s="51"/>
+      <c r="G54" s="51"/>
+      <c r="H54" s="51"/>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>52</v>
       </c>
       <c r="B55" s="54" t="s">
-        <v>180</v>
+        <v>218</v>
       </c>
       <c r="C55" s="51"/>
       <c r="D55" s="51"/>
@@ -7147,7 +7147,7 @@
         <v>53</v>
       </c>
       <c r="B56" s="55" t="s">
-        <v>181</v>
+        <v>219</v>
       </c>
       <c r="C56" s="52"/>
       <c r="D56" s="52"/>
@@ -7170,7 +7170,7 @@
         <v>54</v>
       </c>
       <c r="B57" s="54" t="s">
-        <v>182</v>
+        <v>238</v>
       </c>
       <c r="C57" s="51"/>
       <c r="D57" s="51"/>
@@ -7193,7 +7193,7 @@
         <v>55</v>
       </c>
       <c r="B58" s="55" t="s">
-        <v>183</v>
+        <v>239</v>
       </c>
       <c r="C58" s="52"/>
       <c r="D58" s="52"/>
@@ -7216,7 +7216,7 @@
         <v>56</v>
       </c>
       <c r="B59" s="54" t="s">
-        <v>184</v>
+        <v>240</v>
       </c>
       <c r="C59" s="51"/>
       <c r="D59" s="51"/>
@@ -7238,77 +7238,77 @@
       <c r="A60">
         <v>57</v>
       </c>
-      <c r="B60" s="55" t="s">
-        <v>185</v>
-      </c>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
-      <c r="E60" s="52"/>
-      <c r="F60" s="52"/>
-      <c r="G60" s="52"/>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="52"/>
-      <c r="K60" s="52"/>
-      <c r="L60" s="52"/>
-      <c r="M60" s="52"/>
-      <c r="N60" s="52"/>
-      <c r="O60" s="52"/>
-      <c r="P60" s="52"/>
-      <c r="Q60" s="52"/>
+      <c r="B60" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="C60" s="51"/>
+      <c r="D60" s="51"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
+      <c r="H60" s="51"/>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>58</v>
       </c>
-      <c r="B61" s="54" t="s">
-        <v>186</v>
-      </c>
-      <c r="C61" s="51"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
-      <c r="F61" s="51"/>
-      <c r="G61" s="51"/>
-      <c r="H61" s="51"/>
-      <c r="I61" s="51"/>
-      <c r="J61" s="51"/>
-      <c r="K61" s="51"/>
-      <c r="L61" s="51"/>
-      <c r="M61" s="51"/>
-      <c r="N61" s="51"/>
-      <c r="O61" s="51"/>
-      <c r="P61" s="51"/>
-      <c r="Q61" s="51"/>
+      <c r="B61" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="C61" s="52"/>
+      <c r="D61" s="52"/>
+      <c r="E61" s="52"/>
+      <c r="F61" s="52"/>
+      <c r="G61" s="52"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="52"/>
+      <c r="J61" s="52"/>
+      <c r="K61" s="52"/>
+      <c r="L61" s="52"/>
+      <c r="M61" s="52"/>
+      <c r="N61" s="52"/>
+      <c r="O61" s="52"/>
+      <c r="P61" s="52"/>
+      <c r="Q61" s="52"/>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>59</v>
       </c>
-      <c r="B62" s="55" t="s">
-        <v>187</v>
-      </c>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
-      <c r="E62" s="52"/>
-      <c r="F62" s="52"/>
-      <c r="G62" s="52"/>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
-      <c r="K62" s="52"/>
-      <c r="L62" s="52"/>
-      <c r="M62" s="52"/>
-      <c r="N62" s="52"/>
-      <c r="O62" s="52"/>
-      <c r="P62" s="52"/>
-      <c r="Q62" s="52"/>
+      <c r="B62" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="C62" s="51"/>
+      <c r="D62" s="51"/>
+      <c r="E62" s="51"/>
+      <c r="F62" s="51"/>
+      <c r="G62" s="51"/>
+      <c r="H62" s="51"/>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>60</v>
       </c>
       <c r="B63" s="54" t="s">
-        <v>188</v>
+        <v>144</v>
       </c>
       <c r="C63" s="51"/>
       <c r="D63" s="51"/>
@@ -7331,7 +7331,7 @@
         <v>61</v>
       </c>
       <c r="B64" s="55" t="s">
-        <v>189</v>
+        <v>145</v>
       </c>
       <c r="C64" s="52"/>
       <c r="D64" s="52"/>
@@ -7354,7 +7354,7 @@
         <v>62</v>
       </c>
       <c r="B65" s="54" t="s">
-        <v>190</v>
+        <v>146</v>
       </c>
       <c r="C65" s="51"/>
       <c r="D65" s="51"/>
@@ -7376,146 +7376,146 @@
       <c r="A66">
         <v>63</v>
       </c>
-      <c r="B66" s="55" t="s">
-        <v>191</v>
-      </c>
-      <c r="C66" s="52"/>
-      <c r="D66" s="52"/>
-      <c r="E66" s="52"/>
-      <c r="F66" s="52"/>
-      <c r="G66" s="52"/>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
-      <c r="K66" s="52"/>
-      <c r="L66" s="52"/>
-      <c r="M66" s="52"/>
-      <c r="N66" s="52"/>
-      <c r="O66" s="52"/>
-      <c r="P66" s="52"/>
-      <c r="Q66" s="52"/>
+      <c r="B66" s="54" t="s">
+        <v>212</v>
+      </c>
+      <c r="C66" s="51"/>
+      <c r="D66" s="51"/>
+      <c r="E66" s="51"/>
+      <c r="F66" s="51"/>
+      <c r="G66" s="51"/>
+      <c r="H66" s="51"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>64</v>
       </c>
-      <c r="B67" s="54" t="s">
-        <v>192</v>
-      </c>
-      <c r="C67" s="51"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
-      <c r="F67" s="51"/>
-      <c r="G67" s="51"/>
-      <c r="H67" s="51"/>
-      <c r="I67" s="51"/>
-      <c r="J67" s="51"/>
-      <c r="K67" s="51"/>
-      <c r="L67" s="51"/>
-      <c r="M67" s="51"/>
-      <c r="N67" s="51"/>
-      <c r="O67" s="51"/>
-      <c r="P67" s="51"/>
-      <c r="Q67" s="51"/>
+      <c r="B67" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67" s="52"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="52"/>
+      <c r="F67" s="52"/>
+      <c r="G67" s="52"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="52"/>
+      <c r="J67" s="52"/>
+      <c r="K67" s="52"/>
+      <c r="L67" s="52"/>
+      <c r="M67" s="52"/>
+      <c r="N67" s="52"/>
+      <c r="O67" s="52"/>
+      <c r="P67" s="52"/>
+      <c r="Q67" s="52"/>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>65</v>
       </c>
-      <c r="B68" s="55" t="s">
-        <v>193</v>
-      </c>
-      <c r="C68" s="52"/>
-      <c r="D68" s="52"/>
-      <c r="E68" s="52"/>
-      <c r="F68" s="52"/>
-      <c r="G68" s="52"/>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
-      <c r="J68" s="52"/>
-      <c r="K68" s="52"/>
-      <c r="L68" s="52"/>
-      <c r="M68" s="52"/>
-      <c r="N68" s="52"/>
-      <c r="O68" s="52"/>
-      <c r="P68" s="52"/>
-      <c r="Q68" s="52"/>
+      <c r="B68" s="54" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68" s="51"/>
+      <c r="D68" s="51"/>
+      <c r="E68" s="51"/>
+      <c r="F68" s="51"/>
+      <c r="G68" s="51"/>
+      <c r="H68" s="51"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="51"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="51"/>
+      <c r="P68" s="51"/>
+      <c r="Q68" s="51"/>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
-      <c r="B69" s="54" t="s">
-        <v>194</v>
-      </c>
-      <c r="C69" s="51"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
-      <c r="F69" s="51"/>
-      <c r="G69" s="51"/>
-      <c r="H69" s="51"/>
-      <c r="I69" s="51"/>
-      <c r="J69" s="51"/>
-      <c r="K69" s="51"/>
-      <c r="L69" s="51"/>
-      <c r="M69" s="51"/>
-      <c r="N69" s="51"/>
-      <c r="O69" s="51"/>
-      <c r="P69" s="51"/>
-      <c r="Q69" s="51"/>
+      <c r="B69" s="55" t="s">
+        <v>185</v>
+      </c>
+      <c r="C69" s="52"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="52"/>
+      <c r="F69" s="52"/>
+      <c r="G69" s="52"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="52"/>
+      <c r="J69" s="52"/>
+      <c r="K69" s="52"/>
+      <c r="L69" s="52"/>
+      <c r="M69" s="52"/>
+      <c r="N69" s="52"/>
+      <c r="O69" s="52"/>
+      <c r="P69" s="52"/>
+      <c r="Q69" s="52"/>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>67</v>
       </c>
-      <c r="B70" s="55" t="s">
-        <v>195</v>
-      </c>
-      <c r="C70" s="52"/>
-      <c r="D70" s="52"/>
-      <c r="E70" s="52"/>
-      <c r="F70" s="52"/>
-      <c r="G70" s="52"/>
-      <c r="H70" s="52"/>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
-      <c r="K70" s="52"/>
-      <c r="L70" s="52"/>
-      <c r="M70" s="52"/>
-      <c r="N70" s="52"/>
-      <c r="O70" s="52"/>
-      <c r="P70" s="52"/>
-      <c r="Q70" s="52"/>
+      <c r="B70" s="54" t="s">
+        <v>186</v>
+      </c>
+      <c r="C70" s="51"/>
+      <c r="D70" s="51"/>
+      <c r="E70" s="51"/>
+      <c r="F70" s="51"/>
+      <c r="G70" s="51"/>
+      <c r="H70" s="51"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="51"/>
+      <c r="N70" s="51"/>
+      <c r="O70" s="51"/>
+      <c r="P70" s="51"/>
+      <c r="Q70" s="51"/>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>68</v>
       </c>
-      <c r="B71" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="C71" s="51"/>
-      <c r="D71" s="51"/>
-      <c r="E71" s="51"/>
-      <c r="F71" s="51"/>
-      <c r="G71" s="51"/>
-      <c r="H71" s="51"/>
-      <c r="I71" s="51"/>
-      <c r="J71" s="51"/>
-      <c r="K71" s="51"/>
-      <c r="L71" s="51"/>
-      <c r="M71" s="51"/>
-      <c r="N71" s="51"/>
-      <c r="O71" s="51"/>
-      <c r="P71" s="51"/>
-      <c r="Q71" s="51"/>
+      <c r="B71" s="55" t="s">
+        <v>187</v>
+      </c>
+      <c r="C71" s="52"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="52"/>
+      <c r="F71" s="52"/>
+      <c r="G71" s="52"/>
+      <c r="H71" s="52"/>
+      <c r="I71" s="52"/>
+      <c r="J71" s="52"/>
+      <c r="K71" s="52"/>
+      <c r="L71" s="52"/>
+      <c r="M71" s="52"/>
+      <c r="N71" s="52"/>
+      <c r="O71" s="52"/>
+      <c r="P71" s="52"/>
+      <c r="Q71" s="52"/>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>69</v>
       </c>
       <c r="B72" s="55" t="s">
-        <v>197</v>
+        <v>215</v>
       </c>
       <c r="C72" s="52"/>
       <c r="D72" s="52"/>
@@ -7538,7 +7538,7 @@
         <v>70</v>
       </c>
       <c r="B73" s="54" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="C73" s="51"/>
       <c r="D73" s="51"/>
@@ -7561,7 +7561,7 @@
         <v>71</v>
       </c>
       <c r="B74" s="55" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="C74" s="52"/>
       <c r="D74" s="52"/>
@@ -7584,7 +7584,7 @@
         <v>72</v>
       </c>
       <c r="B75" s="54" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="C75" s="51"/>
       <c r="D75" s="51"/>
@@ -7607,7 +7607,7 @@
         <v>73</v>
       </c>
       <c r="B76" s="55" t="s">
-        <v>201</v>
+        <v>183</v>
       </c>
       <c r="C76" s="52"/>
       <c r="D76" s="52"/>
@@ -7630,7 +7630,7 @@
         <v>74</v>
       </c>
       <c r="B77" s="54" t="s">
-        <v>202</v>
+        <v>184</v>
       </c>
       <c r="C77" s="51"/>
       <c r="D77" s="51"/>
@@ -7653,7 +7653,7 @@
         <v>75</v>
       </c>
       <c r="B78" s="55" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C78" s="52"/>
       <c r="D78" s="52"/>
@@ -7676,7 +7676,7 @@
         <v>76</v>
       </c>
       <c r="B79" s="54" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="C79" s="51"/>
       <c r="D79" s="51"/>
@@ -7698,123 +7698,123 @@
       <c r="A80">
         <v>77</v>
       </c>
-      <c r="B80" s="55" t="s">
-        <v>205</v>
-      </c>
-      <c r="C80" s="52"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="52"/>
-      <c r="F80" s="52"/>
-      <c r="G80" s="52"/>
-      <c r="H80" s="52"/>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
-      <c r="K80" s="52"/>
-      <c r="L80" s="52"/>
-      <c r="M80" s="52"/>
-      <c r="N80" s="52"/>
-      <c r="O80" s="52"/>
-      <c r="P80" s="52"/>
-      <c r="Q80" s="52"/>
+      <c r="B80" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="C80" s="51"/>
+      <c r="D80" s="51"/>
+      <c r="E80" s="51"/>
+      <c r="F80" s="51"/>
+      <c r="G80" s="51"/>
+      <c r="H80" s="51"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>78</v>
       </c>
-      <c r="B81" s="54" t="s">
-        <v>206</v>
-      </c>
-      <c r="C81" s="51"/>
-      <c r="D81" s="51"/>
-      <c r="E81" s="51"/>
-      <c r="F81" s="51"/>
-      <c r="G81" s="51"/>
-      <c r="H81" s="51"/>
-      <c r="I81" s="51"/>
-      <c r="J81" s="51"/>
-      <c r="K81" s="51"/>
-      <c r="L81" s="51"/>
-      <c r="M81" s="51"/>
-      <c r="N81" s="51"/>
-      <c r="O81" s="51"/>
-      <c r="P81" s="51"/>
-      <c r="Q81" s="51"/>
+      <c r="B81" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="C81" s="52"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="52"/>
+      <c r="F81" s="52"/>
+      <c r="G81" s="52"/>
+      <c r="H81" s="52"/>
+      <c r="I81" s="52"/>
+      <c r="J81" s="52"/>
+      <c r="K81" s="52"/>
+      <c r="L81" s="52"/>
+      <c r="M81" s="52"/>
+      <c r="N81" s="52"/>
+      <c r="O81" s="52"/>
+      <c r="P81" s="52"/>
+      <c r="Q81" s="52"/>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>79</v>
       </c>
-      <c r="B82" s="55" t="s">
-        <v>207</v>
-      </c>
-      <c r="C82" s="52"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="52"/>
-      <c r="F82" s="52"/>
-      <c r="G82" s="52"/>
-      <c r="H82" s="52"/>
-      <c r="I82" s="52"/>
-      <c r="J82" s="52"/>
-      <c r="K82" s="52"/>
-      <c r="L82" s="52"/>
-      <c r="M82" s="52"/>
-      <c r="N82" s="52"/>
-      <c r="O82" s="52"/>
-      <c r="P82" s="52"/>
-      <c r="Q82" s="52"/>
+      <c r="B82" s="54" t="s">
+        <v>160</v>
+      </c>
+      <c r="C82" s="51"/>
+      <c r="D82" s="51"/>
+      <c r="E82" s="51"/>
+      <c r="F82" s="51"/>
+      <c r="G82" s="51"/>
+      <c r="H82" s="51"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="51"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="51"/>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>80</v>
       </c>
-      <c r="B83" s="54" t="s">
-        <v>208</v>
-      </c>
-      <c r="C83" s="51"/>
-      <c r="D83" s="51"/>
-      <c r="E83" s="51"/>
-      <c r="F83" s="51"/>
-      <c r="G83" s="51"/>
-      <c r="H83" s="51"/>
-      <c r="I83" s="51"/>
-      <c r="J83" s="51"/>
-      <c r="K83" s="51"/>
-      <c r="L83" s="51"/>
-      <c r="M83" s="51"/>
-      <c r="N83" s="51"/>
-      <c r="O83" s="51"/>
-      <c r="P83" s="51"/>
-      <c r="Q83" s="51"/>
+      <c r="B83" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="C83" s="52"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="52"/>
+      <c r="F83" s="52"/>
+      <c r="G83" s="52"/>
+      <c r="H83" s="52"/>
+      <c r="I83" s="52"/>
+      <c r="J83" s="52"/>
+      <c r="K83" s="52"/>
+      <c r="L83" s="52"/>
+      <c r="M83" s="52"/>
+      <c r="N83" s="52"/>
+      <c r="O83" s="52"/>
+      <c r="P83" s="52"/>
+      <c r="Q83" s="52"/>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>81</v>
       </c>
-      <c r="B84" s="55" t="s">
-        <v>209</v>
-      </c>
-      <c r="C84" s="52"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="52"/>
-      <c r="F84" s="52"/>
-      <c r="G84" s="52"/>
-      <c r="H84" s="52"/>
-      <c r="I84" s="52"/>
-      <c r="J84" s="52"/>
-      <c r="K84" s="52"/>
-      <c r="L84" s="52"/>
-      <c r="M84" s="52"/>
-      <c r="N84" s="52"/>
-      <c r="O84" s="52"/>
-      <c r="P84" s="52"/>
-      <c r="Q84" s="52"/>
+      <c r="B84" s="54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C84" s="51"/>
+      <c r="D84" s="51"/>
+      <c r="E84" s="51"/>
+      <c r="F84" s="51"/>
+      <c r="G84" s="51"/>
+      <c r="H84" s="51"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>82</v>
       </c>
       <c r="B85" s="54" t="s">
-        <v>210</v>
+        <v>224</v>
       </c>
       <c r="C85" s="51"/>
       <c r="D85" s="51"/>
@@ -7837,7 +7837,7 @@
         <v>83</v>
       </c>
       <c r="B86" s="55" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="C86" s="52"/>
       <c r="D86" s="52"/>
@@ -7860,7 +7860,7 @@
         <v>84</v>
       </c>
       <c r="B87" s="54" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="C87" s="51"/>
       <c r="D87" s="51"/>
@@ -7883,7 +7883,7 @@
         <v>85</v>
       </c>
       <c r="B88" s="55" t="s">
-        <v>213</v>
+        <v>253</v>
       </c>
       <c r="C88" s="52"/>
       <c r="D88" s="52"/>
@@ -7906,7 +7906,7 @@
         <v>86</v>
       </c>
       <c r="B89" s="54" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="C89" s="51"/>
       <c r="D89" s="51"/>
@@ -7929,7 +7929,7 @@
         <v>87</v>
       </c>
       <c r="B90" s="55" t="s">
-        <v>215</v>
+        <v>233</v>
       </c>
       <c r="C90" s="52"/>
       <c r="D90" s="52"/>
@@ -7952,7 +7952,7 @@
         <v>88</v>
       </c>
       <c r="B91" s="54" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C91" s="51"/>
       <c r="D91" s="51"/>
@@ -7975,7 +7975,7 @@
         <v>89</v>
       </c>
       <c r="B92" s="55" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="C92" s="52"/>
       <c r="D92" s="52"/>
@@ -7998,7 +7998,7 @@
         <v>90</v>
       </c>
       <c r="B93" s="54" t="s">
-        <v>218</v>
+        <v>170</v>
       </c>
       <c r="C93" s="51"/>
       <c r="D93" s="51"/>
@@ -8021,7 +8021,7 @@
         <v>91</v>
       </c>
       <c r="B94" s="55" t="s">
-        <v>219</v>
+        <v>171</v>
       </c>
       <c r="C94" s="52"/>
       <c r="D94" s="52"/>
@@ -8044,7 +8044,7 @@
         <v>92</v>
       </c>
       <c r="B95" s="54" t="s">
-        <v>220</v>
+        <v>172</v>
       </c>
       <c r="C95" s="51"/>
       <c r="D95" s="51"/>
@@ -8066,100 +8066,100 @@
       <c r="A96">
         <v>93</v>
       </c>
-      <c r="B96" s="55" t="s">
-        <v>221</v>
-      </c>
-      <c r="C96" s="52"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="52"/>
-      <c r="F96" s="52"/>
-      <c r="G96" s="52"/>
-      <c r="H96" s="52"/>
-      <c r="I96" s="52"/>
-      <c r="J96" s="52"/>
-      <c r="K96" s="52"/>
-      <c r="L96" s="52"/>
-      <c r="M96" s="52"/>
-      <c r="N96" s="52"/>
-      <c r="O96" s="52"/>
-      <c r="P96" s="52"/>
-      <c r="Q96" s="52"/>
+      <c r="B96" s="54" t="s">
+        <v>196</v>
+      </c>
+      <c r="C96" s="51"/>
+      <c r="D96" s="51"/>
+      <c r="E96" s="51"/>
+      <c r="F96" s="51"/>
+      <c r="G96" s="51"/>
+      <c r="H96" s="51"/>
+      <c r="I96" s="51"/>
+      <c r="J96" s="51"/>
+      <c r="K96" s="51"/>
+      <c r="L96" s="51"/>
+      <c r="M96" s="51"/>
+      <c r="N96" s="51"/>
+      <c r="O96" s="51"/>
+      <c r="P96" s="51"/>
+      <c r="Q96" s="51"/>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>94</v>
       </c>
-      <c r="B97" s="54" t="s">
-        <v>222</v>
-      </c>
-      <c r="C97" s="51"/>
-      <c r="D97" s="51"/>
-      <c r="E97" s="51"/>
-      <c r="F97" s="51"/>
-      <c r="G97" s="51"/>
-      <c r="H97" s="51"/>
-      <c r="I97" s="51"/>
-      <c r="J97" s="51"/>
-      <c r="K97" s="51"/>
-      <c r="L97" s="51"/>
-      <c r="M97" s="51"/>
-      <c r="N97" s="51"/>
-      <c r="O97" s="51"/>
-      <c r="P97" s="51"/>
-      <c r="Q97" s="51"/>
+      <c r="B97" s="55" t="s">
+        <v>197</v>
+      </c>
+      <c r="C97" s="52"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="52"/>
+      <c r="F97" s="52"/>
+      <c r="G97" s="52"/>
+      <c r="H97" s="52"/>
+      <c r="I97" s="52"/>
+      <c r="J97" s="52"/>
+      <c r="K97" s="52"/>
+      <c r="L97" s="52"/>
+      <c r="M97" s="52"/>
+      <c r="N97" s="52"/>
+      <c r="O97" s="52"/>
+      <c r="P97" s="52"/>
+      <c r="Q97" s="52"/>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>95</v>
       </c>
-      <c r="B98" s="55" t="s">
-        <v>223</v>
-      </c>
-      <c r="C98" s="52"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="52"/>
-      <c r="F98" s="52"/>
-      <c r="G98" s="52"/>
-      <c r="H98" s="52"/>
-      <c r="I98" s="52"/>
-      <c r="J98" s="52"/>
-      <c r="K98" s="52"/>
-      <c r="L98" s="52"/>
-      <c r="M98" s="52"/>
-      <c r="N98" s="52"/>
-      <c r="O98" s="52"/>
-      <c r="P98" s="52"/>
-      <c r="Q98" s="52"/>
+      <c r="B98" s="54" t="s">
+        <v>198</v>
+      </c>
+      <c r="C98" s="51"/>
+      <c r="D98" s="51"/>
+      <c r="E98" s="51"/>
+      <c r="F98" s="51"/>
+      <c r="G98" s="51"/>
+      <c r="H98" s="51"/>
+      <c r="I98" s="51"/>
+      <c r="J98" s="51"/>
+      <c r="K98" s="51"/>
+      <c r="L98" s="51"/>
+      <c r="M98" s="51"/>
+      <c r="N98" s="51"/>
+      <c r="O98" s="51"/>
+      <c r="P98" s="51"/>
+      <c r="Q98" s="51"/>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>96</v>
       </c>
-      <c r="B99" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="C99" s="51"/>
-      <c r="D99" s="51"/>
-      <c r="E99" s="51"/>
-      <c r="F99" s="51"/>
-      <c r="G99" s="51"/>
-      <c r="H99" s="51"/>
-      <c r="I99" s="51"/>
-      <c r="J99" s="51"/>
-      <c r="K99" s="51"/>
-      <c r="L99" s="51"/>
-      <c r="M99" s="51"/>
-      <c r="N99" s="51"/>
-      <c r="O99" s="51"/>
-      <c r="P99" s="51"/>
-      <c r="Q99" s="51"/>
+      <c r="B99" s="55" t="s">
+        <v>137</v>
+      </c>
+      <c r="C99" s="52"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="52"/>
+      <c r="F99" s="52"/>
+      <c r="G99" s="52"/>
+      <c r="H99" s="52"/>
+      <c r="I99" s="52"/>
+      <c r="J99" s="52"/>
+      <c r="K99" s="52"/>
+      <c r="L99" s="52"/>
+      <c r="M99" s="52"/>
+      <c r="N99" s="52"/>
+      <c r="O99" s="52"/>
+      <c r="P99" s="52"/>
+      <c r="Q99" s="52"/>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>97</v>
       </c>
       <c r="B100" s="55" t="s">
-        <v>225</v>
+        <v>157</v>
       </c>
       <c r="C100" s="52"/>
       <c r="D100" s="52"/>
@@ -8181,77 +8181,77 @@
       <c r="A101">
         <v>98</v>
       </c>
-      <c r="B101" s="54" t="s">
-        <v>226</v>
-      </c>
-      <c r="C101" s="51"/>
-      <c r="D101" s="51"/>
-      <c r="E101" s="51"/>
-      <c r="F101" s="51"/>
-      <c r="G101" s="51"/>
-      <c r="H101" s="51"/>
-      <c r="I101" s="51"/>
-      <c r="J101" s="51"/>
-      <c r="K101" s="51"/>
-      <c r="L101" s="51"/>
-      <c r="M101" s="51"/>
-      <c r="N101" s="51"/>
-      <c r="O101" s="51"/>
-      <c r="P101" s="51"/>
-      <c r="Q101" s="51"/>
+      <c r="B101" s="55" t="s">
+        <v>167</v>
+      </c>
+      <c r="C101" s="52"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="52"/>
+      <c r="F101" s="52"/>
+      <c r="G101" s="52"/>
+      <c r="H101" s="52"/>
+      <c r="I101" s="52"/>
+      <c r="J101" s="52"/>
+      <c r="K101" s="52"/>
+      <c r="L101" s="52"/>
+      <c r="M101" s="52"/>
+      <c r="N101" s="52"/>
+      <c r="O101" s="52"/>
+      <c r="P101" s="52"/>
+      <c r="Q101" s="52"/>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>99</v>
       </c>
-      <c r="B102" s="55" t="s">
-        <v>227</v>
-      </c>
-      <c r="C102" s="52"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="52"/>
-      <c r="F102" s="52"/>
-      <c r="G102" s="52"/>
-      <c r="H102" s="52"/>
-      <c r="I102" s="52"/>
-      <c r="J102" s="52"/>
-      <c r="K102" s="52"/>
-      <c r="L102" s="52"/>
-      <c r="M102" s="52"/>
-      <c r="N102" s="52"/>
-      <c r="O102" s="52"/>
-      <c r="P102" s="52"/>
-      <c r="Q102" s="52"/>
+      <c r="B102" s="54" t="s">
+        <v>168</v>
+      </c>
+      <c r="C102" s="51"/>
+      <c r="D102" s="51"/>
+      <c r="E102" s="51"/>
+      <c r="F102" s="51"/>
+      <c r="G102" s="51"/>
+      <c r="H102" s="51"/>
+      <c r="I102" s="51"/>
+      <c r="J102" s="51"/>
+      <c r="K102" s="51"/>
+      <c r="L102" s="51"/>
+      <c r="M102" s="51"/>
+      <c r="N102" s="51"/>
+      <c r="O102" s="51"/>
+      <c r="P102" s="51"/>
+      <c r="Q102" s="51"/>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>100</v>
       </c>
-      <c r="B103" s="54" t="s">
-        <v>228</v>
-      </c>
-      <c r="C103" s="51"/>
-      <c r="D103" s="51"/>
-      <c r="E103" s="51"/>
-      <c r="F103" s="51"/>
-      <c r="G103" s="51"/>
-      <c r="H103" s="51"/>
-      <c r="I103" s="51"/>
-      <c r="J103" s="51"/>
-      <c r="K103" s="51"/>
-      <c r="L103" s="51"/>
-      <c r="M103" s="51"/>
-      <c r="N103" s="51"/>
-      <c r="O103" s="51"/>
-      <c r="P103" s="51"/>
-      <c r="Q103" s="51"/>
+      <c r="B103" s="55" t="s">
+        <v>169</v>
+      </c>
+      <c r="C103" s="52"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="52"/>
+      <c r="F103" s="52"/>
+      <c r="G103" s="52"/>
+      <c r="H103" s="52"/>
+      <c r="I103" s="52"/>
+      <c r="J103" s="52"/>
+      <c r="K103" s="52"/>
+      <c r="L103" s="52"/>
+      <c r="M103" s="52"/>
+      <c r="N103" s="52"/>
+      <c r="O103" s="52"/>
+      <c r="P103" s="52"/>
+      <c r="Q103" s="52"/>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>101</v>
       </c>
       <c r="B104" s="55" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="C104" s="52"/>
       <c r="D104" s="52"/>
@@ -8274,7 +8274,7 @@
         <v>102</v>
       </c>
       <c r="B105" s="54" t="s">
-        <v>230</v>
+        <v>174</v>
       </c>
       <c r="C105" s="51"/>
       <c r="D105" s="51"/>
@@ -8297,7 +8297,7 @@
         <v>103</v>
       </c>
       <c r="B106" s="55" t="s">
-        <v>231</v>
+        <v>175</v>
       </c>
       <c r="C106" s="52"/>
       <c r="D106" s="52"/>
@@ -8320,7 +8320,7 @@
         <v>104</v>
       </c>
       <c r="B107" s="54" t="s">
-        <v>232</v>
+        <v>176</v>
       </c>
       <c r="C107" s="51"/>
       <c r="D107" s="51"/>
@@ -8343,7 +8343,7 @@
         <v>105</v>
       </c>
       <c r="B108" s="55" t="s">
-        <v>233</v>
+        <v>177</v>
       </c>
       <c r="C108" s="52"/>
       <c r="D108" s="52"/>
@@ -8366,7 +8366,7 @@
         <v>106</v>
       </c>
       <c r="B109" s="54" t="s">
-        <v>234</v>
+        <v>178</v>
       </c>
       <c r="C109" s="51"/>
       <c r="D109" s="51"/>
@@ -8389,7 +8389,7 @@
         <v>107</v>
       </c>
       <c r="B110" s="55" t="s">
-        <v>235</v>
+        <v>179</v>
       </c>
       <c r="C110" s="52"/>
       <c r="D110" s="52"/>
@@ -8411,238 +8411,238 @@
       <c r="A111">
         <v>108</v>
       </c>
-      <c r="B111" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="C111" s="51"/>
-      <c r="D111" s="51"/>
-      <c r="E111" s="51"/>
-      <c r="F111" s="51"/>
-      <c r="G111" s="51"/>
-      <c r="H111" s="51"/>
-      <c r="I111" s="51"/>
-      <c r="J111" s="51"/>
-      <c r="K111" s="51"/>
-      <c r="L111" s="51"/>
-      <c r="M111" s="51"/>
-      <c r="N111" s="51"/>
-      <c r="O111" s="51"/>
-      <c r="P111" s="51"/>
-      <c r="Q111" s="51"/>
+      <c r="B111" s="55" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" s="52"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="52"/>
+      <c r="F111" s="52"/>
+      <c r="G111" s="52"/>
+      <c r="H111" s="52"/>
+      <c r="I111" s="52"/>
+      <c r="J111" s="52"/>
+      <c r="K111" s="52"/>
+      <c r="L111" s="52"/>
+      <c r="M111" s="52"/>
+      <c r="N111" s="52"/>
+      <c r="O111" s="52"/>
+      <c r="P111" s="52"/>
+      <c r="Q111" s="52"/>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>109</v>
       </c>
-      <c r="B112" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="C112" s="52"/>
-      <c r="D112" s="52"/>
-      <c r="E112" s="52"/>
-      <c r="F112" s="52"/>
-      <c r="G112" s="52"/>
-      <c r="H112" s="52"/>
-      <c r="I112" s="52"/>
-      <c r="J112" s="52"/>
-      <c r="K112" s="52"/>
-      <c r="L112" s="52"/>
-      <c r="M112" s="52"/>
-      <c r="N112" s="52"/>
-      <c r="O112" s="52"/>
-      <c r="P112" s="52"/>
-      <c r="Q112" s="52"/>
+      <c r="B112" s="54" t="s">
+        <v>242</v>
+      </c>
+      <c r="C112" s="51"/>
+      <c r="D112" s="51"/>
+      <c r="E112" s="51"/>
+      <c r="F112" s="51"/>
+      <c r="G112" s="51"/>
+      <c r="H112" s="51"/>
+      <c r="I112" s="51"/>
+      <c r="J112" s="51"/>
+      <c r="K112" s="51"/>
+      <c r="L112" s="51"/>
+      <c r="M112" s="51"/>
+      <c r="N112" s="51"/>
+      <c r="O112" s="51"/>
+      <c r="P112" s="51"/>
+      <c r="Q112" s="51"/>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>110</v>
       </c>
-      <c r="B113" s="54" t="s">
-        <v>238</v>
-      </c>
-      <c r="C113" s="51"/>
-      <c r="D113" s="51"/>
-      <c r="E113" s="51"/>
-      <c r="F113" s="51"/>
-      <c r="G113" s="51"/>
-      <c r="H113" s="51"/>
-      <c r="I113" s="51"/>
-      <c r="J113" s="51"/>
-      <c r="K113" s="51"/>
-      <c r="L113" s="51"/>
-      <c r="M113" s="51"/>
-      <c r="N113" s="51"/>
-      <c r="O113" s="51"/>
-      <c r="P113" s="51"/>
-      <c r="Q113" s="51"/>
+      <c r="B113" s="55" t="s">
+        <v>243</v>
+      </c>
+      <c r="C113" s="52"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="52"/>
+      <c r="F113" s="52"/>
+      <c r="G113" s="52"/>
+      <c r="H113" s="52"/>
+      <c r="I113" s="52"/>
+      <c r="J113" s="52"/>
+      <c r="K113" s="52"/>
+      <c r="L113" s="52"/>
+      <c r="M113" s="52"/>
+      <c r="N113" s="52"/>
+      <c r="O113" s="52"/>
+      <c r="P113" s="52"/>
+      <c r="Q113" s="52"/>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>111</v>
       </c>
-      <c r="B114" s="55" t="s">
-        <v>239</v>
-      </c>
-      <c r="C114" s="52"/>
-      <c r="D114" s="52"/>
-      <c r="E114" s="52"/>
-      <c r="F114" s="52"/>
-      <c r="G114" s="52"/>
-      <c r="H114" s="52"/>
-      <c r="I114" s="52"/>
-      <c r="J114" s="52"/>
-      <c r="K114" s="52"/>
-      <c r="L114" s="52"/>
-      <c r="M114" s="52"/>
-      <c r="N114" s="52"/>
-      <c r="O114" s="52"/>
-      <c r="P114" s="52"/>
-      <c r="Q114" s="52"/>
+      <c r="B114" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="C114" s="51"/>
+      <c r="D114" s="51"/>
+      <c r="E114" s="51"/>
+      <c r="F114" s="51"/>
+      <c r="G114" s="51"/>
+      <c r="H114" s="51"/>
+      <c r="I114" s="51"/>
+      <c r="J114" s="51"/>
+      <c r="K114" s="51"/>
+      <c r="L114" s="51"/>
+      <c r="M114" s="51"/>
+      <c r="N114" s="51"/>
+      <c r="O114" s="51"/>
+      <c r="P114" s="51"/>
+      <c r="Q114" s="51"/>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>112</v>
       </c>
-      <c r="B115" s="54" t="s">
-        <v>240</v>
-      </c>
-      <c r="C115" s="51"/>
-      <c r="D115" s="51"/>
-      <c r="E115" s="51"/>
-      <c r="F115" s="51"/>
-      <c r="G115" s="51"/>
-      <c r="H115" s="51"/>
-      <c r="I115" s="51"/>
-      <c r="J115" s="51"/>
-      <c r="K115" s="51"/>
-      <c r="L115" s="51"/>
-      <c r="M115" s="51"/>
-      <c r="N115" s="51"/>
-      <c r="O115" s="51"/>
-      <c r="P115" s="51"/>
-      <c r="Q115" s="51"/>
+      <c r="B115" s="55" t="s">
+        <v>201</v>
+      </c>
+      <c r="C115" s="52"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="52"/>
+      <c r="F115" s="52"/>
+      <c r="G115" s="52"/>
+      <c r="H115" s="52"/>
+      <c r="I115" s="52"/>
+      <c r="J115" s="52"/>
+      <c r="K115" s="52"/>
+      <c r="L115" s="52"/>
+      <c r="M115" s="52"/>
+      <c r="N115" s="52"/>
+      <c r="O115" s="52"/>
+      <c r="P115" s="52"/>
+      <c r="Q115" s="52"/>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>113</v>
       </c>
-      <c r="B116" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="C116" s="52"/>
-      <c r="D116" s="52"/>
-      <c r="E116" s="52"/>
-      <c r="F116" s="52"/>
-      <c r="G116" s="52"/>
-      <c r="H116" s="52"/>
-      <c r="I116" s="52"/>
-      <c r="J116" s="52"/>
-      <c r="K116" s="52"/>
-      <c r="L116" s="52"/>
-      <c r="M116" s="52"/>
-      <c r="N116" s="52"/>
-      <c r="O116" s="52"/>
-      <c r="P116" s="52"/>
-      <c r="Q116" s="52"/>
+      <c r="B116" s="54" t="s">
+        <v>202</v>
+      </c>
+      <c r="C116" s="51"/>
+      <c r="D116" s="51"/>
+      <c r="E116" s="51"/>
+      <c r="F116" s="51"/>
+      <c r="G116" s="51"/>
+      <c r="H116" s="51"/>
+      <c r="I116" s="51"/>
+      <c r="J116" s="51"/>
+      <c r="K116" s="51"/>
+      <c r="L116" s="51"/>
+      <c r="M116" s="51"/>
+      <c r="N116" s="51"/>
+      <c r="O116" s="51"/>
+      <c r="P116" s="51"/>
+      <c r="Q116" s="51"/>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>114</v>
       </c>
-      <c r="B117" s="54" t="s">
-        <v>242</v>
-      </c>
-      <c r="C117" s="51"/>
-      <c r="D117" s="51"/>
-      <c r="E117" s="51"/>
-      <c r="F117" s="51"/>
-      <c r="G117" s="51"/>
-      <c r="H117" s="51"/>
-      <c r="I117" s="51"/>
-      <c r="J117" s="51"/>
-      <c r="K117" s="51"/>
-      <c r="L117" s="51"/>
-      <c r="M117" s="51"/>
-      <c r="N117" s="51"/>
-      <c r="O117" s="51"/>
-      <c r="P117" s="51"/>
-      <c r="Q117" s="51"/>
+      <c r="B117" s="55" t="s">
+        <v>255</v>
+      </c>
+      <c r="C117" s="52"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="52"/>
+      <c r="F117" s="52"/>
+      <c r="G117" s="52"/>
+      <c r="H117" s="52"/>
+      <c r="I117" s="52"/>
+      <c r="J117" s="52"/>
+      <c r="K117" s="52"/>
+      <c r="L117" s="52"/>
+      <c r="M117" s="52"/>
+      <c r="N117" s="52"/>
+      <c r="O117" s="52"/>
+      <c r="P117" s="52"/>
+      <c r="Q117" s="52"/>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>115</v>
       </c>
-      <c r="B118" s="55" t="s">
-        <v>243</v>
-      </c>
-      <c r="C118" s="52"/>
-      <c r="D118" s="52"/>
-      <c r="E118" s="52"/>
-      <c r="F118" s="52"/>
-      <c r="G118" s="52"/>
-      <c r="H118" s="52"/>
-      <c r="I118" s="52"/>
-      <c r="J118" s="52"/>
-      <c r="K118" s="52"/>
-      <c r="L118" s="52"/>
-      <c r="M118" s="52"/>
-      <c r="N118" s="52"/>
-      <c r="O118" s="52"/>
-      <c r="P118" s="52"/>
-      <c r="Q118" s="52"/>
+      <c r="B118" s="54" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" s="51"/>
+      <c r="D118" s="51"/>
+      <c r="E118" s="51"/>
+      <c r="F118" s="51"/>
+      <c r="G118" s="51"/>
+      <c r="H118" s="51"/>
+      <c r="I118" s="51"/>
+      <c r="J118" s="51"/>
+      <c r="K118" s="51"/>
+      <c r="L118" s="51"/>
+      <c r="M118" s="51"/>
+      <c r="N118" s="51"/>
+      <c r="O118" s="51"/>
+      <c r="P118" s="51"/>
+      <c r="Q118" s="51"/>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>116</v>
       </c>
-      <c r="B119" s="54" t="s">
-        <v>244</v>
-      </c>
-      <c r="C119" s="51"/>
-      <c r="D119" s="51"/>
-      <c r="E119" s="51"/>
-      <c r="F119" s="51"/>
-      <c r="G119" s="51"/>
-      <c r="H119" s="51"/>
-      <c r="I119" s="51"/>
-      <c r="J119" s="51"/>
-      <c r="K119" s="51"/>
-      <c r="L119" s="51"/>
-      <c r="M119" s="51"/>
-      <c r="N119" s="51"/>
-      <c r="O119" s="51"/>
-      <c r="P119" s="51"/>
-      <c r="Q119" s="51"/>
+      <c r="B119" s="55" t="s">
+        <v>257</v>
+      </c>
+      <c r="C119" s="52"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="52"/>
+      <c r="F119" s="52"/>
+      <c r="G119" s="52"/>
+      <c r="H119" s="52"/>
+      <c r="I119" s="52"/>
+      <c r="J119" s="52"/>
+      <c r="K119" s="52"/>
+      <c r="L119" s="52"/>
+      <c r="M119" s="52"/>
+      <c r="N119" s="52"/>
+      <c r="O119" s="52"/>
+      <c r="P119" s="52"/>
+      <c r="Q119" s="52"/>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>117</v>
       </c>
-      <c r="B120" s="55" t="s">
-        <v>245</v>
-      </c>
-      <c r="C120" s="52"/>
-      <c r="D120" s="52"/>
-      <c r="E120" s="52"/>
-      <c r="F120" s="52"/>
-      <c r="G120" s="52"/>
-      <c r="H120" s="52"/>
-      <c r="I120" s="52"/>
-      <c r="J120" s="52"/>
-      <c r="K120" s="52"/>
-      <c r="L120" s="52"/>
-      <c r="M120" s="52"/>
-      <c r="N120" s="52"/>
-      <c r="O120" s="52"/>
-      <c r="P120" s="52"/>
-      <c r="Q120" s="52"/>
+      <c r="B120" s="54" t="s">
+        <v>204</v>
+      </c>
+      <c r="C120" s="51"/>
+      <c r="D120" s="51"/>
+      <c r="E120" s="51"/>
+      <c r="F120" s="51"/>
+      <c r="G120" s="51"/>
+      <c r="H120" s="51"/>
+      <c r="I120" s="51"/>
+      <c r="J120" s="51"/>
+      <c r="K120" s="51"/>
+      <c r="L120" s="51"/>
+      <c r="M120" s="51"/>
+      <c r="N120" s="51"/>
+      <c r="O120" s="51"/>
+      <c r="P120" s="51"/>
+      <c r="Q120" s="51"/>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>118</v>
       </c>
       <c r="B121" s="54" t="s">
-        <v>246</v>
+        <v>158</v>
       </c>
       <c r="C121" s="51"/>
       <c r="D121" s="51"/>
@@ -8665,7 +8665,7 @@
         <v>119</v>
       </c>
       <c r="B122" s="55" t="s">
-        <v>247</v>
+        <v>203</v>
       </c>
       <c r="C122" s="52"/>
       <c r="D122" s="52"/>
@@ -8688,7 +8688,7 @@
         <v>120</v>
       </c>
       <c r="B123" s="54" t="s">
-        <v>248</v>
+        <v>222</v>
       </c>
       <c r="C123" s="51"/>
       <c r="D123" s="51"/>
@@ -8711,7 +8711,7 @@
         <v>121</v>
       </c>
       <c r="B124" s="55" t="s">
-        <v>249</v>
+        <v>223</v>
       </c>
       <c r="C124" s="52"/>
       <c r="D124" s="52"/>
@@ -8733,31 +8733,31 @@
       <c r="A125">
         <v>122</v>
       </c>
-      <c r="B125" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C125" s="51"/>
-      <c r="D125" s="51"/>
-      <c r="E125" s="51"/>
-      <c r="F125" s="51"/>
-      <c r="G125" s="51"/>
-      <c r="H125" s="51"/>
-      <c r="I125" s="51"/>
-      <c r="J125" s="51"/>
-      <c r="K125" s="51"/>
-      <c r="L125" s="51"/>
-      <c r="M125" s="51"/>
-      <c r="N125" s="51"/>
-      <c r="O125" s="51"/>
-      <c r="P125" s="51"/>
-      <c r="Q125" s="51"/>
+      <c r="B125" s="55" t="s">
+        <v>225</v>
+      </c>
+      <c r="C125" s="52"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="52"/>
+      <c r="F125" s="52"/>
+      <c r="G125" s="52"/>
+      <c r="H125" s="52"/>
+      <c r="I125" s="52"/>
+      <c r="J125" s="52"/>
+      <c r="K125" s="52"/>
+      <c r="L125" s="52"/>
+      <c r="M125" s="52"/>
+      <c r="N125" s="52"/>
+      <c r="O125" s="52"/>
+      <c r="P125" s="52"/>
+      <c r="Q125" s="52"/>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>123</v>
       </c>
       <c r="B126" s="55" t="s">
-        <v>251</v>
+        <v>141</v>
       </c>
       <c r="C126" s="52"/>
       <c r="D126" s="52"/>
@@ -8780,7 +8780,7 @@
         <v>124</v>
       </c>
       <c r="B127" s="54" t="s">
-        <v>252</v>
+        <v>142</v>
       </c>
       <c r="C127" s="51"/>
       <c r="D127" s="51"/>
@@ -8803,7 +8803,7 @@
         <v>125</v>
       </c>
       <c r="B128" s="55" t="s">
-        <v>253</v>
+        <v>143</v>
       </c>
       <c r="C128" s="52"/>
       <c r="D128" s="52"/>
@@ -8825,31 +8825,31 @@
       <c r="A129">
         <v>126</v>
       </c>
-      <c r="B129" s="54" t="s">
-        <v>254</v>
-      </c>
-      <c r="C129" s="51"/>
-      <c r="D129" s="51"/>
-      <c r="E129" s="51"/>
-      <c r="F129" s="51"/>
-      <c r="G129" s="51"/>
-      <c r="H129" s="51"/>
-      <c r="I129" s="51"/>
-      <c r="J129" s="51"/>
-      <c r="K129" s="51"/>
-      <c r="L129" s="51"/>
-      <c r="M129" s="51"/>
-      <c r="N129" s="51"/>
-      <c r="O129" s="51"/>
-      <c r="P129" s="51"/>
-      <c r="Q129" s="51"/>
+      <c r="B129" s="55" t="s">
+        <v>205</v>
+      </c>
+      <c r="C129" s="52"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="52"/>
+      <c r="F129" s="52"/>
+      <c r="G129" s="52"/>
+      <c r="H129" s="52"/>
+      <c r="I129" s="52"/>
+      <c r="J129" s="52"/>
+      <c r="K129" s="52"/>
+      <c r="L129" s="52"/>
+      <c r="M129" s="52"/>
+      <c r="N129" s="52"/>
+      <c r="O129" s="52"/>
+      <c r="P129" s="52"/>
+      <c r="Q129" s="52"/>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>127</v>
       </c>
       <c r="B130" s="55" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="C130" s="52"/>
       <c r="D130" s="52"/>
@@ -8872,7 +8872,7 @@
         <v>128</v>
       </c>
       <c r="B131" s="54" t="s">
-        <v>256</v>
+        <v>210</v>
       </c>
       <c r="C131" s="51"/>
       <c r="D131" s="51"/>
@@ -8895,7 +8895,7 @@
         <v>129</v>
       </c>
       <c r="B132" s="55" t="s">
-        <v>257</v>
+        <v>211</v>
       </c>
       <c r="C132" s="52"/>
       <c r="D132" s="52"/>
@@ -8914,7 +8914,11 @@
       <c r="Q132" s="52"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:Q3" xr:uid="{059DF620-CE28-40AA-8496-345611D48E05}"/>
+  <autoFilter ref="B3:Q3" xr:uid="{059DF620-CE28-40AA-8496-345611D48E05}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B4:Q132">
+      <sortCondition ref="C3"/>
+    </sortState>
+  </autoFilter>
   <mergeCells count="1">
     <mergeCell ref="B1:J1"/>
   </mergeCells>
